--- a/BackTest/2019-10-09 BackTest LINK.xlsx
+++ b/BackTest/2019-10-09 BackTest LINK.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>49</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>42.22222222222222</v>
+      </c>
       <c r="L12" t="n">
         <v>3021.1</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>52</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>45.83333333333333</v>
+      </c>
       <c r="L13" t="n">
         <v>3023.3</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>56</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>42.22222222222222</v>
+      </c>
       <c r="L14" t="n">
         <v>3025.9</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>64</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>19.23076923076923</v>
+      </c>
       <c r="L15" t="n">
         <v>3027</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>65</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>16.9811320754717</v>
+      </c>
       <c r="L16" t="n">
         <v>3027.9</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>72</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-2.325581395348837</v>
+      </c>
       <c r="L17" t="n">
         <v>3029.5</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>73</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>2.325581395348837</v>
+      </c>
       <c r="L18" t="n">
         <v>3029.5</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>78</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>2.325581395348837</v>
+      </c>
       <c r="L19" t="n">
         <v>3030.1</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>96</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-32.20338983050847</v>
+      </c>
       <c r="L20" t="n">
         <v>3028.4</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>103</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-25.92592592592592</v>
+      </c>
       <c r="L21" t="n">
         <v>3025.8</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>111</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-15.25423728813559</v>
+      </c>
       <c r="L22" t="n">
         <v>3025.2</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>130</v>
       </c>
       <c r="K23" t="n">
-        <v>-4.761904761904762</v>
+        <v>-43.24324324324324</v>
       </c>
       <c r="L23" t="n">
         <v>3022.4</v>
@@ -1466,7 +1488,7 @@
         <v>149</v>
       </c>
       <c r="K24" t="n">
-        <v>8.96551724137931</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L24" t="n">
         <v>3021.1</v>
@@ -1515,7 +1537,7 @@
         <v>153</v>
       </c>
       <c r="K25" t="n">
-        <v>7.042253521126761</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>3021</v>
@@ -1564,7 +1586,7 @@
         <v>156</v>
       </c>
       <c r="K26" t="n">
-        <v>8.333333333333332</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L26" t="n">
         <v>3021.3</v>
@@ -1613,7 +1635,7 @@
         <v>164</v>
       </c>
       <c r="K27" t="n">
-        <v>2.631578947368421</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L27" t="n">
         <v>3020.1</v>
@@ -1662,7 +1684,7 @@
         <v>182</v>
       </c>
       <c r="K28" t="n">
-        <v>-20.26143790849673</v>
+        <v>-34.61538461538461</v>
       </c>
       <c r="L28" t="n">
         <v>3017</v>
@@ -1711,7 +1733,7 @@
         <v>182</v>
       </c>
       <c r="K29" t="n">
-        <v>-19.73684210526316</v>
+        <v>-20.93023255813954</v>
       </c>
       <c r="L29" t="n">
         <v>3013.4</v>
@@ -1760,7 +1782,7 @@
         <v>183</v>
       </c>
       <c r="K30" t="n">
-        <v>-22.97297297297298</v>
+        <v>-12.5</v>
       </c>
       <c r="L30" t="n">
         <v>3011.7</v>
@@ -1809,7 +1831,7 @@
         <v>196</v>
       </c>
       <c r="K31" t="n">
-        <v>-30.81761006289308</v>
+        <v>-36.47058823529412</v>
       </c>
       <c r="L31" t="n">
         <v>3009.4</v>
@@ -1860,7 +1882,7 @@
         <v>204</v>
       </c>
       <c r="K32" t="n">
-        <v>-29.03225806451613</v>
+        <v>-27.02702702702703</v>
       </c>
       <c r="L32" t="n">
         <v>3005.5</v>
@@ -1911,7 +1933,7 @@
         <v>222</v>
       </c>
       <c r="K33" t="n">
-        <v>-17.64705882352941</v>
+        <v>-28.76712328767123</v>
       </c>
       <c r="L33" t="n">
         <v>3005.3</v>
@@ -1962,7 +1984,7 @@
         <v>228</v>
       </c>
       <c r="K34" t="n">
-        <v>-23.25581395348837</v>
+        <v>-41.33333333333334</v>
       </c>
       <c r="L34" t="n">
         <v>3002.6</v>
@@ -2013,7 +2035,7 @@
         <v>233</v>
       </c>
       <c r="K35" t="n">
-        <v>-15.97633136094675</v>
+        <v>-37.66233766233766</v>
       </c>
       <c r="L35" t="n">
         <v>3000</v>
@@ -2064,7 +2086,7 @@
         <v>233</v>
       </c>
       <c r="K36" t="n">
-        <v>-15.47619047619048</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L36" t="n">
         <v>2997.1</v>
@@ -2115,7 +2137,7 @@
         <v>241</v>
       </c>
       <c r="K37" t="n">
-        <v>-24.2603550295858</v>
+        <v>-18.64406779661017</v>
       </c>
       <c r="L37" t="n">
         <v>2994.2</v>
@@ -2166,7 +2188,7 @@
         <v>241</v>
       </c>
       <c r="K38" t="n">
-        <v>-25</v>
+        <v>-18.64406779661017</v>
       </c>
       <c r="L38" t="n">
         <v>2993.1</v>
@@ -2217,7 +2239,7 @@
         <v>245</v>
       </c>
       <c r="K39" t="n">
-        <v>-25.74850299401198</v>
+        <v>-12.90322580645161</v>
       </c>
       <c r="L39" t="n">
         <v>2992.4</v>
@@ -2268,7 +2290,7 @@
         <v>250</v>
       </c>
       <c r="K40" t="n">
-        <v>-12.98701298701299</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L40" t="n">
         <v>2992.1</v>
@@ -2319,7 +2341,7 @@
         <v>251</v>
       </c>
       <c r="K41" t="n">
-        <v>-8.108108108108109</v>
+        <v>40.42553191489361</v>
       </c>
       <c r="L41" t="n">
         <v>2993.2</v>
@@ -2370,7 +2392,7 @@
         <v>258</v>
       </c>
       <c r="K42" t="n">
-        <v>-8.843537414965986</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L42" t="n">
         <v>2995.8</v>
@@ -2421,7 +2443,7 @@
         <v>264</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L43" t="n">
         <v>2996</v>
@@ -2472,7 +2494,7 @@
         <v>268</v>
       </c>
       <c r="K44" t="n">
-        <v>-19.32773109243698</v>
+        <v>-2.857142857142857</v>
       </c>
       <c r="L44" t="n">
         <v>2996.4</v>
@@ -2523,7 +2545,7 @@
         <v>277</v>
       </c>
       <c r="K45" t="n">
-        <v>-14.51612903225807</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L45" t="n">
         <v>2997.2</v>
@@ -2574,7 +2596,7 @@
         <v>292</v>
       </c>
       <c r="K46" t="n">
-        <v>-26.47058823529412</v>
+        <v>1.96078431372549</v>
       </c>
       <c r="L46" t="n">
         <v>2996.5</v>
@@ -2625,7 +2647,7 @@
         <v>299</v>
       </c>
       <c r="K47" t="n">
-        <v>-15.55555555555556</v>
+        <v>13.79310344827586</v>
       </c>
       <c r="L47" t="n">
         <v>2997.3</v>
@@ -2676,7 +2698,7 @@
         <v>309</v>
       </c>
       <c r="K48" t="n">
-        <v>-10.23622047244094</v>
+        <v>-9.375</v>
       </c>
       <c r="L48" t="n">
         <v>2997.1</v>
@@ -2727,7 +2749,7 @@
         <v>324</v>
       </c>
       <c r="K49" t="n">
-        <v>-19.71830985915493</v>
+        <v>-35.13513513513514</v>
       </c>
       <c r="L49" t="n">
         <v>2995</v>
@@ -2778,7 +2800,7 @@
         <v>336</v>
       </c>
       <c r="K50" t="n">
-        <v>-11.11111111111111</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L50" t="n">
         <v>2993.6</v>
@@ -2829,7 +2851,7 @@
         <v>336</v>
       </c>
       <c r="K51" t="n">
-        <v>-2.857142857142857</v>
+        <v>-28.2051282051282</v>
       </c>
       <c r="L51" t="n">
         <v>2992.1</v>
@@ -2880,7 +2902,7 @@
         <v>349</v>
       </c>
       <c r="K52" t="n">
-        <v>11.72413793103448</v>
+        <v>-3.529411764705882</v>
       </c>
       <c r="L52" t="n">
         <v>2991.2</v>
@@ -2931,7 +2953,7 @@
         <v>364</v>
       </c>
       <c r="K53" t="n">
-        <v>9.859154929577464</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L53" t="n">
         <v>2992.4</v>
@@ -2982,7 +3004,7 @@
         <v>366</v>
       </c>
       <c r="K54" t="n">
-        <v>13.04347826086956</v>
+        <v>5.617977528089887</v>
       </c>
       <c r="L54" t="n">
         <v>2993.8</v>
@@ -3033,7 +3055,7 @@
         <v>370</v>
       </c>
       <c r="K55" t="n">
-        <v>12.40875912408759</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L55" t="n">
         <v>2994.7</v>
@@ -3084,7 +3106,7 @@
         <v>381</v>
       </c>
       <c r="K56" t="n">
-        <v>18.91891891891892</v>
+        <v>34.14634146341464</v>
       </c>
       <c r="L56" t="n">
         <v>2998.2</v>
@@ -3135,7 +3157,7 @@
         <v>392</v>
       </c>
       <c r="K57" t="n">
-        <v>31.12582781456953</v>
+        <v>59.03614457831326</v>
       </c>
       <c r="L57" t="n">
         <v>3002.1</v>
@@ -3186,7 +3208,7 @@
         <v>393</v>
       </c>
       <c r="K58" t="n">
-        <v>31.57894736842105</v>
+        <v>94.20289855072464</v>
       </c>
       <c r="L58" t="n">
         <v>3007.1</v>
@@ -3237,7 +3259,7 @@
         <v>401</v>
       </c>
       <c r="K59" t="n">
-        <v>23.07692307692308</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L59" t="n">
         <v>3012.8</v>
@@ -3288,7 +3310,7 @@
         <v>406</v>
       </c>
       <c r="K60" t="n">
-        <v>16.66666666666666</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L60" t="n">
         <v>3016.8</v>
@@ -3339,7 +3361,7 @@
         <v>411</v>
       </c>
       <c r="K61" t="n">
-        <v>12.5</v>
+        <v>35.48387096774194</v>
       </c>
       <c r="L61" t="n">
         <v>3020.3</v>
@@ -3390,7 +3412,7 @@
         <v>416</v>
       </c>
       <c r="K62" t="n">
-        <v>5.063291139240507</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="L62" t="n">
         <v>3022</v>
@@ -3441,7 +3463,7 @@
         <v>420</v>
       </c>
       <c r="K63" t="n">
-        <v>6.41025641025641</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>3021.8</v>
@@ -3492,7 +3514,7 @@
         <v>425</v>
       </c>
       <c r="K64" t="n">
-        <v>5.732484076433122</v>
+        <v>-16.36363636363636</v>
       </c>
       <c r="L64" t="n">
         <v>3021.3</v>
@@ -3543,7 +3565,7 @@
         <v>433</v>
       </c>
       <c r="K65" t="n">
-        <v>5.128205128205128</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L65" t="n">
         <v>3021.2</v>
@@ -3594,7 +3616,7 @@
         <v>436</v>
       </c>
       <c r="K66" t="n">
-        <v>13.88888888888889</v>
+        <v>-59.09090909090909</v>
       </c>
       <c r="L66" t="n">
         <v>3019.7</v>
@@ -3645,7 +3667,7 @@
         <v>442</v>
       </c>
       <c r="K67" t="n">
-        <v>13.28671328671329</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L67" t="n">
         <v>3017.7</v>
@@ -3696,7 +3718,7 @@
         <v>459</v>
       </c>
       <c r="K68" t="n">
-        <v>8</v>
+        <v>-51.72413793103448</v>
       </c>
       <c r="L68" t="n">
         <v>3013.9</v>
@@ -3747,7 +3769,7 @@
         <v>473</v>
       </c>
       <c r="K69" t="n">
-        <v>8.724832214765101</v>
+        <v>-58.2089552238806</v>
       </c>
       <c r="L69" t="n">
         <v>3009.5</v>
@@ -3798,7 +3820,7 @@
         <v>485</v>
       </c>
       <c r="K70" t="n">
-        <v>8.724832214765101</v>
+        <v>-29.72972972972973</v>
       </c>
       <c r="L70" t="n">
         <v>3006.8</v>
@@ -3849,7 +3871,7 @@
         <v>485</v>
       </c>
       <c r="K71" t="n">
-        <v>8.724832214765101</v>
+        <v>-24.63768115942029</v>
       </c>
       <c r="L71" t="n">
         <v>3004.6</v>
@@ -3900,7 +3922,7 @@
         <v>486</v>
       </c>
       <c r="K72" t="n">
-        <v>0.7299270072992701</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L72" t="n">
         <v>3003</v>
@@ -3951,7 +3973,7 @@
         <v>487</v>
       </c>
       <c r="K73" t="n">
-        <v>-10.56910569105691</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L73" t="n">
         <v>3001.9</v>
@@ -4002,7 +4024,7 @@
         <v>487</v>
       </c>
       <c r="K74" t="n">
-        <v>-9.090909090909092</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L74" t="n">
         <v>3001.3</v>
@@ -4053,7 +4075,7 @@
         <v>495</v>
       </c>
       <c r="K75" t="n">
-        <v>-5.600000000000001</v>
+        <v>-5.084745762711865</v>
       </c>
       <c r="L75" t="n">
         <v>3000.7</v>
@@ -4104,7 +4126,7 @@
         <v>495</v>
       </c>
       <c r="K76" t="n">
-        <v>-15.78947368421053</v>
+        <v>-16.9811320754717</v>
       </c>
       <c r="L76" t="n">
         <v>3000.4</v>
@@ -4155,7 +4177,7 @@
         <v>499</v>
       </c>
       <c r="K77" t="n">
-        <v>-23.36448598130841</v>
+        <v>30</v>
       </c>
       <c r="L77" t="n">
         <v>2999.9</v>
@@ -4206,7 +4228,7 @@
         <v>500</v>
       </c>
       <c r="K78" t="n">
-        <v>-25.23364485981308</v>
+        <v>92.5925925925926</v>
       </c>
       <c r="L78" t="n">
         <v>3001</v>
@@ -4257,7 +4279,7 @@
         <v>503</v>
       </c>
       <c r="K79" t="n">
-        <v>-21.56862745098039</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L79" t="n">
         <v>3003.2</v>
@@ -4308,7 +4330,7 @@
         <v>510</v>
       </c>
       <c r="K80" t="n">
-        <v>-9.615384615384617</v>
+        <v>68</v>
       </c>
       <c r="L80" t="n">
         <v>3004.9</v>
@@ -4359,7 +4381,7 @@
         <v>512</v>
       </c>
       <c r="K81" t="n">
-        <v>-6.930693069306932</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L81" t="n">
         <v>3006.4</v>
@@ -4410,7 +4432,7 @@
         <v>518</v>
       </c>
       <c r="K82" t="n">
-        <v>-7.84313725490196</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="L82" t="n">
         <v>3007.2</v>
@@ -4461,7 +4483,7 @@
         <v>524</v>
       </c>
       <c r="K83" t="n">
-        <v>1.923076923076923</v>
+        <v>35.13513513513514</v>
       </c>
       <c r="L83" t="n">
         <v>3008.5</v>
@@ -4512,7 +4534,7 @@
         <v>537</v>
       </c>
       <c r="K84" t="n">
-        <v>17.85714285714286</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L84" t="n">
         <v>3011.1</v>
@@ -4563,7 +4585,7 @@
         <v>549</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L85" t="n">
         <v>3011.7</v>
@@ -4614,7 +4636,7 @@
         <v>557</v>
       </c>
       <c r="K86" t="n">
-        <v>-4.132231404958678</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L86" t="n">
         <v>3011.5</v>
@@ -4665,7 +4687,7 @@
         <v>560</v>
       </c>
       <c r="K87" t="n">
-        <v>-6.779661016949152</v>
+        <v>-3.333333333333333</v>
       </c>
       <c r="L87" t="n">
         <v>3011.2</v>
@@ -4716,7 +4738,7 @@
         <v>560</v>
       </c>
       <c r="K88" t="n">
-        <v>8.91089108910891</v>
+        <v>1.754385964912281</v>
       </c>
       <c r="L88" t="n">
         <v>3011</v>
@@ -4767,7 +4789,7 @@
         <v>560</v>
       </c>
       <c r="K89" t="n">
-        <v>26.4367816091954</v>
+        <v>-12</v>
       </c>
       <c r="L89" t="n">
         <v>3011.1</v>
@@ -4818,7 +4840,7 @@
         <v>562</v>
       </c>
       <c r="K90" t="n">
-        <v>11.68831168831169</v>
+        <v>-12</v>
       </c>
       <c r="L90" t="n">
         <v>3010.3</v>
@@ -4869,7 +4891,7 @@
         <v>562</v>
       </c>
       <c r="K91" t="n">
-        <v>11.68831168831169</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>3009.7</v>
@@ -4920,7 +4942,7 @@
         <v>564</v>
       </c>
       <c r="K92" t="n">
-        <v>12.82051282051282</v>
+        <v>-10</v>
       </c>
       <c r="L92" t="n">
         <v>3009.9</v>
@@ -4971,7 +4993,7 @@
         <v>571</v>
       </c>
       <c r="K93" t="n">
-        <v>2.380952380952381</v>
+        <v>-70.58823529411765</v>
       </c>
       <c r="L93" t="n">
         <v>3008.8</v>
@@ -5022,7 +5044,7 @@
         <v>577</v>
       </c>
       <c r="K94" t="n">
-        <v>8.888888888888889</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L94" t="n">
         <v>3007</v>
@@ -5073,7 +5095,7 @@
         <v>577</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L95" t="n">
         <v>3006.4</v>
@@ -5124,7 +5146,7 @@
         <v>577</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L96" t="n">
         <v>3006.6</v>
@@ -5175,7 +5197,7 @@
         <v>577</v>
       </c>
       <c r="K97" t="n">
-        <v>-5.128205128205128</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L97" t="n">
         <v>3006.5</v>
@@ -5226,7 +5248,7 @@
         <v>578</v>
       </c>
       <c r="K98" t="n">
-        <v>-5.128205128205128</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L98" t="n">
         <v>3006.3</v>
@@ -5277,7 +5299,7 @@
         <v>583</v>
       </c>
       <c r="K99" t="n">
-        <v>-7.5</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L99" t="n">
         <v>3005.6</v>
@@ -5328,7 +5350,7 @@
         <v>584</v>
       </c>
       <c r="K100" t="n">
-        <v>-18.91891891891892</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L100" t="n">
         <v>3005</v>
@@ -5379,7 +5401,7 @@
         <v>599</v>
       </c>
       <c r="K101" t="n">
-        <v>3.448275862068965</v>
+        <v>20</v>
       </c>
       <c r="L101" t="n">
         <v>3005.9</v>
@@ -5430,7 +5452,7 @@
         <v>607</v>
       </c>
       <c r="K102" t="n">
-        <v>19.10112359550562</v>
+        <v>61.11111111111111</v>
       </c>
       <c r="L102" t="n">
         <v>3007.4</v>
@@ -5481,7 +5503,7 @@
         <v>613</v>
       </c>
       <c r="K103" t="n">
-        <v>5.617977528089887</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L103" t="n">
         <v>3009</v>
@@ -5532,7 +5554,7 @@
         <v>619</v>
       </c>
       <c r="K104" t="n">
-        <v>-2.439024390243902</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="L104" t="n">
         <v>3010.6</v>
@@ -5583,7 +5605,7 @@
         <v>619</v>
       </c>
       <c r="K105" t="n">
-        <v>14.28571428571428</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="L105" t="n">
         <v>3012.2</v>
@@ -5634,7 +5656,7 @@
         <v>625</v>
       </c>
       <c r="K106" t="n">
-        <v>17.64705882352941</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="L106" t="n">
         <v>3013.2</v>
@@ -5685,7 +5707,7 @@
         <v>631</v>
       </c>
       <c r="K107" t="n">
-        <v>21.12676056338028</v>
+        <v>32.0754716981132</v>
       </c>
       <c r="L107" t="n">
         <v>3014.8</v>
@@ -5742,7 +5764,7 @@
         <v>636</v>
       </c>
       <c r="K108" t="n">
-        <v>13.1578947368421</v>
+        <v>32.0754716981132</v>
       </c>
       <c r="L108" t="n">
         <v>3016</v>
@@ -5801,7 +5823,7 @@
         <v>637</v>
       </c>
       <c r="K109" t="n">
-        <v>11.68831168831169</v>
+        <v>32.0754716981132</v>
       </c>
       <c r="L109" t="n">
         <v>3017.6</v>
@@ -5864,7 +5886,7 @@
         <v>637</v>
       </c>
       <c r="K110" t="n">
-        <v>14.66666666666667</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L110" t="n">
         <v>3019.3</v>
@@ -5925,7 +5947,7 @@
         <v>640</v>
       </c>
       <c r="K111" t="n">
-        <v>10.25641025641026</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L111" t="n">
         <v>3019.2</v>
@@ -5986,7 +6008,7 @@
         <v>642</v>
       </c>
       <c r="K112" t="n">
-        <v>5.128205128205128</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L112" t="n">
         <v>3018.1</v>
@@ -6047,7 +6069,7 @@
         <v>642</v>
       </c>
       <c r="K113" t="n">
-        <v>15.49295774647887</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L113" t="n">
         <v>3017.6</v>
@@ -6108,7 +6130,7 @@
         <v>642</v>
       </c>
       <c r="K114" t="n">
-        <v>7.692307692307693</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L114" t="n">
         <v>3016.5</v>
@@ -6169,7 +6191,7 @@
         <v>642</v>
       </c>
       <c r="K115" t="n">
-        <v>7.692307692307693</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L115" t="n">
         <v>3015.4</v>
@@ -6230,7 +6252,7 @@
         <v>645</v>
       </c>
       <c r="K116" t="n">
-        <v>2.941176470588235</v>
+        <v>-100</v>
       </c>
       <c r="L116" t="n">
         <v>3014.6</v>
@@ -6291,7 +6313,7 @@
         <v>654</v>
       </c>
       <c r="K117" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>3014.1</v>
@@ -6350,7 +6372,7 @@
         <v>660</v>
       </c>
       <c r="K118" t="n">
-        <v>21.95121951219512</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L118" t="n">
         <v>3014.7</v>
@@ -6407,7 +6429,7 @@
         <v>670</v>
       </c>
       <c r="K119" t="n">
-        <v>37.93103448275862</v>
+        <v>51.51515151515152</v>
       </c>
       <c r="L119" t="n">
         <v>3016.4</v>
@@ -6464,7 +6486,7 @@
         <v>678</v>
       </c>
       <c r="K120" t="n">
-        <v>27.65957446808511</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="L120" t="n">
         <v>3017.3</v>
@@ -6521,7 +6543,7 @@
         <v>689</v>
       </c>
       <c r="K121" t="n">
-        <v>24.44444444444444</v>
+        <v>53.19148936170212</v>
       </c>
       <c r="L121" t="n">
         <v>3019.6</v>
@@ -6578,7 +6600,7 @@
         <v>708</v>
       </c>
       <c r="K122" t="n">
-        <v>-4.95049504950495</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L122" t="n">
         <v>3020.2</v>
@@ -6635,7 +6657,7 @@
         <v>739</v>
       </c>
       <c r="K123" t="n">
-        <v>-23.80952380952381</v>
+        <v>-25.77319587628866</v>
       </c>
       <c r="L123" t="n">
         <v>3017.7</v>
@@ -6692,7 +6714,7 @@
         <v>748</v>
       </c>
       <c r="K124" t="n">
-        <v>-34.88372093023256</v>
+        <v>-32.0754716981132</v>
       </c>
       <c r="L124" t="n">
         <v>3014.3</v>
@@ -6749,7 +6771,7 @@
         <v>762</v>
       </c>
       <c r="K125" t="n">
-        <v>-21.67832167832168</v>
+        <v>-14.52991452991453</v>
       </c>
       <c r="L125" t="n">
         <v>3012.3</v>
@@ -6806,7 +6828,7 @@
         <v>781</v>
       </c>
       <c r="K126" t="n">
-        <v>-3.846153846153846</v>
+        <v>-5.511811023622047</v>
       </c>
       <c r="L126" t="n">
         <v>3012.5</v>
@@ -6857,7 +6879,7 @@
         <v>781</v>
       </c>
       <c r="K127" t="n">
-        <v>-8</v>
+        <v>-10.74380165289256</v>
       </c>
       <c r="L127" t="n">
         <v>3011.8</v>
@@ -6908,7 +6930,7 @@
         <v>787</v>
       </c>
       <c r="K128" t="n">
-        <v>-8.609271523178808</v>
+        <v>-24.78632478632479</v>
       </c>
       <c r="L128" t="n">
         <v>3009.9</v>
@@ -6959,7 +6981,7 @@
         <v>787</v>
       </c>
       <c r="K129" t="n">
-        <v>-8</v>
+        <v>-19.26605504587156</v>
       </c>
       <c r="L129" t="n">
         <v>3007</v>
@@ -7010,7 +7032,7 @@
         <v>789</v>
       </c>
       <c r="K130" t="n">
-        <v>-9.210526315789473</v>
+        <v>-34</v>
       </c>
       <c r="L130" t="n">
         <v>3004.7</v>
@@ -7061,7 +7083,7 @@
         <v>790</v>
       </c>
       <c r="K131" t="n">
-        <v>-6.666666666666667</v>
+        <v>-17.07317073170732</v>
       </c>
       <c r="L131" t="n">
         <v>3001.4</v>
@@ -7112,7 +7134,7 @@
         <v>790</v>
       </c>
       <c r="K132" t="n">
-        <v>-5.405405405405405</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L132" t="n">
         <v>3000</v>
@@ -7163,7 +7185,7 @@
         <v>805</v>
       </c>
       <c r="K133" t="n">
-        <v>-14.11042944785276</v>
+        <v>19.29824561403509</v>
       </c>
       <c r="L133" t="n">
         <v>3000.2</v>
@@ -7265,7 +7287,7 @@
         <v>811</v>
       </c>
       <c r="K135" t="n">
-        <v>-17.15976331360947</v>
+        <v>-93.33333333333333</v>
       </c>
       <c r="L135" t="n">
         <v>2999.9</v>
@@ -7316,7 +7338,7 @@
         <v>813</v>
       </c>
       <c r="K136" t="n">
-        <v>-16.66666666666666</v>
+        <v>-93.75</v>
       </c>
       <c r="L136" t="n">
         <v>2996.9</v>
@@ -7367,7 +7389,7 @@
         <v>830</v>
       </c>
       <c r="K137" t="n">
-        <v>-30.68181818181818</v>
+        <v>-95.34883720930233</v>
       </c>
       <c r="L137" t="n">
         <v>2992.2</v>
@@ -7418,7 +7440,7 @@
         <v>832</v>
       </c>
       <c r="K138" t="n">
-        <v>-36.04651162790697</v>
+        <v>-95.55555555555556</v>
       </c>
       <c r="L138" t="n">
         <v>2987.9</v>
@@ -7469,7 +7491,7 @@
         <v>844</v>
       </c>
       <c r="K139" t="n">
-        <v>-48.27586206896552</v>
+        <v>-96.36363636363636</v>
       </c>
       <c r="L139" t="n">
         <v>2982.4</v>
@@ -7520,7 +7542,7 @@
         <v>849</v>
       </c>
       <c r="K140" t="n">
-        <v>-47.36842105263158</v>
+        <v>-100</v>
       </c>
       <c r="L140" t="n">
         <v>2976.6</v>
@@ -7571,7 +7593,7 @@
         <v>868</v>
       </c>
       <c r="K141" t="n">
-        <v>-40.78212290502793</v>
+        <v>-51.28205128205128</v>
       </c>
       <c r="L141" t="n">
         <v>2972.6</v>
@@ -7622,7 +7644,7 @@
         <v>870</v>
       </c>
       <c r="K142" t="n">
-        <v>-32.09876543209877</v>
+        <v>-35.38461538461539</v>
       </c>
       <c r="L142" t="n">
         <v>2968.8</v>
@@ -7673,7 +7695,7 @@
         <v>871</v>
       </c>
       <c r="K143" t="n">
-        <v>-15.15151515151515</v>
+        <v>-27.86885245901639</v>
       </c>
       <c r="L143" t="n">
         <v>2966.6</v>
@@ -7724,7 +7746,7 @@
         <v>874</v>
       </c>
       <c r="K144" t="n">
-        <v>-6.349206349206349</v>
+        <v>-20.63492063492063</v>
       </c>
       <c r="L144" t="n">
         <v>2965.2</v>
@@ -7775,7 +7797,7 @@
         <v>878</v>
       </c>
       <c r="K145" t="n">
-        <v>-15.51724137931035</v>
+        <v>-10.76923076923077</v>
       </c>
       <c r="L145" t="n">
         <v>2964.3</v>
@@ -7826,7 +7848,7 @@
         <v>883</v>
       </c>
       <c r="K146" t="n">
-        <v>-31.37254901960784</v>
+        <v>28.30188679245283</v>
       </c>
       <c r="L146" t="n">
         <v>2964.1</v>
@@ -7877,7 +7899,7 @@
         <v>884</v>
       </c>
       <c r="K147" t="n">
-        <v>-30.09708737864078</v>
+        <v>34.61538461538461</v>
       </c>
       <c r="L147" t="n">
         <v>2965.7</v>
@@ -7928,7 +7950,7 @@
         <v>895</v>
       </c>
       <c r="K148" t="n">
-        <v>-33.33333333333333</v>
+        <v>37.25490196078432</v>
       </c>
       <c r="L148" t="n">
         <v>2966.4</v>
@@ -7979,7 +8001,7 @@
         <v>896</v>
       </c>
       <c r="K149" t="n">
-        <v>-33.94495412844037</v>
+        <v>48.93617021276596</v>
       </c>
       <c r="L149" t="n">
         <v>2968.2</v>
@@ -8030,7 +8052,7 @@
         <v>903</v>
       </c>
       <c r="K150" t="n">
-        <v>-36.84210526315789</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L150" t="n">
         <v>2969.8</v>
@@ -8081,7 +8103,7 @@
         <v>904</v>
       </c>
       <c r="K151" t="n">
-        <v>-36.84210526315789</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L151" t="n">
         <v>2969.6</v>
@@ -8132,7 +8154,7 @@
         <v>920</v>
       </c>
       <c r="K152" t="n">
-        <v>-20</v>
+        <v>22.44897959183674</v>
       </c>
       <c r="L152" t="n">
         <v>2970.8</v>
@@ -8183,7 +8205,7 @@
         <v>920</v>
       </c>
       <c r="K153" t="n">
-        <v>-9.565217391304348</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="L153" t="n">
         <v>2971.9</v>
@@ -8234,7 +8256,7 @@
         <v>920</v>
       </c>
       <c r="K154" t="n">
-        <v>-5.454545454545454</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L154" t="n">
         <v>2972.7</v>
@@ -8285,7 +8307,7 @@
         <v>921</v>
       </c>
       <c r="K155" t="n">
-        <v>-3.636363636363636</v>
+        <v>0</v>
       </c>
       <c r="L155" t="n">
         <v>2973.2</v>
@@ -8336,7 +8358,7 @@
         <v>931</v>
       </c>
       <c r="K156" t="n">
-        <v>6.779661016949152</v>
+        <v>19.14893617021277</v>
       </c>
       <c r="L156" t="n">
         <v>2974.2</v>
@@ -8387,7 +8409,7 @@
         <v>935</v>
       </c>
       <c r="K157" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L157" t="n">
         <v>2974.7</v>
@@ -8438,7 +8460,7 @@
         <v>942</v>
       </c>
       <c r="K158" t="n">
-        <v>14.54545454545454</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L158" t="n">
         <v>2975.6</v>
@@ -8489,7 +8511,7 @@
         <v>953</v>
       </c>
       <c r="K159" t="n">
-        <v>15.59633027522936</v>
+        <v>12</v>
       </c>
       <c r="L159" t="n">
         <v>2975.5</v>
@@ -8540,7 +8562,7 @@
         <v>957</v>
       </c>
       <c r="K160" t="n">
-        <v>16.66666666666666</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="L160" t="n">
         <v>2975.7</v>
@@ -8591,7 +8613,7 @@
         <v>962</v>
       </c>
       <c r="K161" t="n">
-        <v>-6.382978723404255</v>
+        <v>-47.61904761904761</v>
       </c>
       <c r="L161" t="n">
         <v>2975.3</v>
@@ -8642,7 +8664,7 @@
         <v>962</v>
       </c>
       <c r="K162" t="n">
-        <v>-8.695652173913043</v>
+        <v>-47.61904761904761</v>
       </c>
       <c r="L162" t="n">
         <v>2973.3</v>
@@ -8693,7 +8715,7 @@
         <v>963</v>
       </c>
       <c r="K163" t="n">
-        <v>-10.8695652173913</v>
+        <v>-48.83720930232558</v>
       </c>
       <c r="L163" t="n">
         <v>2971.2</v>
@@ -8744,7 +8766,7 @@
         <v>979</v>
       </c>
       <c r="K164" t="n">
-        <v>2.857142857142857</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L164" t="n">
         <v>2970.7</v>
@@ -8795,7 +8817,7 @@
         <v>983</v>
       </c>
       <c r="K165" t="n">
-        <v>2.857142857142857</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L165" t="n">
         <v>2970.5</v>
@@ -8846,7 +8868,7 @@
         <v>990</v>
       </c>
       <c r="K166" t="n">
-        <v>-8.411214953271028</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L166" t="n">
         <v>2968.6</v>
@@ -8897,7 +8919,7 @@
         <v>1011</v>
       </c>
       <c r="K167" t="n">
-        <v>-24.40944881889764</v>
+        <v>-42.02898550724638</v>
       </c>
       <c r="L167" t="n">
         <v>2965</v>
@@ -8948,7 +8970,7 @@
         <v>1025</v>
       </c>
       <c r="K168" t="n">
-        <v>-4.615384615384616</v>
+        <v>-5.555555555555555</v>
       </c>
       <c r="L168" t="n">
         <v>2963.5</v>
@@ -8999,7 +9021,7 @@
         <v>1051</v>
       </c>
       <c r="K169" t="n">
-        <v>13.5483870967742</v>
+        <v>27.65957446808511</v>
       </c>
       <c r="L169" t="n">
         <v>2965.7</v>
@@ -9050,7 +9072,7 @@
         <v>1060</v>
       </c>
       <c r="K170" t="n">
-        <v>12.10191082802548</v>
+        <v>22.44897959183674</v>
       </c>
       <c r="L170" t="n">
         <v>2967.4</v>
@@ -9101,7 +9123,7 @@
         <v>1060</v>
       </c>
       <c r="K171" t="n">
-        <v>11.53846153846154</v>
+        <v>22.44897959183674</v>
       </c>
       <c r="L171" t="n">
         <v>2969.6</v>
@@ -9152,7 +9174,7 @@
         <v>1060</v>
       </c>
       <c r="K172" t="n">
-        <v>1.428571428571429</v>
+        <v>23.71134020618556</v>
       </c>
       <c r="L172" t="n">
         <v>2971.8</v>
@@ -9203,7 +9225,7 @@
         <v>1062</v>
       </c>
       <c r="K173" t="n">
-        <v>0</v>
+        <v>6.024096385542169</v>
       </c>
       <c r="L173" t="n">
         <v>2973.9</v>
@@ -9254,7 +9276,7 @@
         <v>1068</v>
       </c>
       <c r="K174" t="n">
-        <v>4.054054054054054</v>
+        <v>8.235294117647058</v>
       </c>
       <c r="L174" t="n">
         <v>2975</v>
@@ -9305,7 +9327,7 @@
         <v>1091</v>
       </c>
       <c r="K175" t="n">
-        <v>-10.58823529411765</v>
+        <v>-8.91089108910891</v>
       </c>
       <c r="L175" t="n">
         <v>2973.4</v>
@@ -9356,7 +9378,7 @@
         <v>1101</v>
       </c>
       <c r="K176" t="n">
-        <v>-10.58823529411765</v>
+        <v>24.44444444444444</v>
       </c>
       <c r="L176" t="n">
         <v>2973.5</v>
@@ -9407,7 +9429,7 @@
         <v>1110</v>
       </c>
       <c r="K177" t="n">
-        <v>-13.14285714285714</v>
+        <v>-1.176470588235294</v>
       </c>
       <c r="L177" t="n">
         <v>2974.8</v>
@@ -9458,7 +9480,7 @@
         <v>1110</v>
       </c>
       <c r="K178" t="n">
-        <v>-9.523809523809524</v>
+        <v>-45.76271186440678</v>
       </c>
       <c r="L178" t="n">
         <v>2974.7</v>
@@ -9509,7 +9531,7 @@
         <v>1122</v>
       </c>
       <c r="K179" t="n">
-        <v>-10.05917159763314</v>
+        <v>-48.38709677419355</v>
       </c>
       <c r="L179" t="n">
         <v>2970.8</v>
@@ -9560,7 +9582,7 @@
         <v>1125</v>
       </c>
       <c r="K180" t="n">
-        <v>-5.952380952380952</v>
+        <v>-41.53846153846154</v>
       </c>
       <c r="L180" t="n">
         <v>2968.1</v>
@@ -9611,7 +9633,7 @@
         <v>1125</v>
       </c>
       <c r="K181" t="n">
-        <v>-3.067484662576687</v>
+        <v>-41.53846153846154</v>
       </c>
       <c r="L181" t="n">
         <v>2965.4</v>
@@ -9662,7 +9684,7 @@
         <v>1126</v>
       </c>
       <c r="K182" t="n">
-        <v>-3.658536585365853</v>
+        <v>-40.625</v>
       </c>
       <c r="L182" t="n">
         <v>2962.6</v>
@@ -9713,7 +9735,7 @@
         <v>1145</v>
       </c>
       <c r="K183" t="n">
-        <v>7.692307692307693</v>
+        <v>-16.88311688311688</v>
       </c>
       <c r="L183" t="n">
         <v>2961.9</v>
@@ -9764,7 +9786,7 @@
         <v>1159</v>
       </c>
       <c r="K184" t="n">
-        <v>-8.888888888888889</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L184" t="n">
         <v>2959.2</v>
@@ -9815,7 +9837,7 @@
         <v>1180</v>
       </c>
       <c r="K185" t="n">
-        <v>0.5076142131979695</v>
+        <v>8.860759493670885</v>
       </c>
       <c r="L185" t="n">
         <v>2960.9</v>
@@ -9866,7 +9888,7 @@
         <v>1184</v>
       </c>
       <c r="K186" t="n">
-        <v>2.061855670103093</v>
+        <v>16.21621621621622</v>
       </c>
       <c r="L186" t="n">
         <v>2961.2</v>
@@ -9917,7 +9939,7 @@
         <v>1190</v>
       </c>
       <c r="K187" t="n">
-        <v>17.31843575418995</v>
+        <v>22.5</v>
       </c>
       <c r="L187" t="n">
         <v>2963</v>
@@ -9968,7 +9990,7 @@
         <v>1199</v>
       </c>
       <c r="K188" t="n">
-        <v>4.597701149425287</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L188" t="n">
         <v>2963.9</v>
@@ -10019,7 +10041,7 @@
         <v>1204</v>
       </c>
       <c r="K189" t="n">
-        <v>-8.496732026143791</v>
+        <v>29.11392405063291</v>
       </c>
       <c r="L189" t="n">
         <v>2966.5</v>
@@ -10070,7 +10092,7 @@
         <v>1205</v>
       </c>
       <c r="K190" t="n">
-        <v>-2.068965517241379</v>
+        <v>30</v>
       </c>
       <c r="L190" t="n">
         <v>2968.9</v>
@@ -10121,7 +10143,7 @@
         <v>1209</v>
       </c>
       <c r="K191" t="n">
-        <v>-4.697986577181208</v>
+        <v>25.30120481927711</v>
       </c>
       <c r="L191" t="n">
         <v>2970.9</v>
@@ -10172,7 +10194,7 @@
         <v>1214</v>
       </c>
       <c r="K192" t="n">
-        <v>-7.792207792207792</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L192" t="n">
         <v>2972.5</v>
@@ -10223,7 +10245,7 @@
         <v>1232</v>
       </c>
       <c r="K193" t="n">
-        <v>4.705882352941177</v>
+        <v>39.72602739726027</v>
       </c>
       <c r="L193" t="n">
         <v>2974</v>
@@ -10274,7 +10296,7 @@
         <v>1233</v>
       </c>
       <c r="K194" t="n">
-        <v>0.6060606060606061</v>
+        <v>13.20754716981132</v>
       </c>
       <c r="L194" t="n">
         <v>2976.8</v>
@@ -10325,7 +10347,7 @@
         <v>1240</v>
       </c>
       <c r="K195" t="n">
-        <v>20.80536912751678</v>
+        <v>32.14285714285715</v>
       </c>
       <c r="L195" t="n">
         <v>2978.2</v>
@@ -10376,7 +10398,7 @@
         <v>1240</v>
       </c>
       <c r="K196" t="n">
-        <v>15.10791366906475</v>
+        <v>24</v>
       </c>
       <c r="L196" t="n">
         <v>2980</v>
@@ -10427,7 +10449,7 @@
         <v>1248</v>
       </c>
       <c r="K197" t="n">
-        <v>15.94202898550724</v>
+        <v>26.53061224489796</v>
       </c>
       <c r="L197" t="n">
         <v>2980.4</v>
@@ -10478,7 +10500,7 @@
         <v>1255</v>
       </c>
       <c r="K198" t="n">
-        <v>10.3448275862069</v>
+        <v>1.96078431372549</v>
       </c>
       <c r="L198" t="n">
         <v>2981</v>
@@ -10529,7 +10551,7 @@
         <v>1270</v>
       </c>
       <c r="K199" t="n">
-        <v>8.108108108108109</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L199" t="n">
         <v>2979.6</v>
@@ -10580,7 +10602,7 @@
         <v>1300</v>
       </c>
       <c r="K200" t="n">
-        <v>22.28571428571428</v>
+        <v>20.87912087912088</v>
       </c>
       <c r="L200" t="n">
         <v>2981.1</v>
@@ -10631,7 +10653,7 @@
         <v>1306</v>
       </c>
       <c r="K201" t="n">
-        <v>18.23204419889503</v>
+        <v>19.56521739130435</v>
       </c>
       <c r="L201" t="n">
         <v>2982.4</v>
@@ -10682,7 +10704,7 @@
         <v>1312</v>
       </c>
       <c r="K202" t="n">
-        <v>21.50537634408602</v>
+        <v>7.5</v>
       </c>
       <c r="L202" t="n">
         <v>2984.8</v>
@@ -10733,7 +10755,7 @@
         <v>1313</v>
       </c>
       <c r="K203" t="n">
-        <v>13.0952380952381</v>
+        <v>10</v>
       </c>
       <c r="L203" t="n">
         <v>2985.5</v>
@@ -10784,7 +10806,7 @@
         <v>1320</v>
       </c>
       <c r="K204" t="n">
-        <v>26.70807453416149</v>
+        <v>10</v>
       </c>
       <c r="L204" t="n">
         <v>2987</v>
@@ -10835,7 +10857,7 @@
         <v>1320</v>
       </c>
       <c r="K205" t="n">
-        <v>15.71428571428571</v>
+        <v>10</v>
       </c>
       <c r="L205" t="n">
         <v>2987.8</v>
@@ -10886,7 +10908,7 @@
         <v>1320</v>
       </c>
       <c r="K206" t="n">
-        <v>19.11764705882353</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L206" t="n">
         <v>2988.6</v>
@@ -10937,7 +10959,7 @@
         <v>1320</v>
       </c>
       <c r="K207" t="n">
-        <v>15.38461538461539</v>
+        <v>35.38461538461539</v>
       </c>
       <c r="L207" t="n">
         <v>2990.2</v>
@@ -10988,7 +11010,7 @@
         <v>1326</v>
       </c>
       <c r="K208" t="n">
-        <v>18.11023622047244</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L208" t="n">
         <v>2991.9</v>
@@ -11039,7 +11061,7 @@
         <v>1333</v>
       </c>
       <c r="K209" t="n">
-        <v>19.37984496124031</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L209" t="n">
         <v>2995.8</v>
@@ -11090,7 +11112,7 @@
         <v>1339</v>
       </c>
       <c r="K210" t="n">
-        <v>13.43283582089552</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L210" t="n">
         <v>2996.1</v>
@@ -11141,7 +11163,7 @@
         <v>1349</v>
       </c>
       <c r="K211" t="n">
-        <v>22.85714285714286</v>
+        <v>35.13513513513514</v>
       </c>
       <c r="L211" t="n">
         <v>2998</v>
@@ -11192,7 +11214,7 @@
         <v>1356</v>
       </c>
       <c r="K212" t="n">
-        <v>30.98591549295774</v>
+        <v>44.18604651162791</v>
       </c>
       <c r="L212" t="n">
         <v>3000</v>
@@ -11243,7 +11265,7 @@
         <v>1357</v>
       </c>
       <c r="K213" t="n">
-        <v>21.6</v>
+        <v>35.13513513513514</v>
       </c>
       <c r="L213" t="n">
         <v>3002</v>
@@ -11294,7 +11316,7 @@
         <v>1367</v>
       </c>
       <c r="K214" t="n">
-        <v>28.35820895522388</v>
+        <v>48.93617021276596</v>
       </c>
       <c r="L214" t="n">
         <v>3004.3</v>
@@ -11345,7 +11367,7 @@
         <v>1376</v>
       </c>
       <c r="K215" t="n">
-        <v>16.17647058823529</v>
+        <v>25</v>
       </c>
       <c r="L215" t="n">
         <v>3005.7</v>
@@ -11396,7 +11418,7 @@
         <v>1383</v>
       </c>
       <c r="K216" t="n">
-        <v>20.27972027972028</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L216" t="n">
         <v>3007.8</v>
@@ -11447,7 +11469,7 @@
         <v>1389</v>
       </c>
       <c r="K217" t="n">
-        <v>21.98581560283688</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L217" t="n">
         <v>3009.3</v>
@@ -11498,7 +11520,7 @@
         <v>1389</v>
       </c>
       <c r="K218" t="n">
-        <v>28.35820895522388</v>
+        <v>25</v>
       </c>
       <c r="L218" t="n">
         <v>3011.4</v>
@@ -11549,7 +11571,7 @@
         <v>1389</v>
       </c>
       <c r="K219" t="n">
-        <v>44.53781512605043</v>
+        <v>40</v>
       </c>
       <c r="L219" t="n">
         <v>3012.8</v>
@@ -11600,7 +11622,7 @@
         <v>1397</v>
       </c>
       <c r="K220" t="n">
-        <v>31.95876288659793</v>
+        <v>37.5</v>
       </c>
       <c r="L220" t="n">
         <v>3015.6</v>
@@ -11651,7 +11673,7 @@
         <v>1401</v>
       </c>
       <c r="K221" t="n">
-        <v>34.73684210526316</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="L221" t="n">
         <v>3017</v>
@@ -11702,7 +11724,7 @@
         <v>1401</v>
       </c>
       <c r="K222" t="n">
-        <v>30.3370786516854</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="L222" t="n">
         <v>3017.7</v>
@@ -11753,7 +11775,7 @@
         <v>1401</v>
       </c>
       <c r="K223" t="n">
-        <v>29.54545454545455</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L223" t="n">
         <v>3018.3</v>
@@ -11804,7 +11826,7 @@
         <v>1402</v>
       </c>
       <c r="K224" t="n">
-        <v>24.39024390243902</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L224" t="n">
         <v>3018</v>
@@ -11855,7 +11877,7 @@
         <v>1402</v>
       </c>
       <c r="K225" t="n">
-        <v>24.39024390243902</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L225" t="n">
         <v>3018.6</v>
@@ -11906,7 +11928,7 @@
         <v>1404</v>
       </c>
       <c r="K226" t="n">
-        <v>26.19047619047619</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L226" t="n">
         <v>3018.7</v>
@@ -11957,7 +11979,7 @@
         <v>1405</v>
       </c>
       <c r="K227" t="n">
-        <v>24.70588235294118</v>
+        <v>37.5</v>
       </c>
       <c r="L227" t="n">
         <v>3019.3</v>
@@ -12008,7 +12030,7 @@
         <v>1405</v>
       </c>
       <c r="K228" t="n">
-        <v>34.17721518987342</v>
+        <v>37.5</v>
       </c>
       <c r="L228" t="n">
         <v>3019.9</v>
@@ -12059,7 +12081,7 @@
         <v>1405</v>
       </c>
       <c r="K229" t="n">
-        <v>27.77777777777778</v>
+        <v>-25</v>
       </c>
       <c r="L229" t="n">
         <v>3020.5</v>
@@ -12110,7 +12132,7 @@
         <v>1406</v>
       </c>
       <c r="K230" t="n">
-        <v>37.3134328358209</v>
+        <v>20</v>
       </c>
       <c r="L230" t="n">
         <v>3020.2</v>
@@ -12161,7 +12183,7 @@
         <v>1407</v>
       </c>
       <c r="K231" t="n">
-        <v>24.13793103448276</v>
+        <v>0</v>
       </c>
       <c r="L231" t="n">
         <v>3020.2</v>
@@ -12212,7 +12234,7 @@
         <v>1407</v>
       </c>
       <c r="K232" t="n">
-        <v>13.72549019607843</v>
+        <v>0</v>
       </c>
       <c r="L232" t="n">
         <v>3020.2</v>
@@ -12263,7 +12285,7 @@
         <v>1410</v>
       </c>
       <c r="K233" t="n">
-        <v>16.9811320754717</v>
+        <v>25</v>
       </c>
       <c r="L233" t="n">
         <v>3020.5</v>
@@ -12314,7 +12336,7 @@
         <v>1426</v>
       </c>
       <c r="K234" t="n">
-        <v>-28.8135593220339</v>
+        <v>-58.33333333333334</v>
       </c>
       <c r="L234" t="n">
         <v>3019.1</v>
@@ -12365,7 +12387,7 @@
         <v>1427</v>
       </c>
       <c r="K235" t="n">
-        <v>-17.64705882352941</v>
+        <v>-73.91304347826086</v>
       </c>
       <c r="L235" t="n">
         <v>3017.6</v>
@@ -12416,7 +12438,7 @@
         <v>1427</v>
       </c>
       <c r="K236" t="n">
-        <v>-36.36363636363637</v>
+        <v>-72.72727272727273</v>
       </c>
       <c r="L236" t="n">
         <v>3015.9</v>
@@ -12467,7 +12489,7 @@
         <v>1442</v>
       </c>
       <c r="K237" t="n">
-        <v>9.433962264150944</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="L237" t="n">
         <v>3015.8</v>
@@ -12518,7 +12540,7 @@
         <v>1443</v>
       </c>
       <c r="K238" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L238" t="n">
         <v>3015.8</v>
@@ -12569,7 +12591,7 @@
         <v>1443</v>
       </c>
       <c r="K239" t="n">
-        <v>11.11111111111111</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L239" t="n">
         <v>3015.8</v>
@@ -12620,7 +12642,7 @@
         <v>1451</v>
       </c>
       <c r="K240" t="n">
-        <v>-18.51851851851852</v>
+        <v>-13.63636363636363</v>
       </c>
       <c r="L240" t="n">
         <v>3015.1</v>
@@ -12671,7 +12693,7 @@
         <v>1451</v>
       </c>
       <c r="K241" t="n">
-        <v>-12</v>
+        <v>-13.63636363636363</v>
       </c>
       <c r="L241" t="n">
         <v>3014.5</v>
@@ -12722,7 +12744,7 @@
         <v>1451</v>
       </c>
       <c r="K242" t="n">
-        <v>-12</v>
+        <v>-21.95121951219512</v>
       </c>
       <c r="L242" t="n">
         <v>3013.9</v>
@@ -12773,7 +12795,7 @@
         <v>1454</v>
       </c>
       <c r="K243" t="n">
-        <v>-16.9811320754717</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L243" t="n">
         <v>3012.7</v>
@@ -12824,7 +12846,7 @@
         <v>1464</v>
       </c>
       <c r="K244" t="n">
-        <v>0</v>
+        <v>40.54054054054054</v>
       </c>
       <c r="L244" t="n">
         <v>3014.1</v>
@@ -12875,7 +12897,7 @@
         <v>1467</v>
       </c>
       <c r="K245" t="n">
-        <v>4.615384615384616</v>
+        <v>45</v>
       </c>
       <c r="L245" t="n">
         <v>3015.9</v>
@@ -12926,7 +12948,7 @@
         <v>1477</v>
       </c>
       <c r="K246" t="n">
-        <v>-12.32876712328767</v>
+        <v>-20</v>
       </c>
       <c r="L246" t="n">
         <v>3016.7</v>
@@ -13028,7 +13050,7 @@
         <v>1487</v>
       </c>
       <c r="K248" t="n">
-        <v>2.439024390243902</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="L248" t="n">
         <v>3017</v>
@@ -13079,7 +13101,7 @@
         <v>1487</v>
       </c>
       <c r="K249" t="n">
-        <v>2.439024390243902</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L249" t="n">
         <v>3017.2</v>
@@ -13130,7 +13152,7 @@
         <v>1487</v>
       </c>
       <c r="K250" t="n">
-        <v>3.703703703703703</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L250" t="n">
         <v>3018.2</v>
@@ -13181,7 +13203,7 @@
         <v>1493</v>
       </c>
       <c r="K251" t="n">
-        <v>11.62790697674419</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="L251" t="n">
         <v>3019.8</v>
@@ -13232,7 +13254,7 @@
         <v>1498</v>
       </c>
       <c r="K252" t="n">
-        <v>5.494505494505495</v>
+        <v>31.81818181818182</v>
       </c>
       <c r="L252" t="n">
         <v>3020.9</v>
@@ -13283,7 +13305,7 @@
         <v>1500</v>
       </c>
       <c r="K253" t="n">
-        <v>0</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L253" t="n">
         <v>3022.1</v>
@@ -13334,7 +13356,7 @@
         <v>1502</v>
       </c>
       <c r="K254" t="n">
-        <v>18.42105263157895</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L254" t="n">
         <v>3022.1</v>
@@ -13385,7 +13407,7 @@
         <v>1503</v>
       </c>
       <c r="K255" t="n">
-        <v>18.42105263157895</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L255" t="n">
         <v>3021.7</v>
@@ -13436,7 +13458,7 @@
         <v>1509</v>
       </c>
       <c r="K256" t="n">
-        <v>24.39024390243902</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L256" t="n">
         <v>3022.9</v>
@@ -13487,7 +13509,7 @@
         <v>1512</v>
       </c>
       <c r="K257" t="n">
-        <v>11.42857142857143</v>
+        <v>20</v>
       </c>
       <c r="L257" t="n">
         <v>3023.6</v>
@@ -13538,7 +13560,7 @@
         <v>1515</v>
       </c>
       <c r="K258" t="n">
-        <v>13.88888888888889</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L258" t="n">
         <v>3024.4</v>
@@ -13589,7 +13611,7 @@
         <v>1524</v>
       </c>
       <c r="K259" t="n">
-        <v>1.234567901234568</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="L259" t="n">
         <v>3024.3</v>
@@ -13640,7 +13662,7 @@
         <v>1526</v>
       </c>
       <c r="K260" t="n">
-        <v>14.66666666666667</v>
+        <v>-15.15151515151515</v>
       </c>
       <c r="L260" t="n">
         <v>3024.4</v>
@@ -13691,7 +13713,7 @@
         <v>1526</v>
       </c>
       <c r="K261" t="n">
-        <v>14.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="L261" t="n">
         <v>3023.9</v>
@@ -13742,7 +13764,7 @@
         <v>1535</v>
       </c>
       <c r="K262" t="n">
-        <v>23.80952380952381</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L262" t="n">
         <v>3024.8</v>
@@ -13793,7 +13815,7 @@
         <v>1540</v>
       </c>
       <c r="K263" t="n">
-        <v>32.55813953488372</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L263" t="n">
         <v>3026.4</v>
@@ -13844,7 +13866,7 @@
         <v>1561</v>
       </c>
       <c r="K264" t="n">
-        <v>40.20618556701031</v>
+        <v>68.96551724137932</v>
       </c>
       <c r="L264" t="n">
         <v>3030.3</v>
@@ -13895,7 +13917,7 @@
         <v>1567</v>
       </c>
       <c r="K265" t="n">
-        <v>42</v>
+        <v>68.96551724137932</v>
       </c>
       <c r="L265" t="n">
         <v>3034.9</v>
@@ -13946,7 +13968,7 @@
         <v>1572</v>
       </c>
       <c r="K266" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L266" t="n">
         <v>3039.4</v>
@@ -13997,7 +14019,7 @@
         <v>1572</v>
       </c>
       <c r="K267" t="n">
-        <v>56.32183908045977</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L267" t="n">
         <v>3043.6</v>
@@ -14048,7 +14070,7 @@
         <v>1576</v>
       </c>
       <c r="K268" t="n">
-        <v>48.31460674157304</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L268" t="n">
         <v>3047.1</v>
@@ -14099,7 +14121,7 @@
         <v>1578</v>
       </c>
       <c r="K269" t="n">
-        <v>49.45054945054945</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L269" t="n">
         <v>3051.7</v>
@@ -14150,7 +14172,7 @@
         <v>1584</v>
       </c>
       <c r="K270" t="n">
-        <v>52.57731958762887</v>
+        <v>86.20689655172413</v>
       </c>
       <c r="L270" t="n">
         <v>3056.7</v>
@@ -14201,7 +14223,7 @@
         <v>1596</v>
       </c>
       <c r="K271" t="n">
-        <v>32.03883495145632</v>
+        <v>47.54098360655738</v>
       </c>
       <c r="L271" t="n">
         <v>3060.5</v>
@@ -14252,7 +14274,7 @@
         <v>1599</v>
       </c>
       <c r="K272" t="n">
-        <v>40.5940594059406</v>
+        <v>45.76271186440678</v>
       </c>
       <c r="L272" t="n">
         <v>3063.7</v>
@@ -14303,7 +14325,7 @@
         <v>1600</v>
       </c>
       <c r="K273" t="n">
-        <v>42</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L273" t="n">
         <v>3066.3</v>
@@ -14354,7 +14376,7 @@
         <v>1600</v>
       </c>
       <c r="K274" t="n">
-        <v>44.89795918367347</v>
+        <v>-3.03030303030303</v>
       </c>
       <c r="L274" t="n">
         <v>3066.8</v>
@@ -14405,7 +14427,7 @@
         <v>1608</v>
       </c>
       <c r="K275" t="n">
-        <v>35.23809523809524</v>
+        <v>-38.88888888888889</v>
       </c>
       <c r="L275" t="n">
         <v>3065.9</v>
@@ -14456,7 +14478,7 @@
         <v>1609</v>
       </c>
       <c r="K276" t="n">
-        <v>32</v>
+        <v>-35.13513513513514</v>
       </c>
       <c r="L276" t="n">
         <v>3064.6</v>
@@ -14507,7 +14529,7 @@
         <v>1609</v>
       </c>
       <c r="K277" t="n">
-        <v>29.89690721649485</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L277" t="n">
         <v>3063.3</v>
@@ -14558,7 +14580,7 @@
         <v>1646</v>
       </c>
       <c r="K278" t="n">
-        <v>48.09160305343512</v>
+        <v>38.23529411764706</v>
       </c>
       <c r="L278" t="n">
         <v>3066.1</v>
@@ -14609,7 +14631,7 @@
         <v>1651</v>
       </c>
       <c r="K279" t="n">
-        <v>52.75590551181102</v>
+        <v>22.38805970149254</v>
       </c>
       <c r="L279" t="n">
         <v>3068.2</v>
@@ -14660,7 +14682,7 @@
         <v>1664</v>
       </c>
       <c r="K280" t="n">
-        <v>37.68115942028986</v>
+        <v>20.58823529411764</v>
       </c>
       <c r="L280" t="n">
         <v>3068.4</v>
@@ -14711,7 +14733,7 @@
         <v>1680</v>
       </c>
       <c r="K281" t="n">
-        <v>44.15584415584416</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L281" t="n">
         <v>3071.4</v>
@@ -14762,7 +14784,7 @@
         <v>1692</v>
       </c>
       <c r="K282" t="n">
-        <v>29.93630573248408</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="L282" t="n">
         <v>3072.9</v>
@@ -14813,7 +14835,7 @@
         <v>1697</v>
       </c>
       <c r="K283" t="n">
-        <v>23.56687898089172</v>
+        <v>11.34020618556701</v>
       </c>
       <c r="L283" t="n">
         <v>3074</v>
@@ -14864,7 +14886,7 @@
         <v>1699</v>
       </c>
       <c r="K284" t="n">
-        <v>13.04347826086956</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L284" t="n">
         <v>3075.3</v>
@@ -14915,7 +14937,7 @@
         <v>1699</v>
       </c>
       <c r="K285" t="n">
-        <v>9.090909090909092</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L285" t="n">
         <v>3077.4</v>
@@ -14966,7 +14988,7 @@
         <v>1701</v>
       </c>
       <c r="K286" t="n">
-        <v>3.875968992248062</v>
+        <v>19.56521739130435</v>
       </c>
       <c r="L286" t="n">
         <v>3079.2</v>
@@ -15017,7 +15039,7 @@
         <v>1701</v>
       </c>
       <c r="K287" t="n">
-        <v>3.875968992248062</v>
+        <v>-34.54545454545455</v>
       </c>
       <c r="L287" t="n">
         <v>3081</v>
@@ -15068,7 +15090,7 @@
         <v>1706</v>
       </c>
       <c r="K288" t="n">
-        <v>10.76923076923077</v>
+        <v>-16.36363636363636</v>
       </c>
       <c r="L288" t="n">
         <v>3079.6</v>
@@ -15119,7 +15141,7 @@
         <v>1711</v>
       </c>
       <c r="K289" t="n">
-        <v>5.263157894736842</v>
+        <v>-2.127659574468085</v>
       </c>
       <c r="L289" t="n">
         <v>3078.2</v>
@@ -15170,7 +15192,7 @@
         <v>1712</v>
       </c>
       <c r="K290" t="n">
-        <v>1.5625</v>
+        <v>-50</v>
       </c>
       <c r="L290" t="n">
         <v>3078.2</v>
@@ -15221,7 +15243,7 @@
         <v>1716</v>
       </c>
       <c r="K291" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L291" t="n">
         <v>3077</v>
@@ -15272,7 +15294,7 @@
         <v>1722</v>
       </c>
       <c r="K292" t="n">
-        <v>17.07317073170732</v>
+        <v>44</v>
       </c>
       <c r="L292" t="n">
         <v>3077.6</v>
@@ -15323,7 +15345,7 @@
         <v>1723</v>
       </c>
       <c r="K293" t="n">
-        <v>18.69918699186992</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L293" t="n">
         <v>3078.8</v>
@@ -15374,7 +15396,7 @@
         <v>1724</v>
       </c>
       <c r="K294" t="n">
-        <v>19.35483870967742</v>
+        <v>44</v>
       </c>
       <c r="L294" t="n">
         <v>3079.9</v>
@@ -15425,7 +15447,7 @@
         <v>1725</v>
       </c>
       <c r="K295" t="n">
-        <v>26.4957264957265</v>
+        <v>50</v>
       </c>
       <c r="L295" t="n">
         <v>3080.9</v>
@@ -15476,7 +15498,7 @@
         <v>1733</v>
       </c>
       <c r="K296" t="n">
-        <v>30.64516129032258</v>
+        <v>62.5</v>
       </c>
       <c r="L296" t="n">
         <v>3082.9</v>
@@ -15527,7 +15549,7 @@
         <v>1736</v>
       </c>
       <c r="K297" t="n">
-        <v>32.28346456692913</v>
+        <v>60</v>
       </c>
       <c r="L297" t="n">
         <v>3085.2</v>
@@ -15578,7 +15600,7 @@
         <v>1736</v>
       </c>
       <c r="K298" t="n">
-        <v>4.444444444444445</v>
+        <v>92</v>
       </c>
       <c r="L298" t="n">
         <v>3087</v>
@@ -15629,7 +15651,7 @@
         <v>1747</v>
       </c>
       <c r="K299" t="n">
-        <v>-2.083333333333333</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L299" t="n">
         <v>3088.2</v>
@@ -15680,7 +15702,7 @@
         <v>1758</v>
       </c>
       <c r="K300" t="n">
-        <v>23.40425531914894</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L300" t="n">
         <v>3090.4</v>
@@ -15731,7 +15753,7 @@
         <v>1759</v>
       </c>
       <c r="K301" t="n">
-        <v>6.329113924050633</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="L301" t="n">
         <v>3092.1</v>
@@ -15782,7 +15804,7 @@
         <v>1764</v>
       </c>
       <c r="K302" t="n">
-        <v>16.66666666666666</v>
+        <v>12.19512195121951</v>
       </c>
       <c r="L302" t="n">
         <v>3092.7</v>
@@ -15833,7 +15855,7 @@
         <v>1771</v>
       </c>
       <c r="K303" t="n">
-        <v>32.43243243243244</v>
+        <v>23.40425531914894</v>
       </c>
       <c r="L303" t="n">
         <v>3093.9</v>
@@ -15884,7 +15906,7 @@
         <v>1782</v>
       </c>
       <c r="K304" t="n">
-        <v>39.75903614457831</v>
+        <v>40.35087719298245</v>
       </c>
       <c r="L304" t="n">
         <v>3096.1</v>
@@ -15935,7 +15957,7 @@
         <v>1795</v>
       </c>
       <c r="K305" t="n">
-        <v>47.91666666666667</v>
+        <v>45.16129032258064</v>
       </c>
       <c r="L305" t="n">
         <v>3099.7</v>
@@ -15986,7 +16008,7 @@
         <v>1804</v>
       </c>
       <c r="K306" t="n">
-        <v>37.86407766990291</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L306" t="n">
         <v>3101.6</v>
@@ -16037,7 +16059,7 @@
         <v>1808</v>
       </c>
       <c r="K307" t="n">
-        <v>40.18691588785047</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L307" t="n">
         <v>3103.6</v>
@@ -16088,7 +16110,7 @@
         <v>1812</v>
       </c>
       <c r="K308" t="n">
-        <v>32.0754716981132</v>
+        <v>41.53846153846154</v>
       </c>
       <c r="L308" t="n">
         <v>3105.2</v>
@@ -16139,7 +16161,7 @@
         <v>1825</v>
       </c>
       <c r="K309" t="n">
-        <v>22.80701754385965</v>
+        <v>4.477611940298507</v>
       </c>
       <c r="L309" t="n">
         <v>3106.6</v>
@@ -16190,7 +16212,7 @@
         <v>1846</v>
       </c>
       <c r="K310" t="n">
-        <v>34.32835820895522</v>
+        <v>28.73563218390805</v>
       </c>
       <c r="L310" t="n">
         <v>3109</v>
@@ -16241,7 +16263,7 @@
         <v>1850</v>
       </c>
       <c r="K311" t="n">
-        <v>28.35820895522388</v>
+        <v>30.23255813953488</v>
       </c>
       <c r="L311" t="n">
         <v>3111.1</v>
@@ -16292,7 +16314,7 @@
         <v>1854</v>
       </c>
       <c r="K312" t="n">
-        <v>21.21212121212121</v>
+        <v>18.07228915662651</v>
       </c>
       <c r="L312" t="n">
         <v>3113.3</v>
@@ -16343,7 +16365,7 @@
         <v>1861</v>
       </c>
       <c r="K313" t="n">
-        <v>14.49275362318841</v>
+        <v>-3.79746835443038</v>
       </c>
       <c r="L313" t="n">
         <v>3114.1</v>
@@ -16394,7 +16416,7 @@
         <v>1862</v>
       </c>
       <c r="K314" t="n">
-        <v>14.49275362318841</v>
+        <v>-22.38805970149254</v>
       </c>
       <c r="L314" t="n">
         <v>3113.9</v>
@@ -16445,7 +16467,7 @@
         <v>1872</v>
       </c>
       <c r="K315" t="n">
-        <v>21.08843537414966</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L315" t="n">
         <v>3113.4</v>
@@ -16496,7 +16518,7 @@
         <v>1873</v>
       </c>
       <c r="K316" t="n">
-        <v>17.14285714285714</v>
+        <v>1.538461538461539</v>
       </c>
       <c r="L316" t="n">
         <v>3113.9</v>
@@ -16547,7 +16569,7 @@
         <v>1876</v>
       </c>
       <c r="K317" t="n">
-        <v>12.85714285714286</v>
+        <v>3.125</v>
       </c>
       <c r="L317" t="n">
         <v>3113.7</v>
@@ -16598,7 +16620,7 @@
         <v>1877</v>
       </c>
       <c r="K318" t="n">
-        <v>12.05673758865248</v>
+        <v>26.92307692307692</v>
       </c>
       <c r="L318" t="n">
         <v>3113.8</v>
@@ -16649,7 +16671,7 @@
         <v>1883</v>
       </c>
       <c r="K319" t="n">
-        <v>16.17647058823529</v>
+        <v>-35.13513513513514</v>
       </c>
       <c r="L319" t="n">
         <v>3114.6</v>
@@ -16700,7 +16722,7 @@
         <v>1883</v>
       </c>
       <c r="K320" t="n">
-        <v>8.799999999999999</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L320" t="n">
         <v>3113.3</v>
@@ -16751,7 +16773,7 @@
         <v>1896</v>
       </c>
       <c r="K321" t="n">
-        <v>-0.7299270072992701</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L321" t="n">
         <v>3111.1</v>
@@ -16802,7 +16824,7 @@
         <v>1903</v>
       </c>
       <c r="K322" t="n">
-        <v>-2.158273381294964</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L322" t="n">
         <v>3108.6</v>
@@ -16853,7 +16875,7 @@
         <v>1923</v>
       </c>
       <c r="K323" t="n">
-        <v>-19.73684210526316</v>
+        <v>-63.9344262295082</v>
       </c>
       <c r="L323" t="n">
         <v>3104.8</v>
@@ -16904,7 +16926,7 @@
         <v>1923</v>
       </c>
       <c r="K324" t="n">
-        <v>-29.07801418439716</v>
+        <v>-96.07843137254902</v>
       </c>
       <c r="L324" t="n">
         <v>3100.9</v>
@@ -16955,7 +16977,7 @@
         <v>1928</v>
       </c>
       <c r="K325" t="n">
-        <v>-44.3609022556391</v>
+        <v>-100</v>
       </c>
       <c r="L325" t="n">
         <v>3095.5</v>
@@ -17006,7 +17028,7 @@
         <v>1942</v>
       </c>
       <c r="K326" t="n">
-        <v>-26.08695652173913</v>
+        <v>-57.57575757575758</v>
       </c>
       <c r="L326" t="n">
         <v>3091.4</v>
@@ -17057,7 +17079,7 @@
         <v>1942</v>
       </c>
       <c r="K327" t="n">
-        <v>-29.85074626865671</v>
+        <v>-56.92307692307692</v>
       </c>
       <c r="L327" t="n">
         <v>3087.6</v>
@@ -17108,7 +17130,7 @@
         <v>1942</v>
       </c>
       <c r="K328" t="n">
-        <v>-27.69230769230769</v>
+        <v>-52.54237288135594</v>
       </c>
       <c r="L328" t="n">
         <v>3083.9</v>
@@ -17159,7 +17181,7 @@
         <v>1942</v>
       </c>
       <c r="K329" t="n">
-        <v>-19.65811965811966</v>
+        <v>-52.54237288135594</v>
       </c>
       <c r="L329" t="n">
         <v>3080.8</v>
@@ -17210,7 +17232,7 @@
         <v>1942</v>
       </c>
       <c r="K330" t="n">
-        <v>-45.83333333333333</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L330" t="n">
         <v>3077.7</v>
@@ -17261,7 +17283,7 @@
         <v>1942</v>
       </c>
       <c r="K331" t="n">
-        <v>-43.47826086956522</v>
+        <v>-28.2051282051282</v>
       </c>
       <c r="L331" t="n">
         <v>3075.9</v>
@@ -17312,7 +17334,7 @@
         <v>1942</v>
       </c>
       <c r="K332" t="n">
-        <v>-40.90909090909091</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L332" t="n">
         <v>3074.8</v>
@@ -17363,7 +17385,7 @@
         <v>1942</v>
       </c>
       <c r="K333" t="n">
-        <v>-35.80246913580247</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L333" t="n">
         <v>3075.7</v>
@@ -17414,7 +17436,7 @@
         <v>1945</v>
       </c>
       <c r="K334" t="n">
-        <v>-39.75903614457831</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L334" t="n">
         <v>3076.3</v>
@@ -17465,7 +17487,7 @@
         <v>1946</v>
       </c>
       <c r="K335" t="n">
-        <v>-59.45945945945946</v>
+        <v>-100</v>
       </c>
       <c r="L335" t="n">
         <v>3077.3</v>
@@ -17516,7 +17538,7 @@
         <v>1946</v>
       </c>
       <c r="K336" t="n">
-        <v>-61.64383561643836</v>
+        <v>-100</v>
       </c>
       <c r="L336" t="n">
         <v>3076.9</v>
@@ -17567,7 +17589,7 @@
         <v>1954</v>
       </c>
       <c r="K337" t="n">
-        <v>-43.58974358974359</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L337" t="n">
         <v>3077.3</v>
@@ -17618,7 +17640,7 @@
         <v>1962</v>
       </c>
       <c r="K338" t="n">
-        <v>-48.23529411764706</v>
+        <v>-20</v>
       </c>
       <c r="L338" t="n">
         <v>3076.9</v>
@@ -17669,7 +17691,7 @@
         <v>1976</v>
       </c>
       <c r="K339" t="n">
-        <v>-52.68817204301075</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L339" t="n">
         <v>3075.1</v>
@@ -17720,7 +17742,7 @@
         <v>1977</v>
       </c>
       <c r="K340" t="n">
-        <v>-51.06382978723404</v>
+        <v>-48.57142857142857</v>
       </c>
       <c r="L340" t="n">
         <v>3073.4</v>
@@ -17771,7 +17793,7 @@
         <v>1988</v>
       </c>
       <c r="K341" t="n">
-        <v>-50</v>
+        <v>-60.86956521739131</v>
       </c>
       <c r="L341" t="n">
         <v>3070.6</v>
@@ -17822,7 +17844,7 @@
         <v>2001</v>
       </c>
       <c r="K342" t="n">
-        <v>-53.06122448979592</v>
+        <v>-69.49152542372882</v>
       </c>
       <c r="L342" t="n">
         <v>3066.5</v>
@@ -17873,7 +17895,7 @@
         <v>2014</v>
       </c>
       <c r="K343" t="n">
-        <v>-20.87912087912088</v>
+        <v>-36.23188405797102</v>
       </c>
       <c r="L343" t="n">
         <v>3063.7</v>
@@ -17924,7 +17946,7 @@
         <v>2018</v>
       </c>
       <c r="K344" t="n">
-        <v>-24.21052631578947</v>
+        <v>-38.88888888888889</v>
       </c>
       <c r="L344" t="n">
         <v>3060.8</v>
@@ -17975,7 +17997,7 @@
         <v>2020</v>
       </c>
       <c r="K345" t="n">
-        <v>-21.73913043478261</v>
+        <v>-40.54054054054054</v>
       </c>
       <c r="L345" t="n">
         <v>3057.8</v>
@@ -18026,7 +18048,7 @@
         <v>2027</v>
       </c>
       <c r="K346" t="n">
-        <v>-48.23529411764706</v>
+        <v>-61.64383561643836</v>
       </c>
       <c r="L346" t="n">
         <v>3054.1</v>
@@ -18077,7 +18099,7 @@
         <v>2030</v>
       </c>
       <c r="K347" t="n">
-        <v>-43.18181818181818</v>
+        <v>-50</v>
       </c>
       <c r="L347" t="n">
         <v>3049.9</v>
@@ -18128,7 +18150,7 @@
         <v>2035</v>
       </c>
       <c r="K348" t="n">
-        <v>-46.23655913978494</v>
+        <v>-42.3728813559322</v>
       </c>
       <c r="L348" t="n">
         <v>3046</v>
@@ -18179,7 +18201,7 @@
         <v>2039</v>
       </c>
       <c r="K349" t="n">
-        <v>-48.45360824742268</v>
+        <v>-48.38709677419355</v>
       </c>
       <c r="L349" t="n">
         <v>3043.1</v>
@@ -18230,7 +18252,7 @@
         <v>2055</v>
       </c>
       <c r="K350" t="n">
-        <v>-27.43362831858407</v>
+        <v>-4.477611940298507</v>
       </c>
       <c r="L350" t="n">
         <v>3041.7</v>
@@ -18281,7 +18303,7 @@
         <v>2055</v>
       </c>
       <c r="K351" t="n">
-        <v>-27.43362831858407</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L351" t="n">
         <v>3041.4</v>
@@ -18332,7 +18354,7 @@
         <v>2060</v>
       </c>
       <c r="K352" t="n">
-        <v>-30.50847457627119</v>
+        <v>-17.39130434782609</v>
       </c>
       <c r="L352" t="n">
         <v>3041.9</v>
@@ -18383,7 +18405,7 @@
         <v>2078</v>
       </c>
       <c r="K353" t="n">
-        <v>-13.23529411764706</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="L353" t="n">
         <v>3042.9</v>
@@ -18434,7 +18456,7 @@
         <v>2086</v>
       </c>
       <c r="K354" t="n">
-        <v>-16.31205673758866</v>
+        <v>12.12121212121212</v>
       </c>
       <c r="L354" t="n">
         <v>3043.5</v>
@@ -18485,7 +18507,7 @@
         <v>2102</v>
       </c>
       <c r="K355" t="n">
-        <v>-3.846153846153846</v>
+        <v>41.33333333333334</v>
       </c>
       <c r="L355" t="n">
         <v>3045.9</v>
@@ -18536,7 +18558,7 @@
         <v>2111</v>
       </c>
       <c r="K356" t="n">
-        <v>-9.090909090909092</v>
+        <v>23.45679012345679</v>
       </c>
       <c r="L356" t="n">
         <v>3048.1</v>
@@ -18587,7 +18609,7 @@
         <v>2111</v>
       </c>
       <c r="K357" t="n">
-        <v>-14.64968152866242</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="L357" t="n">
         <v>3050</v>
@@ -18638,7 +18660,7 @@
         <v>2122</v>
       </c>
       <c r="K358" t="n">
-        <v>-16.25</v>
+        <v>20.48192771084337</v>
       </c>
       <c r="L358" t="n">
         <v>3051.3</v>
@@ -18689,7 +18711,7 @@
         <v>2122</v>
       </c>
       <c r="K359" t="n">
-        <v>-8.21917808219178</v>
+        <v>1.492537313432836</v>
       </c>
       <c r="L359" t="n">
         <v>3053</v>
@@ -18740,7 +18762,7 @@
         <v>2128</v>
       </c>
       <c r="K360" t="n">
-        <v>-4.635761589403973</v>
+        <v>9.58904109589041</v>
       </c>
       <c r="L360" t="n">
         <v>3053.7</v>
@@ -18791,7 +18813,7 @@
         <v>2131</v>
       </c>
       <c r="K361" t="n">
-        <v>0.6993006993006993</v>
+        <v>12.67605633802817</v>
       </c>
       <c r="L361" t="n">
         <v>3054.1</v>
@@ -18842,7 +18864,7 @@
         <v>2131</v>
       </c>
       <c r="K362" t="n">
-        <v>10.76923076923077</v>
+        <v>-16.9811320754717</v>
       </c>
       <c r="L362" t="n">
         <v>3055</v>
@@ -18893,7 +18915,7 @@
         <v>2152</v>
       </c>
       <c r="K363" t="n">
-        <v>-14.49275362318841</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L363" t="n">
         <v>3052</v>
@@ -18944,7 +18966,7 @@
         <v>2157</v>
       </c>
       <c r="K364" t="n">
-        <v>-15.10791366906475</v>
+        <v>-78.18181818181819</v>
       </c>
       <c r="L364" t="n">
         <v>3049.3</v>
@@ -18995,7 +19017,7 @@
         <v>2167</v>
       </c>
       <c r="K365" t="n">
-        <v>-6.122448979591836</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L365" t="n">
         <v>3046</v>
@@ -19046,7 +19068,7 @@
         <v>2171</v>
       </c>
       <c r="K366" t="n">
-        <v>-4.166666666666666</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L366" t="n">
         <v>3043.2</v>
@@ -19097,7 +19119,7 @@
         <v>2172</v>
       </c>
       <c r="K367" t="n">
-        <v>-7.042253521126761</v>
+        <v>-36</v>
       </c>
       <c r="L367" t="n">
         <v>3040.3</v>
@@ -19148,7 +19170,7 @@
         <v>2185</v>
       </c>
       <c r="K368" t="n">
-        <v>5.333333333333334</v>
+        <v>-7.936507936507936</v>
       </c>
       <c r="L368" t="n">
         <v>3039.8</v>
@@ -19199,7 +19221,7 @@
         <v>2185</v>
       </c>
       <c r="K369" t="n">
-        <v>8.21917808219178</v>
+        <v>-19.29824561403509</v>
       </c>
       <c r="L369" t="n">
         <v>3039.3</v>
@@ -19250,7 +19272,7 @@
         <v>2188</v>
       </c>
       <c r="K370" t="n">
-        <v>-5.263157894736842</v>
+        <v>-19.29824561403509</v>
       </c>
       <c r="L370" t="n">
         <v>3037.9</v>
@@ -19301,7 +19323,7 @@
         <v>2188</v>
       </c>
       <c r="K371" t="n">
-        <v>-5.263157894736842</v>
+        <v>-19.29824561403509</v>
       </c>
       <c r="L371" t="n">
         <v>3036.8</v>
@@ -19352,7 +19374,7 @@
         <v>2206</v>
       </c>
       <c r="K372" t="n">
-        <v>-13.6986301369863</v>
+        <v>-14.81481481481481</v>
       </c>
       <c r="L372" t="n">
         <v>3033.9</v>
@@ -19403,7 +19425,7 @@
         <v>2219</v>
       </c>
       <c r="K373" t="n">
-        <v>-36.17021276595745</v>
+        <v>-25.80645161290322</v>
       </c>
       <c r="L373" t="n">
         <v>3031.8</v>
@@ -19454,7 +19476,7 @@
         <v>2221</v>
       </c>
       <c r="K374" t="n">
-        <v>-33.33333333333333</v>
+        <v>-51.85185185185185</v>
       </c>
       <c r="L374" t="n">
         <v>3030</v>
@@ -19505,7 +19527,7 @@
         <v>2223</v>
       </c>
       <c r="K375" t="n">
-        <v>-52.06611570247934</v>
+        <v>-50</v>
       </c>
       <c r="L375" t="n">
         <v>3027</v>
@@ -19556,7 +19578,7 @@
         <v>2233</v>
       </c>
       <c r="K376" t="n">
-        <v>-52.45901639344262</v>
+        <v>-57.37704918032787</v>
       </c>
       <c r="L376" t="n">
         <v>3023.4</v>
@@ -19607,7 +19629,7 @@
         <v>2251</v>
       </c>
       <c r="K377" t="n">
-        <v>-32.85714285714285</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L377" t="n">
         <v>3021.7</v>
@@ -19658,7 +19680,7 @@
         <v>2255</v>
       </c>
       <c r="K378" t="n">
-        <v>-23.30827067669173</v>
+        <v>-37.14285714285715</v>
       </c>
       <c r="L378" t="n">
         <v>3019.1</v>
@@ -19709,7 +19731,7 @@
         <v>2260</v>
       </c>
       <c r="K379" t="n">
-        <v>-18.84057971014493</v>
+        <v>-25</v>
       </c>
       <c r="L379" t="n">
         <v>3017</v>
@@ -19760,7 +19782,7 @@
         <v>2265</v>
       </c>
       <c r="K380" t="n">
-        <v>-27.00729927007299</v>
+        <v>-29.87012987012987</v>
       </c>
       <c r="L380" t="n">
         <v>3014.7</v>
@@ -19811,7 +19833,7 @@
         <v>2276</v>
       </c>
       <c r="K381" t="n">
-        <v>-31.03448275862069</v>
+        <v>-22.85714285714286</v>
       </c>
       <c r="L381" t="n">
         <v>3011.3</v>
@@ -19862,7 +19884,7 @@
         <v>2281</v>
       </c>
       <c r="K382" t="n">
-        <v>-26.66666666666667</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L382" t="n">
         <v>3010.2</v>
@@ -19913,7 +19935,7 @@
         <v>2287</v>
       </c>
       <c r="K383" t="n">
-        <v>-18.51851851851852</v>
+        <v>-3.03030303030303</v>
       </c>
       <c r="L383" t="n">
         <v>3009.8</v>
@@ -19964,7 +19986,7 @@
         <v>2289</v>
       </c>
       <c r="K384" t="n">
-        <v>-16.66666666666666</v>
+        <v>-3.03030303030303</v>
       </c>
       <c r="L384" t="n">
         <v>3009.4</v>
@@ -20015,7 +20037,7 @@
         <v>2289</v>
       </c>
       <c r="K385" t="n">
-        <v>-26.22950819672131</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L385" t="n">
         <v>3009.2</v>
@@ -20066,7 +20088,7 @@
         <v>2289</v>
       </c>
       <c r="K386" t="n">
-        <v>-23.72881355932203</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L386" t="n">
         <v>3010</v>
@@ -20117,7 +20139,7 @@
         <v>2312</v>
       </c>
       <c r="K387" t="n">
-        <v>-35.71428571428572</v>
+        <v>-64.91228070175438</v>
       </c>
       <c r="L387" t="n">
         <v>3006.7</v>
@@ -20168,7 +20190,7 @@
         <v>2312</v>
       </c>
       <c r="K388" t="n">
-        <v>-49.60629921259843</v>
+        <v>-80.76923076923077</v>
       </c>
       <c r="L388" t="n">
         <v>3003</v>
@@ -20219,7 +20241,7 @@
         <v>2320</v>
       </c>
       <c r="K389" t="n">
-        <v>-40.74074074074074</v>
+        <v>-52.72727272727272</v>
       </c>
       <c r="L389" t="n">
         <v>2999.6</v>
@@ -20270,7 +20292,7 @@
         <v>2328</v>
       </c>
       <c r="K390" t="n">
-        <v>-42.85714285714285</v>
+        <v>-50</v>
       </c>
       <c r="L390" t="n">
         <v>2995.9</v>
@@ -20321,7 +20343,7 @@
         <v>2336</v>
       </c>
       <c r="K391" t="n">
-        <v>-35.13513513513514</v>
+        <v>-41.81818181818181</v>
       </c>
       <c r="L391" t="n">
         <v>2994.1</v>
@@ -20372,7 +20394,7 @@
         <v>2336</v>
       </c>
       <c r="K392" t="n">
-        <v>-26.15384615384616</v>
+        <v>-34.69387755102041</v>
       </c>
       <c r="L392" t="n">
         <v>2991.8</v>
@@ -20423,7 +20445,7 @@
         <v>2340</v>
       </c>
       <c r="K393" t="n">
-        <v>-20.66115702479339</v>
+        <v>-37.25490196078432</v>
       </c>
       <c r="L393" t="n">
         <v>2989.7</v>
@@ -20474,7 +20496,7 @@
         <v>2346</v>
       </c>
       <c r="K394" t="n">
-        <v>-13.6</v>
+        <v>-22.80701754385965</v>
       </c>
       <c r="L394" t="n">
         <v>2988.4</v>
@@ -20525,7 +20547,7 @@
         <v>2363</v>
       </c>
       <c r="K395" t="n">
-        <v>1.428571428571429</v>
+        <v>5.405405405405405</v>
       </c>
       <c r="L395" t="n">
         <v>2988.8</v>
@@ -20576,7 +20598,7 @@
         <v>2366</v>
       </c>
       <c r="K396" t="n">
-        <v>6.766917293233083</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L396" t="n">
         <v>2988.9</v>
@@ -20627,7 +20649,7 @@
         <v>2367</v>
       </c>
       <c r="K397" t="n">
-        <v>-6.896551724137931</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L397" t="n">
         <v>2991.4</v>
@@ -20678,7 +20700,7 @@
         <v>2372</v>
       </c>
       <c r="K398" t="n">
-        <v>-5.982905982905983</v>
+        <v>42.30769230769231</v>
       </c>
       <c r="L398" t="n">
         <v>2994.4</v>
@@ -20729,7 +20751,7 @@
         <v>2402</v>
       </c>
       <c r="K399" t="n">
-        <v>12.67605633802817</v>
+        <v>81.08108108108108</v>
       </c>
       <c r="L399" t="n">
         <v>2999.6</v>
@@ -20780,7 +20802,7 @@
         <v>2403</v>
       </c>
       <c r="K400" t="n">
-        <v>15.94202898550724</v>
+        <v>76.11940298507463</v>
       </c>
       <c r="L400" t="n">
         <v>3005.5</v>
@@ -20831,7 +20853,7 @@
         <v>2412</v>
       </c>
       <c r="K401" t="n">
-        <v>17.64705882352941</v>
+        <v>55.26315789473685</v>
       </c>
       <c r="L401" t="n">
         <v>3009.7</v>
@@ -20882,7 +20904,7 @@
         <v>2425</v>
       </c>
       <c r="K402" t="n">
-        <v>22.22222222222222</v>
+        <v>69.41176470588235</v>
       </c>
       <c r="L402" t="n">
         <v>3015.2</v>
@@ -20933,7 +20955,7 @@
         <v>2434</v>
       </c>
       <c r="K403" t="n">
-        <v>19.72789115646258</v>
+        <v>50</v>
       </c>
       <c r="L403" t="n">
         <v>3020.2</v>
@@ -20984,7 +21006,7 @@
         <v>2440</v>
       </c>
       <c r="K404" t="n">
-        <v>24.50331125827815</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L404" t="n">
         <v>3025.2</v>
@@ -21035,7 +21057,7 @@
         <v>2440</v>
       </c>
       <c r="K405" t="n">
-        <v>24.50331125827815</v>
+        <v>48.64864864864865</v>
       </c>
       <c r="L405" t="n">
         <v>3028.5</v>
@@ -21086,7 +21108,7 @@
         <v>2440</v>
       </c>
       <c r="K406" t="n">
-        <v>24.50331125827815</v>
+        <v>47.94520547945205</v>
       </c>
       <c r="L406" t="n">
         <v>3032.1</v>
@@ -21137,7 +21159,7 @@
         <v>2450</v>
       </c>
       <c r="K407" t="n">
-        <v>36.23188405797102</v>
+        <v>25.64102564102564</v>
       </c>
       <c r="L407" t="n">
         <v>3034.6</v>
@@ -21188,7 +21210,7 @@
         <v>2450</v>
       </c>
       <c r="K408" t="n">
-        <v>36.23188405797102</v>
+        <v>-20.83333333333334</v>
       </c>
       <c r="L408" t="n">
         <v>3036.6</v>
@@ -21239,7 +21261,7 @@
         <v>2450</v>
       </c>
       <c r="K409" t="n">
-        <v>32.30769230769231</v>
+        <v>-19.14893617021277</v>
       </c>
       <c r="L409" t="n">
         <v>3035.6</v>
@@ -21290,7 +21312,7 @@
         <v>2470</v>
       </c>
       <c r="K410" t="n">
-        <v>21.12676056338028</v>
+        <v>-34.48275862068966</v>
       </c>
       <c r="L410" t="n">
         <v>3032.7</v>
@@ -21341,7 +21363,7 @@
         <v>2491</v>
       </c>
       <c r="K411" t="n">
-        <v>27.74193548387097</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L411" t="n">
         <v>3032.8</v>
@@ -21392,7 +21414,7 @@
         <v>2504</v>
       </c>
       <c r="K412" t="n">
-        <v>33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L412" t="n">
         <v>3032.9</v>
@@ -21443,7 +21465,7 @@
         <v>2504</v>
       </c>
       <c r="K413" t="n">
-        <v>36.58536585365854</v>
+        <v>6.25</v>
       </c>
       <c r="L413" t="n">
         <v>3033.9</v>
@@ -21494,7 +21516,7 @@
         <v>2506</v>
       </c>
       <c r="K414" t="n">
-        <v>35</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L414" t="n">
         <v>3034.5</v>
@@ -21545,7 +21567,7 @@
         <v>2513</v>
       </c>
       <c r="K415" t="n">
-        <v>30.66666666666666</v>
+        <v>17.80821917808219</v>
       </c>
       <c r="L415" t="n">
         <v>3035.8</v>
@@ -21596,7 +21618,7 @@
         <v>2514</v>
       </c>
       <c r="K416" t="n">
-        <v>33.78378378378378</v>
+        <v>37.5</v>
       </c>
       <c r="L416" t="n">
         <v>3037.2</v>
@@ -21647,7 +21669,7 @@
         <v>2520</v>
       </c>
       <c r="K417" t="n">
-        <v>35.94771241830065</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L417" t="n">
         <v>3040.2</v>
@@ -21698,7 +21720,7 @@
         <v>2522</v>
       </c>
       <c r="K418" t="n">
-        <v>34.66666666666667</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L418" t="n">
         <v>3043.4</v>
@@ -21749,7 +21771,7 @@
         <v>2522</v>
       </c>
       <c r="K419" t="n">
-        <v>18.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L419" t="n">
         <v>3046.6</v>
@@ -21800,7 +21822,7 @@
         <v>2526</v>
       </c>
       <c r="K420" t="n">
-        <v>21.95121951219512</v>
+        <v>100</v>
       </c>
       <c r="L420" t="n">
         <v>3052.2</v>
@@ -21851,7 +21873,7 @@
         <v>2545</v>
       </c>
       <c r="K421" t="n">
-        <v>12.78195488721804</v>
+        <v>7.317073170731707</v>
       </c>
       <c r="L421" t="n">
         <v>3053.8</v>
@@ -21902,7 +21924,7 @@
         <v>2552</v>
       </c>
       <c r="K422" t="n">
-        <v>-2.362204724409449</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L422" t="n">
         <v>3053.4</v>
@@ -21953,7 +21975,7 @@
         <v>2560</v>
       </c>
       <c r="K423" t="n">
-        <v>-1.587301587301587</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L423" t="n">
         <v>3052.2</v>
@@ -22004,7 +22026,7 @@
         <v>2561</v>
       </c>
       <c r="K424" t="n">
-        <v>-5.785123966942149</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L424" t="n">
         <v>3050.9</v>
@@ -22055,7 +22077,7 @@
         <v>2562</v>
       </c>
       <c r="K425" t="n">
-        <v>-6.557377049180328</v>
+        <v>-45.83333333333333</v>
       </c>
       <c r="L425" t="n">
         <v>3048.8</v>
@@ -22106,7 +22128,7 @@
         <v>2562</v>
       </c>
       <c r="K426" t="n">
-        <v>-6.557377049180328</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L426" t="n">
         <v>3046.6</v>
@@ -22157,7 +22179,7 @@
         <v>2562</v>
       </c>
       <c r="K427" t="n">
-        <v>1.785714285714286</v>
+        <v>-75</v>
       </c>
       <c r="L427" t="n">
         <v>3043.8</v>
@@ -22208,7 +22230,7 @@
         <v>2573</v>
       </c>
       <c r="K428" t="n">
-        <v>10.56910569105691</v>
+        <v>-37.25490196078432</v>
       </c>
       <c r="L428" t="n">
         <v>3041.9</v>
@@ -22259,7 +22281,7 @@
         <v>2583</v>
       </c>
       <c r="K429" t="n">
-        <v>17.29323308270677</v>
+        <v>-22.80701754385965</v>
       </c>
       <c r="L429" t="n">
         <v>3041</v>
@@ -22310,7 +22332,7 @@
         <v>2583</v>
       </c>
       <c r="K430" t="n">
-        <v>38.05309734513274</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L430" t="n">
         <v>3039.7</v>
@@ -22361,7 +22383,7 @@
         <v>2587</v>
       </c>
       <c r="K431" t="n">
-        <v>18.75</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L431" t="n">
         <v>3039.9</v>
@@ -22412,7 +22434,7 @@
         <v>2588</v>
       </c>
       <c r="K432" t="n">
-        <v>7.142857142857142</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="L432" t="n">
         <v>3040.9</v>
@@ -22463,7 +22485,7 @@
         <v>2592</v>
       </c>
       <c r="K433" t="n">
-        <v>2.272727272727273</v>
+        <v>41.93548387096774</v>
       </c>
       <c r="L433" t="n">
         <v>3042.3</v>
@@ -22514,7 +22536,7 @@
         <v>2593</v>
       </c>
       <c r="K434" t="n">
-        <v>-1.149425287356322</v>
+        <v>41.93548387096774</v>
       </c>
       <c r="L434" t="n">
         <v>3043.5</v>
@@ -22565,7 +22587,7 @@
         <v>2598</v>
       </c>
       <c r="K435" t="n">
-        <v>-15.29411764705882</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L435" t="n">
         <v>3044.3</v>
@@ -22616,7 +22638,7 @@
         <v>2608</v>
       </c>
       <c r="K436" t="n">
-        <v>-4.25531914893617</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L436" t="n">
         <v>3046.1</v>
@@ -22667,7 +22689,7 @@
         <v>2617</v>
       </c>
       <c r="K437" t="n">
-        <v>-19.58762886597938</v>
+        <v>-4.545454545454546</v>
       </c>
       <c r="L437" t="n">
         <v>3047</v>
@@ -22718,7 +22740,7 @@
         <v>2626</v>
       </c>
       <c r="K438" t="n">
-        <v>-11.53846153846154</v>
+        <v>-6.976744186046512</v>
       </c>
       <c r="L438" t="n">
         <v>3047.7</v>
@@ -22769,7 +22791,7 @@
         <v>2627</v>
       </c>
       <c r="K439" t="n">
-        <v>-10.47619047619048</v>
+        <v>-4.545454545454546</v>
       </c>
       <c r="L439" t="n">
         <v>3047.5</v>
@@ -22820,7 +22842,7 @@
         <v>2633</v>
       </c>
       <c r="K440" t="n">
-        <v>-8.411214953271028</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="L440" t="n">
         <v>3047.9</v>
@@ -22871,7 +22893,7 @@
         <v>2633</v>
       </c>
       <c r="K441" t="n">
-        <v>11.36363636363636</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="L441" t="n">
         <v>3048.7</v>
@@ -22922,7 +22944,7 @@
         <v>2636</v>
       </c>
       <c r="K442" t="n">
-        <v>16.66666666666666</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L442" t="n">
         <v>3049.1</v>
@@ -22973,7 +22995,7 @@
         <v>2640</v>
       </c>
       <c r="K443" t="n">
-        <v>22.5</v>
+        <v>10.63829787234043</v>
       </c>
       <c r="L443" t="n">
         <v>3049.5</v>
@@ -23024,7 +23046,7 @@
         <v>2648</v>
       </c>
       <c r="K444" t="n">
-        <v>28.73563218390805</v>
+        <v>36</v>
       </c>
       <c r="L444" t="n">
         <v>3050.8</v>
@@ -23075,7 +23097,7 @@
         <v>2650</v>
       </c>
       <c r="K445" t="n">
-        <v>31.81818181818182</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L445" t="n">
         <v>3052.8</v>
@@ -23126,7 +23148,7 @@
         <v>2650</v>
       </c>
       <c r="K446" t="n">
-        <v>31.81818181818182</v>
+        <v>57.57575757575758</v>
       </c>
       <c r="L446" t="n">
         <v>3053.8</v>
@@ -23177,7 +23199,7 @@
         <v>2651</v>
       </c>
       <c r="K447" t="n">
-        <v>32.58426966292135</v>
+        <v>44</v>
       </c>
       <c r="L447" t="n">
         <v>3055.8</v>
@@ -23228,7 +23250,7 @@
         <v>2660</v>
       </c>
       <c r="K448" t="n">
-        <v>10.3448275862069</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L448" t="n">
         <v>3056</v>
@@ -23279,7 +23301,7 @@
         <v>2665</v>
       </c>
       <c r="K449" t="n">
-        <v>4.878048780487805</v>
+        <v>0</v>
       </c>
       <c r="L449" t="n">
         <v>3056.6</v>
@@ -23330,7 +23352,7 @@
         <v>2665</v>
       </c>
       <c r="K450" t="n">
-        <v>4.878048780487805</v>
+        <v>0</v>
       </c>
       <c r="L450" t="n">
         <v>3056.6</v>
@@ -23381,7 +23403,7 @@
         <v>2686</v>
       </c>
       <c r="K451" t="n">
-        <v>29.29292929292929</v>
+        <v>48</v>
       </c>
       <c r="L451" t="n">
         <v>3058.7</v>
@@ -23432,7 +23454,7 @@
         <v>2688</v>
       </c>
       <c r="K452" t="n">
-        <v>30</v>
+        <v>62.5</v>
       </c>
       <c r="L452" t="n">
         <v>3061.3</v>
@@ -23483,7 +23505,7 @@
         <v>2692</v>
       </c>
       <c r="K453" t="n">
-        <v>38</v>
+        <v>59.09090909090909</v>
       </c>
       <c r="L453" t="n">
         <v>3064.7</v>
@@ -23534,7 +23556,7 @@
         <v>2696</v>
       </c>
       <c r="K454" t="n">
-        <v>41.74757281553398</v>
+        <v>60.86956521739131</v>
       </c>
       <c r="L454" t="n">
         <v>3067.7</v>
@@ -23585,7 +23607,7 @@
         <v>2696</v>
       </c>
       <c r="K455" t="n">
-        <v>48.97959183673469</v>
+        <v>60.86956521739131</v>
       </c>
       <c r="L455" t="n">
         <v>3070.5</v>
@@ -23636,7 +23658,7 @@
         <v>2710</v>
       </c>
       <c r="K456" t="n">
-        <v>23.52941176470588</v>
+        <v>22.03389830508474</v>
       </c>
       <c r="L456" t="n">
         <v>3071.9</v>
@@ -23687,7 +23709,7 @@
         <v>2716</v>
       </c>
       <c r="K457" t="n">
-        <v>39.39393939393939</v>
+        <v>50</v>
       </c>
       <c r="L457" t="n">
         <v>3073.8</v>
@@ -23738,7 +23760,7 @@
         <v>2726</v>
       </c>
       <c r="K458" t="n">
-        <v>20</v>
+        <v>21.31147540983606</v>
       </c>
       <c r="L458" t="n">
         <v>3075.6</v>
@@ -23789,7 +23811,7 @@
         <v>2726</v>
       </c>
       <c r="K459" t="n">
-        <v>19.19191919191919</v>
+        <v>21.31147540983606</v>
       </c>
       <c r="L459" t="n">
         <v>3076.9</v>
@@ -23840,7 +23862,7 @@
         <v>2734</v>
       </c>
       <c r="K460" t="n">
-        <v>20.79207920792079</v>
+        <v>0</v>
       </c>
       <c r="L460" t="n">
         <v>3079</v>
@@ -23891,7 +23913,7 @@
         <v>2741</v>
       </c>
       <c r="K461" t="n">
-        <v>12.96296296296296</v>
+        <v>-16.9811320754717</v>
       </c>
       <c r="L461" t="n">
         <v>3078.3</v>
@@ -23942,7 +23964,7 @@
         <v>2741</v>
       </c>
       <c r="K462" t="n">
-        <v>16.19047619047619</v>
+        <v>-26.53061224489796</v>
       </c>
       <c r="L462" t="n">
         <v>3077.4</v>
@@ -23993,7 +24015,7 @@
         <v>2755</v>
       </c>
       <c r="K463" t="n">
-        <v>30.43478260869566</v>
+        <v>-5.084745762711865</v>
       </c>
       <c r="L463" t="n">
         <v>3077.5</v>
@@ -24044,7 +24066,7 @@
         <v>2756</v>
       </c>
       <c r="K464" t="n">
-        <v>25.92592592592592</v>
+        <v>-3.333333333333333</v>
       </c>
       <c r="L464" t="n">
         <v>3077.3</v>
@@ -24095,7 +24117,7 @@
         <v>2762</v>
       </c>
       <c r="K465" t="n">
-        <v>17.85714285714286</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="L465" t="n">
         <v>3076.5</v>
@@ -24146,7 +24168,7 @@
         <v>2763</v>
       </c>
       <c r="K466" t="n">
-        <v>16.8141592920354</v>
+        <v>-2.127659574468085</v>
       </c>
       <c r="L466" t="n">
         <v>3077</v>
@@ -24197,7 +24219,7 @@
         <v>2774</v>
       </c>
       <c r="K467" t="n">
-        <v>23.57723577235772</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L467" t="n">
         <v>3078</v>
@@ -24248,7 +24270,7 @@
         <v>2781</v>
       </c>
       <c r="K468" t="n">
-        <v>37.1900826446281</v>
+        <v>49.09090909090909</v>
       </c>
       <c r="L468" t="n">
         <v>3080.7</v>
@@ -24299,7 +24321,7 @@
         <v>2781</v>
       </c>
       <c r="K469" t="n">
-        <v>34.48275862068966</v>
+        <v>40.42553191489361</v>
       </c>
       <c r="L469" t="n">
         <v>3083.4</v>
@@ -24350,7 +24372,7 @@
         <v>2788</v>
       </c>
       <c r="K470" t="n">
-        <v>26.82926829268293</v>
+        <v>40.42553191489361</v>
       </c>
       <c r="L470" t="n">
         <v>3084.6</v>
@@ -24401,7 +24423,7 @@
         <v>2791</v>
       </c>
       <c r="K471" t="n">
-        <v>14.28571428571428</v>
+        <v>44</v>
       </c>
       <c r="L471" t="n">
         <v>3086.8</v>
@@ -24452,7 +24474,7 @@
         <v>2797</v>
       </c>
       <c r="K472" t="n">
-        <v>6.422018348623854</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L472" t="n">
         <v>3088.4</v>
@@ -24503,7 +24525,7 @@
         <v>2797</v>
       </c>
       <c r="K473" t="n">
-        <v>2.857142857142857</v>
+        <v>2.439024390243902</v>
       </c>
       <c r="L473" t="n">
         <v>3088.6</v>
@@ -24554,7 +24576,7 @@
         <v>2798</v>
       </c>
       <c r="K474" t="n">
-        <v>-1.96078431372549</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L474" t="n">
         <v>3088.6</v>
@@ -24605,7 +24627,7 @@
         <v>2800</v>
       </c>
       <c r="K475" t="n">
-        <v>-3.846153846153846</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="L475" t="n">
         <v>3089</v>
@@ -24656,7 +24678,7 @@
         <v>2806</v>
       </c>
       <c r="K476" t="n">
-        <v>4.166666666666666</v>
+        <v>-37.5</v>
       </c>
       <c r="L476" t="n">
         <v>3088.9</v>
@@ -24707,7 +24729,7 @@
         <v>2807</v>
       </c>
       <c r="K477" t="n">
-        <v>-1.098901098901099</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L477" t="n">
         <v>3087.8</v>
@@ -24758,7 +24780,7 @@
         <v>2807</v>
       </c>
       <c r="K478" t="n">
-        <v>11.11111111111111</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L478" t="n">
         <v>3086</v>
@@ -24809,7 +24831,7 @@
         <v>2807</v>
       </c>
       <c r="K479" t="n">
-        <v>11.11111111111111</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L479" t="n">
         <v>3084.2</v>
@@ -24860,7 +24882,7 @@
         <v>2807</v>
       </c>
       <c r="K480" t="n">
-        <v>1.36986301369863</v>
+        <v>-87.5</v>
       </c>
       <c r="L480" t="n">
         <v>3083.1</v>
@@ -24911,7 +24933,7 @@
         <v>2807</v>
       </c>
       <c r="K481" t="n">
-        <v>12.12121212121212</v>
+        <v>-80</v>
       </c>
       <c r="L481" t="n">
         <v>3081.7</v>
@@ -24962,7 +24984,7 @@
         <v>2807</v>
       </c>
       <c r="K482" t="n">
-        <v>12.12121212121212</v>
+        <v>-80</v>
       </c>
       <c r="L482" t="n">
         <v>3080.9</v>
@@ -25013,7 +25035,7 @@
         <v>2811</v>
       </c>
       <c r="K483" t="n">
-        <v>-17.85714285714286</v>
+        <v>-84.61538461538461</v>
       </c>
       <c r="L483" t="n">
         <v>3079.7</v>
@@ -25064,7 +25086,7 @@
         <v>2821</v>
       </c>
       <c r="K484" t="n">
-        <v>-1.538461538461539</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L484" t="n">
         <v>3079.6</v>
@@ -25115,7 +25137,7 @@
         <v>2828</v>
       </c>
       <c r="K485" t="n">
-        <v>18.18181818181818</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L485" t="n">
         <v>3080.4</v>
@@ -25166,7 +25188,7 @@
         <v>2829</v>
       </c>
       <c r="K486" t="n">
-        <v>21.21212121212121</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L486" t="n">
         <v>3081.9</v>
@@ -25217,7 +25239,7 @@
         <v>2837</v>
       </c>
       <c r="K487" t="n">
-        <v>-7.936507936507936</v>
+        <v>20</v>
       </c>
       <c r="L487" t="n">
         <v>3082.5</v>
@@ -25268,7 +25290,7 @@
         <v>2842</v>
       </c>
       <c r="K488" t="n">
-        <v>-11.47540983606557</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L488" t="n">
         <v>3083.6</v>
@@ -25319,7 +25341,7 @@
         <v>2846</v>
       </c>
       <c r="K489" t="n">
-        <v>-16.92307692307692</v>
+        <v>17.94871794871795</v>
       </c>
       <c r="L489" t="n">
         <v>3084.3</v>
@@ -25370,7 +25392,7 @@
         <v>2847</v>
       </c>
       <c r="K490" t="n">
-        <v>-5.084745762711865</v>
+        <v>20</v>
       </c>
       <c r="L490" t="n">
         <v>3085.1</v>
@@ -25421,7 +25443,7 @@
         <v>2849</v>
       </c>
       <c r="K491" t="n">
-        <v>-6.896551724137931</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L491" t="n">
         <v>3086.1</v>
@@ -25472,7 +25494,7 @@
         <v>2857</v>
       </c>
       <c r="K492" t="n">
-        <v>-10</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L492" t="n">
         <v>3086.3</v>
@@ -25523,7 +25545,7 @@
         <v>2857</v>
       </c>
       <c r="K493" t="n">
-        <v>-10</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L493" t="n">
         <v>3086.9</v>
@@ -25574,7 +25596,7 @@
         <v>2858</v>
       </c>
       <c r="K494" t="n">
-        <v>-10</v>
+        <v>-40</v>
       </c>
       <c r="L494" t="n">
         <v>3086.4</v>
@@ -25625,7 +25647,7 @@
         <v>2858</v>
       </c>
       <c r="K495" t="n">
-        <v>-6.896551724137931</v>
+        <v>-44.82758620689656</v>
       </c>
       <c r="L495" t="n">
         <v>3085.2</v>
@@ -25676,7 +25698,7 @@
         <v>2859</v>
       </c>
       <c r="K496" t="n">
-        <v>5.660377358490567</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L496" t="n">
         <v>3084</v>
@@ -25727,7 +25749,7 @@
         <v>2859</v>
       </c>
       <c r="K497" t="n">
-        <v>3.846153846153846</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L497" t="n">
         <v>3083.6</v>
@@ -25778,7 +25800,7 @@
         <v>2863</v>
       </c>
       <c r="K498" t="n">
-        <v>10.71428571428571</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L498" t="n">
         <v>3083.1</v>
@@ -25829,7 +25851,7 @@
         <v>2867</v>
       </c>
       <c r="K499" t="n">
-        <v>3.333333333333333</v>
+        <v>-30</v>
       </c>
       <c r="L499" t="n">
         <v>3082.6</v>
@@ -25880,7 +25902,7 @@
         <v>2867</v>
       </c>
       <c r="K500" t="n">
-        <v>3.333333333333333</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L500" t="n">
         <v>3082</v>
@@ -25931,7 +25953,7 @@
         <v>2867</v>
       </c>
       <c r="K501" t="n">
-        <v>3.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="L501" t="n">
         <v>3081.2</v>
@@ -25982,7 +26004,7 @@
         <v>2869</v>
       </c>
       <c r="K502" t="n">
-        <v>6.451612903225806</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L502" t="n">
         <v>3081.4</v>
@@ -26033,7 +26055,7 @@
         <v>2870</v>
       </c>
       <c r="K503" t="n">
-        <v>15.25423728813559</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L503" t="n">
         <v>3081.7</v>
@@ -26084,7 +26106,7 @@
         <v>2878</v>
       </c>
       <c r="K504" t="n">
-        <v>-15.78947368421053</v>
+        <v>-20</v>
       </c>
       <c r="L504" t="n">
         <v>3081.3</v>
@@ -26135,7 +26157,7 @@
         <v>2880</v>
       </c>
       <c r="K505" t="n">
-        <v>-26.92307692307692</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L505" t="n">
         <v>3081.1</v>
@@ -26186,7 +26208,7 @@
         <v>2886</v>
       </c>
       <c r="K506" t="n">
-        <v>-15.78947368421053</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L506" t="n">
         <v>3081.4</v>
@@ -26237,7 +26259,7 @@
         <v>2892</v>
       </c>
       <c r="K507" t="n">
-        <v>-12.72727272727273</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L507" t="n">
         <v>3081.1</v>
@@ -26288,7 +26310,7 @@
         <v>2892</v>
       </c>
       <c r="K508" t="n">
-        <v>-24</v>
+        <v>-12</v>
       </c>
       <c r="L508" t="n">
         <v>3080.4</v>
@@ -26339,7 +26361,7 @@
         <v>2900</v>
       </c>
       <c r="K509" t="n">
-        <v>-29.62962962962963</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L509" t="n">
         <v>3079.3</v>
@@ -26390,7 +26412,7 @@
         <v>2900</v>
       </c>
       <c r="K510" t="n">
-        <v>-32.0754716981132</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L510" t="n">
         <v>3078.2</v>
@@ -26441,7 +26463,7 @@
         <v>2907</v>
       </c>
       <c r="K511" t="n">
-        <v>-44.82758620689656</v>
+        <v>-52.63157894736842</v>
       </c>
       <c r="L511" t="n">
         <v>3076.4</v>
@@ -26492,7 +26514,7 @@
         <v>2908</v>
       </c>
       <c r="K512" t="n">
-        <v>-37.25490196078432</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L512" t="n">
         <v>3074.3</v>
@@ -26543,7 +26565,7 @@
         <v>2913</v>
       </c>
       <c r="K513" t="n">
-        <v>-25</v>
+        <v>-25.71428571428571</v>
       </c>
       <c r="L513" t="n">
         <v>3072.6</v>
@@ -26594,7 +26616,7 @@
         <v>2917</v>
       </c>
       <c r="K514" t="n">
-        <v>-28.8135593220339</v>
+        <v>-40.54054054054054</v>
       </c>
       <c r="L514" t="n">
         <v>3071.3</v>
@@ -26645,7 +26667,7 @@
         <v>2922</v>
       </c>
       <c r="K515" t="n">
-        <v>-34.375</v>
+        <v>-72.22222222222221</v>
       </c>
       <c r="L515" t="n">
         <v>3069.3</v>
@@ -26696,7 +26718,7 @@
         <v>2922</v>
       </c>
       <c r="K516" t="n">
-        <v>-36.50793650793651</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L516" t="n">
         <v>3066.7</v>
@@ -26747,7 +26769,7 @@
         <v>2929</v>
       </c>
       <c r="K517" t="n">
-        <v>-42.85714285714285</v>
+        <v>-72.97297297297297</v>
       </c>
       <c r="L517" t="n">
         <v>3064</v>
@@ -26798,7 +26820,7 @@
         <v>2938</v>
       </c>
       <c r="K518" t="n">
-        <v>-33.33333333333333</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L518" t="n">
         <v>3062.2</v>
@@ -26849,7 +26871,7 @@
         <v>2944</v>
       </c>
       <c r="K519" t="n">
-        <v>-19.48051948051948</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L519" t="n">
         <v>3061.8</v>
@@ -26900,7 +26922,7 @@
         <v>2948</v>
       </c>
       <c r="K520" t="n">
-        <v>-23.45679012345679</v>
+        <v>-2.439024390243902</v>
       </c>
       <c r="L520" t="n">
         <v>3061</v>
@@ -26951,7 +26973,7 @@
         <v>2955</v>
       </c>
       <c r="K521" t="n">
-        <v>-13.63636363636363</v>
+        <v>14.8936170212766</v>
       </c>
       <c r="L521" t="n">
         <v>3061.6</v>
@@ -27002,7 +27024,7 @@
         <v>2959</v>
       </c>
       <c r="K522" t="n">
-        <v>-11.11111111111111</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L522" t="n">
         <v>3062.7</v>
@@ -27053,7 +27075,7 @@
         <v>2963</v>
       </c>
       <c r="K523" t="n">
-        <v>-16.12903225806452</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L523" t="n">
         <v>3062.9</v>
@@ -27104,7 +27126,7 @@
         <v>2970</v>
       </c>
       <c r="K524" t="n">
-        <v>-15.21739130434783</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L524" t="n">
         <v>3062.8</v>
@@ -27155,7 +27177,7 @@
         <v>2981</v>
       </c>
       <c r="K525" t="n">
-        <v>-4.95049504950495</v>
+        <v>25.42372881355932</v>
       </c>
       <c r="L525" t="n">
         <v>3064.3</v>
@@ -27206,7 +27228,7 @@
         <v>2991</v>
       </c>
       <c r="K526" t="n">
-        <v>-0.9523809523809524</v>
+        <v>51.61290322580645</v>
       </c>
       <c r="L526" t="n">
         <v>3066.8</v>
@@ -27257,7 +27279,7 @@
         <v>2992</v>
       </c>
       <c r="K527" t="n">
-        <v>6</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L527" t="n">
         <v>3070.1</v>
@@ -27308,7 +27330,7 @@
         <v>2996</v>
       </c>
       <c r="K528" t="n">
-        <v>9.615384615384617</v>
+        <v>42.30769230769231</v>
       </c>
       <c r="L528" t="n">
         <v>3072.9</v>
@@ -27359,7 +27381,7 @@
         <v>2998</v>
       </c>
       <c r="K529" t="n">
-        <v>20.40816326530612</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="L529" t="n">
         <v>3075.3</v>
@@ -27410,7 +27432,7 @@
         <v>3004</v>
       </c>
       <c r="K530" t="n">
-        <v>25</v>
+        <v>55.10204081632652</v>
       </c>
       <c r="L530" t="n">
         <v>3078.7</v>
@@ -27461,7 +27483,7 @@
         <v>3005</v>
       </c>
       <c r="K531" t="n">
-        <v>34.69387755102041</v>
+        <v>52.17391304347826</v>
       </c>
       <c r="L531" t="n">
         <v>3081.5</v>
@@ -27512,7 +27534,7 @@
         <v>3006</v>
       </c>
       <c r="K532" t="n">
-        <v>36.73469387755102</v>
+        <v>67.44186046511628</v>
       </c>
       <c r="L532" t="n">
         <v>3084</v>
@@ -27563,7 +27585,7 @@
         <v>3009</v>
       </c>
       <c r="K533" t="n">
-        <v>35.41666666666667</v>
+        <v>100</v>
       </c>
       <c r="L533" t="n">
         <v>3087.2</v>
@@ -27614,7 +27636,7 @@
         <v>3023</v>
       </c>
       <c r="K534" t="n">
-        <v>49.0566037735849</v>
+        <v>100</v>
       </c>
       <c r="L534" t="n">
         <v>3092.5</v>
@@ -27665,7 +27687,7 @@
         <v>3028</v>
       </c>
       <c r="K535" t="n">
-        <v>58.49056603773585</v>
+        <v>100</v>
       </c>
       <c r="L535" t="n">
         <v>3097.2</v>
@@ -27716,7 +27738,7 @@
         <v>3028</v>
       </c>
       <c r="K536" t="n">
-        <v>58.49056603773585</v>
+        <v>100</v>
       </c>
       <c r="L536" t="n">
         <v>3100.9</v>
@@ -27767,7 +27789,7 @@
         <v>3028</v>
       </c>
       <c r="K537" t="n">
-        <v>69.6969696969697</v>
+        <v>100</v>
       </c>
       <c r="L537" t="n">
         <v>3104.5</v>
@@ -27818,7 +27840,7 @@
         <v>3037</v>
       </c>
       <c r="K538" t="n">
-        <v>51.51515151515152</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L538" t="n">
         <v>3106.8</v>
@@ -27869,7 +27891,7 @@
         <v>3046</v>
       </c>
       <c r="K539" t="n">
-        <v>52.94117647058824</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L539" t="n">
         <v>3109.8</v>
@@ -27920,7 +27942,7 @@
         <v>3047</v>
       </c>
       <c r="K540" t="n">
-        <v>59.59595959595959</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L540" t="n">
         <v>3112.3</v>
@@ -27971,7 +27993,7 @@
         <v>3070</v>
       </c>
       <c r="K541" t="n">
-        <v>65.21739130434783</v>
+        <v>71.875</v>
       </c>
       <c r="L541" t="n">
         <v>3117</v>
@@ -28022,7 +28044,7 @@
         <v>3081</v>
       </c>
       <c r="K542" t="n">
-        <v>67.21311475409836</v>
+        <v>75</v>
       </c>
       <c r="L542" t="n">
         <v>3122.7</v>
@@ -28073,7 +28095,7 @@
         <v>3081</v>
       </c>
       <c r="K543" t="n">
-        <v>72.88135593220339</v>
+        <v>68.96551724137932</v>
       </c>
       <c r="L543" t="n">
         <v>3128.1</v>
@@ -28124,7 +28146,7 @@
         <v>3105</v>
       </c>
       <c r="K544" t="n">
-        <v>86.66666666666667</v>
+        <v>76.62337662337663</v>
       </c>
       <c r="L544" t="n">
         <v>3134.5</v>
@@ -28175,7 +28197,7 @@
         <v>3127</v>
       </c>
       <c r="K545" t="n">
-        <v>87.67123287671232</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L545" t="n">
         <v>3142.6</v>
@@ -28226,7 +28248,7 @@
         <v>3128</v>
       </c>
       <c r="K546" t="n">
-        <v>86.86131386861314</v>
+        <v>82</v>
       </c>
       <c r="L546" t="n">
         <v>3150.8</v>
@@ -28277,7 +28299,7 @@
         <v>3140</v>
       </c>
       <c r="K547" t="n">
-        <v>87.83783783783784</v>
+        <v>100</v>
       </c>
       <c r="L547" t="n">
         <v>3160.2</v>
@@ -28328,7 +28350,7 @@
         <v>3144</v>
       </c>
       <c r="K548" t="n">
-        <v>87.83783783783784</v>
+        <v>100</v>
       </c>
       <c r="L548" t="n">
         <v>3170.9</v>
@@ -28379,7 +28401,7 @@
         <v>3148</v>
       </c>
       <c r="K549" t="n">
-        <v>82.66666666666667</v>
+        <v>92.07920792079209</v>
       </c>
       <c r="L549" t="n">
         <v>3180.3</v>
@@ -28430,7 +28452,7 @@
         <v>3156</v>
       </c>
       <c r="K550" t="n">
-        <v>72.36842105263158</v>
+        <v>72.09302325581395</v>
       </c>
       <c r="L550" t="n">
         <v>3188.8</v>
@@ -28481,7 +28503,7 @@
         <v>3180</v>
       </c>
       <c r="K551" t="n">
-        <v>48.57142857142857</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L551" t="n">
         <v>3192.6</v>
@@ -28532,7 +28554,7 @@
         <v>3191</v>
       </c>
       <c r="K552" t="n">
-        <v>51.35135135135135</v>
+        <v>34.54545454545455</v>
       </c>
       <c r="L552" t="n">
         <v>3196.4</v>
@@ -28583,7 +28605,7 @@
         <v>3198</v>
       </c>
       <c r="K553" t="n">
-        <v>52.38095238095239</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="L553" t="n">
         <v>3200.9</v>
@@ -28634,7 +28656,7 @@
         <v>3199</v>
       </c>
       <c r="K554" t="n">
-        <v>47.72727272727273</v>
+        <v>-2.777777777777778</v>
       </c>
       <c r="L554" t="n">
         <v>3202.9</v>
@@ -28685,7 +28707,7 @@
         <v>3204</v>
       </c>
       <c r="K555" t="n">
-        <v>42.04545454545455</v>
+        <v>-10.52631578947368</v>
       </c>
       <c r="L555" t="n">
         <v>3202.2</v>
@@ -28736,7 +28758,7 @@
         <v>3205</v>
       </c>
       <c r="K556" t="n">
-        <v>41.24293785310734</v>
+        <v>-32.30769230769231</v>
       </c>
       <c r="L556" t="n">
         <v>3201.3</v>
@@ -28787,7 +28809,7 @@
         <v>3211</v>
       </c>
       <c r="K557" t="n">
-        <v>36.6120218579235</v>
+        <v>-46.26865671641791</v>
       </c>
       <c r="L557" t="n">
         <v>3198.6</v>
@@ -28838,7 +28860,7 @@
         <v>3234</v>
       </c>
       <c r="K558" t="n">
-        <v>50.25380710659898</v>
+        <v>-4.651162790697675</v>
       </c>
       <c r="L558" t="n">
         <v>3197.8</v>
@@ -28889,7 +28911,7 @@
         <v>3234</v>
       </c>
       <c r="K559" t="n">
-        <v>47.87234042553192</v>
+        <v>5.128205128205128</v>
       </c>
       <c r="L559" t="n">
         <v>3197.4</v>
@@ -28940,7 +28962,7 @@
         <v>3249</v>
       </c>
       <c r="K560" t="n">
-        <v>51.48514851485149</v>
+        <v>62.31884057971014</v>
       </c>
       <c r="L560" t="n">
         <v>3199.3</v>
@@ -28991,7 +29013,7 @@
         <v>3255</v>
       </c>
       <c r="K561" t="n">
-        <v>47.02702702702703</v>
+        <v>59.375</v>
       </c>
       <c r="L561" t="n">
         <v>3204.2</v>
@@ -29042,7 +29064,7 @@
         <v>3261</v>
       </c>
       <c r="K562" t="n">
-        <v>45.55555555555556</v>
+        <v>58.73015873015873</v>
       </c>
       <c r="L562" t="n">
         <v>3208.6</v>
@@ -29093,7 +29115,7 @@
         <v>3281</v>
       </c>
       <c r="K563" t="n">
-        <v>31</v>
+        <v>21.95121951219512</v>
       </c>
       <c r="L563" t="n">
         <v>3210.3</v>
@@ -29144,7 +29166,7 @@
         <v>3304</v>
       </c>
       <c r="K564" t="n">
-        <v>30.65326633165829</v>
+        <v>46</v>
       </c>
       <c r="L564" t="n">
         <v>3214.4</v>
@@ -29195,7 +29217,7 @@
         <v>3349</v>
       </c>
       <c r="K565" t="n">
-        <v>-2.702702702702703</v>
+        <v>1.388888888888889</v>
       </c>
       <c r="L565" t="n">
         <v>3214.5</v>
@@ -29246,7 +29268,7 @@
         <v>3349</v>
       </c>
       <c r="K566" t="n">
-        <v>-3.167420814479638</v>
+        <v>5.797101449275362</v>
       </c>
       <c r="L566" t="n">
         <v>3214.7</v>
@@ -29297,7 +29319,7 @@
         <v>3353</v>
       </c>
       <c r="K567" t="n">
-        <v>-10.7981220657277</v>
+        <v>-15.96638655462185</v>
       </c>
       <c r="L567" t="n">
         <v>3215.1</v>
@@ -29348,7 +29370,7 @@
         <v>3357</v>
       </c>
       <c r="K568" t="n">
-        <v>-14.55399061032864</v>
+        <v>-18.69918699186992</v>
       </c>
       <c r="L568" t="n">
         <v>3212.8</v>
@@ -29399,7 +29421,7 @@
         <v>3362</v>
       </c>
       <c r="K569" t="n">
-        <v>-14.95327102803738</v>
+        <v>-38.05309734513274</v>
       </c>
       <c r="L569" t="n">
         <v>3210</v>
@@ -29450,7 +29472,7 @@
         <v>3369</v>
       </c>
       <c r="K570" t="n">
-        <v>-7.981220657276995</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L570" t="n">
         <v>3206.4</v>
@@ -29501,7 +29523,7 @@
         <v>3374</v>
       </c>
       <c r="K571" t="n">
-        <v>6.185567010309279</v>
+        <v>-38.05309734513274</v>
       </c>
       <c r="L571" t="n">
         <v>3202.7</v>
@@ -29552,7 +29574,7 @@
         <v>3375</v>
       </c>
       <c r="K572" t="n">
-        <v>0</v>
+        <v>-25.53191489361702</v>
       </c>
       <c r="L572" t="n">
         <v>3198.3</v>
@@ -29603,7 +29625,7 @@
         <v>3375</v>
       </c>
       <c r="K573" t="n">
-        <v>-3.954802259887006</v>
+        <v>-66.19718309859155</v>
       </c>
       <c r="L573" t="n">
         <v>3195.9</v>
@@ -29654,7 +29676,7 @@
         <v>3386</v>
       </c>
       <c r="K574" t="n">
-        <v>-9.090909090909092</v>
+        <v>-35.13513513513514</v>
       </c>
       <c r="L574" t="n">
         <v>3190.1</v>
@@ -29705,7 +29727,7 @@
         <v>3398</v>
       </c>
       <c r="K575" t="n">
-        <v>-12.37113402061856</v>
+        <v>-51.02040816326531</v>
       </c>
       <c r="L575" t="n">
         <v>3187.6</v>
@@ -29756,7 +29778,7 @@
         <v>3403</v>
       </c>
       <c r="K576" t="n">
-        <v>-14.14141414141414</v>
+        <v>-52</v>
       </c>
       <c r="L576" t="n">
         <v>3184.6</v>
@@ -29807,7 +29829,7 @@
         <v>3404</v>
       </c>
       <c r="K577" t="n">
-        <v>-10.88082901554404</v>
+        <v>-44.68085106382978</v>
       </c>
       <c r="L577" t="n">
         <v>3182.1</v>
@@ -29858,7 +29880,7 @@
         <v>3409</v>
       </c>
       <c r="K578" t="n">
-        <v>-22.28571428571428</v>
+        <v>-23.40425531914894</v>
       </c>
       <c r="L578" t="n">
         <v>3180.5</v>
@@ -29909,7 +29931,7 @@
         <v>3418</v>
       </c>
       <c r="K579" t="n">
-        <v>-16.30434782608696</v>
+        <v>-18.36734693877551</v>
       </c>
       <c r="L579" t="n">
         <v>3180.3</v>
@@ -29960,7 +29982,7 @@
         <v>3418</v>
       </c>
       <c r="K580" t="n">
-        <v>-26.62721893491124</v>
+        <v>-31.81818181818182</v>
       </c>
       <c r="L580" t="n">
         <v>3179.4</v>
@@ -30011,7 +30033,7 @@
         <v>3421</v>
       </c>
       <c r="K581" t="n">
-        <v>-32.53012048192771</v>
+        <v>-34.78260869565217</v>
       </c>
       <c r="L581" t="n">
         <v>3177.7</v>
@@ -30062,7 +30084,7 @@
         <v>3423</v>
       </c>
       <c r="K582" t="n">
-        <v>-38.2716049382716</v>
+        <v>-37.5</v>
       </c>
       <c r="L582" t="n">
         <v>3175.9</v>
@@ -30113,7 +30135,7 @@
         <v>3430</v>
       </c>
       <c r="K583" t="n">
-        <v>-23.48993288590604</v>
+        <v>0</v>
       </c>
       <c r="L583" t="n">
         <v>3174.8</v>
@@ -30164,7 +30186,7 @@
         <v>3432</v>
       </c>
       <c r="K584" t="n">
-        <v>-43.75</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L584" t="n">
         <v>3175</v>
@@ -30215,7 +30237,7 @@
         <v>3435</v>
       </c>
       <c r="K585" t="n">
-        <v>-16.27906976744186</v>
+        <v>50</v>
       </c>
       <c r="L585" t="n">
         <v>3176.1</v>
@@ -30266,7 +30288,7 @@
         <v>3435</v>
       </c>
       <c r="K586" t="n">
-        <v>-16.27906976744186</v>
+        <v>48.38709677419355</v>
       </c>
       <c r="L586" t="n">
         <v>3177.7</v>
@@ -30317,7 +30339,7 @@
         <v>3464</v>
       </c>
       <c r="K587" t="n">
-        <v>17.11711711711712</v>
+        <v>70.90909090909091</v>
       </c>
       <c r="L587" t="n">
         <v>3182.1</v>
@@ -30368,7 +30390,7 @@
         <v>3474</v>
       </c>
       <c r="K588" t="n">
-        <v>11.11111111111111</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L588" t="n">
         <v>3185</v>
@@ -30419,7 +30441,7 @@
         <v>3474</v>
       </c>
       <c r="K589" t="n">
-        <v>16.07142857142857</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L589" t="n">
         <v>3187</v>
@@ -30470,7 +30492,7 @@
         <v>3477</v>
       </c>
       <c r="K590" t="n">
-        <v>7.407407407407407</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L590" t="n">
         <v>3188.7</v>
@@ -30521,7 +30543,7 @@
         <v>3479</v>
       </c>
       <c r="K591" t="n">
-        <v>4.761904761904762</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L591" t="n">
         <v>3190.9</v>
@@ -30572,7 +30594,7 @@
         <v>3479</v>
       </c>
       <c r="K592" t="n">
-        <v>5.769230769230769</v>
+        <v>34.69387755102041</v>
       </c>
       <c r="L592" t="n">
         <v>3193.3</v>
@@ -30623,7 +30645,7 @@
         <v>3492</v>
       </c>
       <c r="K593" t="n">
-        <v>16.23931623931624</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L593" t="n">
         <v>3196.3</v>
@@ -30674,7 +30696,7 @@
         <v>3504</v>
       </c>
       <c r="K594" t="n">
-        <v>15.25423728813559</v>
+        <v>27.53623188405797</v>
       </c>
       <c r="L594" t="n">
         <v>3197.9</v>
@@ -30725,7 +30747,7 @@
         <v>3508</v>
       </c>
       <c r="K595" t="n">
-        <v>23.63636363636364</v>
+        <v>20.54794520547945</v>
       </c>
       <c r="L595" t="n">
         <v>3199.4</v>
@@ -30776,7 +30798,7 @@
         <v>3525</v>
       </c>
       <c r="K596" t="n">
-        <v>11.47540983606557</v>
+        <v>-50.81967213114754</v>
       </c>
       <c r="L596" t="n">
         <v>3199.2</v>
@@ -30827,7 +30849,7 @@
         <v>3540</v>
       </c>
       <c r="K597" t="n">
-        <v>20.58823529411764</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L597" t="n">
         <v>3197.6</v>
@@ -30878,7 +30900,7 @@
         <v>3544</v>
       </c>
       <c r="K598" t="n">
-        <v>14.07407407407407</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L598" t="n">
         <v>3196.6</v>
@@ -30929,7 +30951,7 @@
         <v>3551</v>
       </c>
       <c r="K599" t="n">
-        <v>2.255639097744361</v>
+        <v>-18.91891891891892</v>
       </c>
       <c r="L599" t="n">
         <v>3194.9</v>
@@ -30980,7 +31002,7 @@
         <v>3553</v>
       </c>
       <c r="K600" t="n">
-        <v>0.7407407407407408</v>
+        <v>-24.32432432432433</v>
       </c>
       <c r="L600" t="n">
         <v>3193.3</v>
@@ -31031,7 +31053,7 @@
         <v>3564</v>
       </c>
       <c r="K601" t="n">
-        <v>10.48951048951049</v>
+        <v>-8.235294117647058</v>
       </c>
       <c r="L601" t="n">
         <v>3192.6</v>
@@ -31082,7 +31104,7 @@
         <v>3573</v>
       </c>
       <c r="K602" t="n">
-        <v>5.333333333333334</v>
+        <v>-35.80246913580247</v>
       </c>
       <c r="L602" t="n">
         <v>3191</v>
@@ -31133,7 +31155,7 @@
         <v>3581</v>
       </c>
       <c r="K603" t="n">
-        <v>5.960264900662252</v>
+        <v>-11.68831168831169</v>
       </c>
       <c r="L603" t="n">
         <v>3188.9</v>
@@ -31184,7 +31206,7 @@
         <v>3591</v>
       </c>
       <c r="K604" t="n">
-        <v>-1.886792452830189</v>
+        <v>-18.07228915662651</v>
       </c>
       <c r="L604" t="n">
         <v>3187</v>
@@ -31235,7 +31257,7 @@
         <v>3595</v>
       </c>
       <c r="K605" t="n">
-        <v>2.5</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L605" t="n">
         <v>3185.9</v>
@@ -31286,7 +31308,7 @@
         <v>3597</v>
       </c>
       <c r="K606" t="n">
-        <v>1.234567901234568</v>
+        <v>-19.29824561403509</v>
       </c>
       <c r="L606" t="n">
         <v>3186.3</v>
@@ -31337,7 +31359,7 @@
         <v>3606</v>
       </c>
       <c r="K607" t="n">
-        <v>-12.67605633802817</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L607" t="n">
         <v>3186.1</v>
@@ -31388,7 +31410,7 @@
         <v>3607</v>
       </c>
       <c r="K608" t="n">
-        <v>-6.766917293233083</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L608" t="n">
         <v>3186.2</v>
@@ -31439,7 +31461,7 @@
         <v>3616</v>
       </c>
       <c r="K609" t="n">
-        <v>-12.67605633802817</v>
+        <v>1.587301587301587</v>
       </c>
       <c r="L609" t="n">
         <v>3186.1</v>
@@ -31490,7 +31512,7 @@
         <v>3625</v>
       </c>
       <c r="K610" t="n">
-        <v>-4.054054054054054</v>
+        <v>-1.639344262295082</v>
       </c>
       <c r="L610" t="n">
         <v>3187.1</v>
@@ -31541,7 +31563,7 @@
         <v>3633</v>
       </c>
       <c r="K611" t="n">
-        <v>-10.38961038961039</v>
+        <v>0</v>
       </c>
       <c r="L611" t="n">
         <v>3186.2</v>
@@ -31592,7 +31614,7 @@
         <v>3635</v>
       </c>
       <c r="K612" t="n">
-        <v>-11.53846153846154</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L612" t="n">
         <v>3186</v>
@@ -31643,7 +31665,7 @@
         <v>3635</v>
       </c>
       <c r="K613" t="n">
-        <v>-21.67832167832168</v>
+        <v>0</v>
       </c>
       <c r="L613" t="n">
         <v>3185</v>
@@ -31694,7 +31716,7 @@
         <v>3643</v>
       </c>
       <c r="K614" t="n">
-        <v>-7.913669064748201</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L614" t="n">
         <v>3185.8</v>
@@ -31745,7 +31767,7 @@
         <v>3653</v>
       </c>
       <c r="K615" t="n">
-        <v>-11.72413793103448</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L615" t="n">
         <v>3185.2</v>
@@ -31796,7 +31818,7 @@
         <v>3655</v>
       </c>
       <c r="K616" t="n">
-        <v>-1.538461538461539</v>
+        <v>-30.61224489795918</v>
       </c>
       <c r="L616" t="n">
         <v>3184.6</v>
@@ -31847,7 +31869,7 @@
         <v>3660</v>
       </c>
       <c r="K617" t="n">
-        <v>-18.33333333333333</v>
+        <v>-35.84905660377358</v>
       </c>
       <c r="L617" t="n">
         <v>3182.6</v>
@@ -31898,7 +31920,7 @@
         <v>3664</v>
       </c>
       <c r="K618" t="n">
-        <v>-11.66666666666667</v>
+        <v>-12.5</v>
       </c>
       <c r="L618" t="n">
         <v>3181.1</v>
@@ -31949,7 +31971,7 @@
         <v>3672</v>
       </c>
       <c r="K619" t="n">
-        <v>-12.39669421487603</v>
+        <v>-48.93617021276596</v>
       </c>
       <c r="L619" t="n">
         <v>3179.7</v>
@@ -32000,7 +32022,7 @@
         <v>3673</v>
       </c>
       <c r="K620" t="n">
-        <v>-10</v>
+        <v>-35</v>
       </c>
       <c r="L620" t="n">
         <v>3177.5</v>
@@ -32051,7 +32073,7 @@
         <v>3674</v>
       </c>
       <c r="K621" t="n">
-        <v>-21.81818181818182</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L621" t="n">
         <v>3176</v>
@@ -32102,7 +32124,7 @@
         <v>3694</v>
       </c>
       <c r="K622" t="n">
-        <v>-28.92561983471074</v>
+        <v>-55.93220338983051</v>
       </c>
       <c r="L622" t="n">
         <v>3172.7</v>
@@ -32153,7 +32175,7 @@
         <v>3701</v>
       </c>
       <c r="K623" t="n">
-        <v>-41.66666666666667</v>
+        <v>-82.75862068965517</v>
       </c>
       <c r="L623" t="n">
         <v>3168.7</v>
@@ -32204,7 +32226,7 @@
         <v>3714</v>
       </c>
       <c r="K624" t="n">
-        <v>-21.95121951219512</v>
+        <v>-40.98360655737705</v>
       </c>
       <c r="L624" t="n">
         <v>3165.2</v>
@@ -32255,7 +32277,7 @@
         <v>3718</v>
       </c>
       <c r="K625" t="n">
-        <v>-21.95121951219512</v>
+        <v>-30.15873015873016</v>
       </c>
       <c r="L625" t="n">
         <v>3163.1</v>
@@ -32306,7 +32328,7 @@
         <v>3726</v>
       </c>
       <c r="K626" t="n">
-        <v>-25.58139534883721</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L626" t="n">
         <v>3160.4</v>
@@ -32357,7 +32379,7 @@
         <v>3734</v>
       </c>
       <c r="K627" t="n">
-        <v>-26.5625</v>
+        <v>-25.71428571428571</v>
       </c>
       <c r="L627" t="n">
         <v>3159</v>
@@ -32408,7 +32430,7 @@
         <v>3738</v>
       </c>
       <c r="K628" t="n">
-        <v>-22.13740458015267</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L628" t="n">
         <v>3157.6</v>
@@ -32459,7 +32481,7 @@
         <v>3738</v>
       </c>
       <c r="K629" t="n">
-        <v>-16.39344262295082</v>
+        <v>-10.76923076923077</v>
       </c>
       <c r="L629" t="n">
         <v>3157</v>
@@ -32510,7 +32532,7 @@
         <v>3745</v>
       </c>
       <c r="K630" t="n">
-        <v>-30</v>
+        <v>-18.30985915492958</v>
       </c>
       <c r="L630" t="n">
         <v>3155.6</v>
@@ -32561,7 +32583,7 @@
         <v>3747</v>
       </c>
       <c r="K631" t="n">
-        <v>-22.80701754385965</v>
+        <v>16.9811320754717</v>
       </c>
       <c r="L631" t="n">
         <v>3154.5</v>
@@ -32612,7 +32634,7 @@
         <v>3752</v>
       </c>
       <c r="K632" t="n">
-        <v>-16.23931623931624</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L632" t="n">
         <v>3155.9</v>
@@ -32663,7 +32685,7 @@
         <v>3758</v>
       </c>
       <c r="K633" t="n">
-        <v>-20.32520325203252</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="L633" t="n">
         <v>3157.4</v>
@@ -32714,7 +32736,7 @@
         <v>3758</v>
       </c>
       <c r="K634" t="n">
-        <v>-28.69565217391304</v>
+        <v>-5</v>
       </c>
       <c r="L634" t="n">
         <v>3157.6</v>
@@ -32765,7 +32787,7 @@
         <v>3759</v>
       </c>
       <c r="K635" t="n">
-        <v>-22.64150943396227</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L635" t="n">
         <v>3157.3</v>
@@ -32816,7 +32838,7 @@
         <v>3772</v>
       </c>
       <c r="K636" t="n">
-        <v>-7.692307692307693</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L636" t="n">
         <v>3159.1</v>
@@ -32867,7 +32889,7 @@
         <v>3780</v>
       </c>
       <c r="K637" t="n">
-        <v>3.333333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L637" t="n">
         <v>3160.9</v>
@@ -32918,7 +32940,7 @@
         <v>3790</v>
       </c>
       <c r="K638" t="n">
-        <v>7.936507936507936</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="L638" t="n">
         <v>3163.3</v>
@@ -32969,7 +32991,7 @@
         <v>3790</v>
       </c>
       <c r="K639" t="n">
-        <v>15.25423728813559</v>
+        <v>68.88888888888889</v>
       </c>
       <c r="L639" t="n">
         <v>3165.7</v>
@@ -33020,7 +33042,7 @@
         <v>3790</v>
       </c>
       <c r="K640" t="n">
-        <v>14.52991452991453</v>
+        <v>67.44186046511628</v>
       </c>
       <c r="L640" t="n">
         <v>3168.8</v>
@@ -33071,7 +33093,7 @@
         <v>3790</v>
       </c>
       <c r="K641" t="n">
-        <v>15.51724137931035</v>
+        <v>63.1578947368421</v>
       </c>
       <c r="L641" t="n">
         <v>3171.7</v>
@@ -33122,7 +33144,7 @@
         <v>3795</v>
       </c>
       <c r="K642" t="n">
-        <v>42.57425742574257</v>
+        <v>94.5945945945946</v>
       </c>
       <c r="L642" t="n">
         <v>3174.6</v>
@@ -33173,7 +33195,7 @@
         <v>3804</v>
       </c>
       <c r="K643" t="n">
-        <v>57.28155339805825</v>
+        <v>95.65217391304348</v>
       </c>
       <c r="L643" t="n">
         <v>3179</v>
@@ -33224,7 +33246,7 @@
         <v>3804</v>
       </c>
       <c r="K644" t="n">
-        <v>51.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L644" t="n">
         <v>3183.4</v>
@@ -33275,7 +33297,7 @@
         <v>3807</v>
       </c>
       <c r="K645" t="n">
-        <v>50.56179775280899</v>
+        <v>100</v>
       </c>
       <c r="L645" t="n">
         <v>3188.2</v>
@@ -33326,7 +33348,7 @@
         <v>3812</v>
       </c>
       <c r="K646" t="n">
-        <v>55.81395348837209</v>
+        <v>68.75</v>
       </c>
       <c r="L646" t="n">
         <v>3191.2</v>
@@ -33377,7 +33399,7 @@
         <v>3818</v>
       </c>
       <c r="K647" t="n">
-        <v>54.76190476190477</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="L647" t="n">
         <v>3194</v>
@@ -33428,7 +33450,7 @@
         <v>3818</v>
       </c>
       <c r="K648" t="n">
-        <v>52.5</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="L648" t="n">
         <v>3195.8</v>
@@ -33479,7 +33501,7 @@
         <v>3826</v>
       </c>
       <c r="K649" t="n">
-        <v>56.81818181818182</v>
+        <v>72.22222222222221</v>
       </c>
       <c r="L649" t="n">
         <v>3198.4</v>
@@ -33530,7 +33552,7 @@
         <v>3828</v>
       </c>
       <c r="K650" t="n">
-        <v>71.08433734939759</v>
+        <v>73.68421052631578</v>
       </c>
       <c r="L650" t="n">
         <v>3201.2</v>
@@ -33581,7 +33603,7 @@
         <v>3836</v>
       </c>
       <c r="K651" t="n">
-        <v>55.0561797752809</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="L651" t="n">
         <v>3203.2</v>
@@ -33632,7 +33654,7 @@
         <v>3836</v>
       </c>
       <c r="K652" t="n">
-        <v>52.38095238095239</v>
+        <v>18.75</v>
       </c>
       <c r="L652" t="n">
         <v>3204.7</v>
@@ -33683,7 +33705,7 @@
         <v>3845</v>
       </c>
       <c r="K653" t="n">
-        <v>67.81609195402298</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="L653" t="n">
         <v>3206.2</v>
@@ -33734,7 +33756,7 @@
         <v>3853</v>
       </c>
       <c r="K654" t="n">
-        <v>53.68421052631579</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="L654" t="n">
         <v>3206.9</v>
@@ -33785,7 +33807,7 @@
         <v>3859</v>
       </c>
       <c r="K655" t="n">
-        <v>46</v>
+        <v>6.382978723404255</v>
       </c>
       <c r="L655" t="n">
         <v>3206.7</v>
@@ -33836,7 +33858,7 @@
         <v>3883</v>
       </c>
       <c r="K656" t="n">
-        <v>51.35135135135135</v>
+        <v>32.30769230769231</v>
       </c>
       <c r="L656" t="n">
         <v>3209.4</v>
@@ -33887,7 +33909,7 @@
         <v>3885</v>
       </c>
       <c r="K657" t="n">
-        <v>48.57142857142857</v>
+        <v>34.32835820895522</v>
       </c>
       <c r="L657" t="n">
         <v>3211.7</v>
@@ -33938,7 +33960,7 @@
         <v>3889</v>
       </c>
       <c r="K658" t="n">
-        <v>37.37373737373738</v>
+        <v>17.46031746031746</v>
       </c>
       <c r="L658" t="n">
         <v>3213.6</v>
@@ -33989,7 +34011,7 @@
         <v>3893</v>
       </c>
       <c r="K659" t="n">
-        <v>32.03883495145632</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L659" t="n">
         <v>3214.3</v>
@@ -34040,7 +34062,7 @@
         <v>3904</v>
       </c>
       <c r="K660" t="n">
-        <v>19.29824561403509</v>
+        <v>2.941176470588235</v>
       </c>
       <c r="L660" t="n">
         <v>3213.7</v>
@@ -34091,7 +34113,7 @@
         <v>3908</v>
       </c>
       <c r="K661" t="n">
-        <v>22.03389830508474</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L661" t="n">
         <v>3214.3</v>
@@ -34142,7 +34164,7 @@
         <v>3910</v>
       </c>
       <c r="K662" t="n">
-        <v>16.52173913043478</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L662" t="n">
         <v>3214.7</v>
@@ -34193,7 +34215,7 @@
         <v>3910</v>
       </c>
       <c r="K663" t="n">
-        <v>9.433962264150944</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L663" t="n">
         <v>3214.2</v>
@@ -34244,7 +34266,7 @@
         <v>3931</v>
       </c>
       <c r="K664" t="n">
-        <v>-8.661417322834646</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L664" t="n">
         <v>3212.4</v>
@@ -34295,7 +34317,7 @@
         <v>3937</v>
       </c>
       <c r="K665" t="n">
-        <v>-6.153846153846154</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L665" t="n">
         <v>3211.8</v>
@@ -34346,7 +34368,7 @@
         <v>3957</v>
       </c>
       <c r="K666" t="n">
-        <v>-15.86206896551724</v>
+        <v>-72.22222222222221</v>
       </c>
       <c r="L666" t="n">
         <v>3206.8</v>
@@ -34397,7 +34419,7 @@
         <v>3968</v>
       </c>
       <c r="K667" t="n">
-        <v>-26.66666666666667</v>
+        <v>-74.68354430379746</v>
       </c>
       <c r="L667" t="n">
         <v>3200.5</v>
@@ -34448,7 +34470,7 @@
         <v>3981</v>
       </c>
       <c r="K668" t="n">
-        <v>-16.56441717791411</v>
+        <v>-47.72727272727273</v>
       </c>
       <c r="L668" t="n">
         <v>3195.9</v>
@@ -34499,7 +34521,7 @@
         <v>3982</v>
       </c>
       <c r="K669" t="n">
-        <v>-21.7948717948718</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L669" t="n">
         <v>3191.8</v>
@@ -34550,7 +34572,7 @@
         <v>3996</v>
       </c>
       <c r="K670" t="n">
-        <v>-13.0952380952381</v>
+        <v>-22.72727272727273</v>
       </c>
       <c r="L670" t="n">
         <v>3190.2</v>
@@ -34601,7 +34623,7 @@
         <v>3999</v>
       </c>
       <c r="K671" t="n">
-        <v>-10.42944785276074</v>
+        <v>-23.59550561797753</v>
       </c>
       <c r="L671" t="n">
         <v>3187.9</v>
@@ -34652,7 +34674,7 @@
         <v>4006</v>
       </c>
       <c r="K672" t="n">
-        <v>-14.11764705882353</v>
+        <v>-29.16666666666667</v>
       </c>
       <c r="L672" t="n">
         <v>3185.1</v>
@@ -34703,7 +34725,7 @@
         <v>4016</v>
       </c>
       <c r="K673" t="n">
-        <v>-13.45029239766082</v>
+        <v>3.529411764705882</v>
       </c>
       <c r="L673" t="n">
         <v>3183.3</v>
@@ -34754,7 +34776,7 @@
         <v>4019</v>
       </c>
       <c r="K674" t="n">
-        <v>-10.8433734939759</v>
+        <v>-7.317073170731707</v>
       </c>
       <c r="L674" t="n">
         <v>3183.3</v>
@@ -34805,7 +34827,7 @@
         <v>4020</v>
       </c>
       <c r="K675" t="n">
-        <v>-6.832298136645963</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L675" t="n">
         <v>3182.8</v>
@@ -34856,7 +34878,7 @@
         <v>4021</v>
       </c>
       <c r="K676" t="n">
-        <v>-26.08695652173913</v>
+        <v>47.16981132075472</v>
       </c>
       <c r="L676" t="n">
         <v>3184.2</v>
@@ -34907,7 +34929,7 @@
         <v>4027</v>
       </c>
       <c r="K677" t="n">
-        <v>-22.53521126760564</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L677" t="n">
         <v>3187.3</v>
@@ -34958,7 +34980,7 @@
         <v>4033</v>
       </c>
       <c r="K678" t="n">
-        <v>-15.27777777777778</v>
+        <v>45.09803921568628</v>
       </c>
       <c r="L678" t="n">
         <v>3189.7</v>
@@ -35009,7 +35031,7 @@
         <v>4038</v>
       </c>
       <c r="K679" t="n">
-        <v>-15.86206896551724</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L679" t="n">
         <v>3191.5</v>
@@ -35060,7 +35082,7 @@
         <v>4038</v>
       </c>
       <c r="K680" t="n">
-        <v>-8.955223880597014</v>
+        <v>17.94871794871795</v>
       </c>
       <c r="L680" t="n">
         <v>3191.9</v>
@@ -35111,7 +35133,7 @@
         <v>4062</v>
       </c>
       <c r="K681" t="n">
-        <v>5.194805194805195</v>
+        <v>67.85714285714286</v>
       </c>
       <c r="L681" t="n">
         <v>3195</v>
@@ -35162,7 +35184,7 @@
         <v>4073</v>
       </c>
       <c r="K682" t="n">
-        <v>-0.6134969325153374</v>
+        <v>29.82456140350877</v>
       </c>
       <c r="L682" t="n">
         <v>3197.7</v>
@@ -35213,7 +35235,7 @@
         <v>4084</v>
       </c>
       <c r="K683" t="n">
-        <v>5.747126436781609</v>
+        <v>47.69230769230769</v>
       </c>
       <c r="L683" t="n">
         <v>3200.5</v>
@@ -35264,7 +35286,7 @@
         <v>4086</v>
       </c>
       <c r="K684" t="n">
-        <v>18.70967741935484</v>
+        <v>42.42424242424242</v>
       </c>
       <c r="L684" t="n">
         <v>3203.4</v>
@@ -35315,7 +35337,7 @@
         <v>4097</v>
       </c>
       <c r="K685" t="n">
-        <v>7.5</v>
+        <v>23.68421052631579</v>
       </c>
       <c r="L685" t="n">
         <v>3205.1</v>
@@ -35366,7 +35388,7 @@
         <v>4099</v>
       </c>
       <c r="K686" t="n">
-        <v>21.12676056338028</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="L686" t="n">
         <v>3206.7</v>
@@ -35417,7 +35439,7 @@
         <v>4100</v>
       </c>
       <c r="K687" t="n">
-        <v>30.3030303030303</v>
+        <v>4.477611940298507</v>
       </c>
       <c r="L687" t="n">
         <v>3207.6</v>
@@ -35468,7 +35490,7 @@
         <v>4111</v>
       </c>
       <c r="K688" t="n">
-        <v>12.30769230769231</v>
+        <v>-4.10958904109589</v>
       </c>
       <c r="L688" t="n">
         <v>3206.8</v>
@@ -35519,7 +35541,7 @@
         <v>4117</v>
       </c>
       <c r="K689" t="n">
-        <v>15.55555555555556</v>
+        <v>3.79746835443038</v>
       </c>
       <c r="L689" t="n">
         <v>3207.1</v>
@@ -35570,7 +35592,7 @@
         <v>4117</v>
       </c>
       <c r="K690" t="n">
-        <v>5.785123966942149</v>
+        <v>-38.18181818181819</v>
       </c>
       <c r="L690" t="n">
         <v>3207.4</v>
@@ -35621,7 +35643,7 @@
         <v>4117</v>
       </c>
       <c r="K691" t="n">
-        <v>8.474576271186439</v>
+        <v>-22.72727272727273</v>
       </c>
       <c r="L691" t="n">
         <v>3205.3</v>
@@ -35672,7 +35694,7 @@
         <v>4119</v>
       </c>
       <c r="K692" t="n">
-        <v>16.8141592920354</v>
+        <v>-54.28571428571428</v>
       </c>
       <c r="L692" t="n">
         <v>3204.5</v>
@@ -35723,7 +35745,7 @@
         <v>4128</v>
       </c>
       <c r="K693" t="n">
-        <v>16.07142857142857</v>
+        <v>-19.04761904761905</v>
       </c>
       <c r="L693" t="n">
         <v>3203.5</v>
@@ -35774,7 +35796,7 @@
         <v>4128</v>
       </c>
       <c r="K694" t="n">
-        <v>19.26605504587156</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L694" t="n">
         <v>3202.7</v>
@@ -35825,7 +35847,7 @@
         <v>4128</v>
       </c>
       <c r="K695" t="n">
-        <v>18.51851851851852</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L695" t="n">
         <v>3203</v>
@@ -35876,7 +35898,7 @@
         <v>4137</v>
       </c>
       <c r="K696" t="n">
-        <v>10.3448275862069</v>
+        <v>-8.108108108108109</v>
       </c>
       <c r="L696" t="n">
         <v>3202.6</v>
@@ -35927,7 +35949,7 @@
         <v>4139</v>
       </c>
       <c r="K697" t="n">
-        <v>3.571428571428571</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L697" t="n">
         <v>3202.1</v>
@@ -35978,7 +36000,7 @@
         <v>4141</v>
       </c>
       <c r="K698" t="n">
-        <v>0</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L698" t="n">
         <v>3202.9</v>
@@ -36029,7 +36051,7 @@
         <v>4146</v>
       </c>
       <c r="K699" t="n">
-        <v>9.25925925925926</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L699" t="n">
         <v>3203.6</v>
@@ -36080,7 +36102,7 @@
         <v>4148</v>
       </c>
       <c r="K700" t="n">
-        <v>7.272727272727272</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L700" t="n">
         <v>3204.1</v>
@@ -36131,7 +36153,7 @@
         <v>4151</v>
       </c>
       <c r="K701" t="n">
-        <v>-21.34831460674157</v>
+        <v>0</v>
       </c>
       <c r="L701" t="n">
         <v>3204.3</v>
@@ -36182,7 +36204,7 @@
         <v>4157</v>
       </c>
       <c r="K702" t="n">
-        <v>-16.66666666666666</v>
+        <v>-51.72413793103448</v>
       </c>
       <c r="L702" t="n">
         <v>3203.7</v>
@@ -36233,7 +36255,7 @@
         <v>4157</v>
       </c>
       <c r="K703" t="n">
-        <v>-34.24657534246575</v>
+        <v>-51.72413793103448</v>
       </c>
       <c r="L703" t="n">
         <v>3202.2</v>
@@ -36284,7 +36306,7 @@
         <v>4162</v>
       </c>
       <c r="K704" t="n">
-        <v>-23.68421052631579</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L704" t="n">
         <v>3201.2</v>
@@ -36335,7 +36357,7 @@
         <v>4163</v>
       </c>
       <c r="K705" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L705" t="n">
         <v>3200.3</v>
@@ -36386,7 +36408,7 @@
         <v>4163</v>
       </c>
       <c r="K706" t="n">
-        <v>-6.25</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L706" t="n">
         <v>3200.3</v>
@@ -36437,7 +36459,7 @@
         <v>4173</v>
       </c>
       <c r="K707" t="n">
-        <v>-17.80821917808219</v>
+        <v>-31.25</v>
       </c>
       <c r="L707" t="n">
         <v>3199.5</v>
@@ -36488,7 +36510,7 @@
         <v>4176</v>
       </c>
       <c r="K708" t="n">
-        <v>-7.692307692307693</v>
+        <v>-60</v>
       </c>
       <c r="L708" t="n">
         <v>3198.2</v>
@@ -36539,7 +36561,7 @@
         <v>4176</v>
       </c>
       <c r="K709" t="n">
-        <v>-18.64406779661017</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L709" t="n">
         <v>3196.4</v>
@@ -36590,7 +36612,7 @@
         <v>4176</v>
       </c>
       <c r="K710" t="n">
-        <v>-18.64406779661017</v>
+        <v>-52</v>
       </c>
       <c r="L710" t="n">
         <v>3194.8</v>
@@ -36641,7 +36663,7 @@
         <v>4176</v>
       </c>
       <c r="K711" t="n">
-        <v>-18.64406779661017</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L711" t="n">
         <v>3193.5</v>
@@ -36692,7 +36714,7 @@
         <v>4188</v>
       </c>
       <c r="K712" t="n">
-        <v>-1.449275362318841</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L712" t="n">
         <v>3194</v>
@@ -36743,7 +36765,7 @@
         <v>4194</v>
       </c>
       <c r="K713" t="n">
-        <v>-24.24242424242424</v>
+        <v>-18.75</v>
       </c>
       <c r="L713" t="n">
         <v>3193.9</v>
@@ -36794,7 +36816,7 @@
         <v>4194</v>
       </c>
       <c r="K714" t="n">
-        <v>-24.24242424242424</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L714" t="n">
         <v>3193.3</v>
@@ -36845,7 +36867,7 @@
         <v>4200</v>
       </c>
       <c r="K715" t="n">
-        <v>-30.55555555555556</v>
+        <v>-35.13513513513514</v>
       </c>
       <c r="L715" t="n">
         <v>3192</v>
@@ -36896,7 +36918,7 @@
         <v>4207</v>
       </c>
       <c r="K716" t="n">
-        <v>-8.571428571428571</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L716" t="n">
         <v>3191.4</v>
@@ -36947,7 +36969,7 @@
         <v>4211</v>
       </c>
       <c r="K717" t="n">
-        <v>0</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L717" t="n">
         <v>3192.2</v>
@@ -36998,7 +37020,7 @@
         <v>4214</v>
       </c>
       <c r="K718" t="n">
-        <v>1.36986301369863</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L718" t="n">
         <v>3193.6</v>
@@ -37049,7 +37071,7 @@
         <v>4214</v>
       </c>
       <c r="K719" t="n">
-        <v>-5.88235294117647</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L719" t="n">
         <v>3195</v>
@@ -37100,7 +37122,7 @@
         <v>4224</v>
       </c>
       <c r="K720" t="n">
-        <v>10.52631578947368</v>
+        <v>50</v>
       </c>
       <c r="L720" t="n">
         <v>3197.4</v>
@@ -37151,7 +37173,7 @@
         <v>4227</v>
       </c>
       <c r="K721" t="n">
-        <v>10.52631578947368</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L721" t="n">
         <v>3199.5</v>
@@ -37202,7 +37224,7 @@
         <v>4228</v>
       </c>
       <c r="K722" t="n">
-        <v>21.12676056338028</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="L722" t="n">
         <v>3200.5</v>
@@ -37253,7 +37275,7 @@
         <v>4229</v>
       </c>
       <c r="K723" t="n">
-        <v>22.22222222222222</v>
+        <v>48.57142857142857</v>
       </c>
       <c r="L723" t="n">
         <v>3202.2</v>
@@ -37304,7 +37326,7 @@
         <v>4230</v>
       </c>
       <c r="K724" t="n">
-        <v>17.64705882352941</v>
+        <v>80</v>
       </c>
       <c r="L724" t="n">
         <v>3204</v>
@@ -37355,7 +37377,7 @@
         <v>4233</v>
       </c>
       <c r="K725" t="n">
-        <v>20</v>
+        <v>76.92307692307693</v>
       </c>
       <c r="L725" t="n">
         <v>3206.7</v>
@@ -37406,7 +37428,7 @@
         <v>4236</v>
       </c>
       <c r="K726" t="n">
-        <v>23.28767123287671</v>
+        <v>76</v>
       </c>
       <c r="L726" t="n">
         <v>3209</v>
@@ -37457,7 +37479,7 @@
         <v>4249</v>
       </c>
       <c r="K727" t="n">
-        <v>18.42105263157895</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L727" t="n">
         <v>3209.6</v>
@@ -37508,7 +37530,7 @@
         <v>4250</v>
       </c>
       <c r="K728" t="n">
-        <v>21.62162162162162</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L728" t="n">
         <v>3209.8</v>
@@ -37559,7 +37581,7 @@
         <v>4251</v>
       </c>
       <c r="K729" t="n">
-        <v>20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L729" t="n">
         <v>3209.9</v>
@@ -37610,7 +37632,7 @@
         <v>4258</v>
       </c>
       <c r="K730" t="n">
-        <v>26.82926829268293</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L730" t="n">
         <v>3209.7</v>
@@ -37661,7 +37683,7 @@
         <v>4262</v>
       </c>
       <c r="K731" t="n">
-        <v>30.23255813953488</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L731" t="n">
         <v>3210.2</v>
@@ -37712,7 +37734,7 @@
         <v>4267</v>
       </c>
       <c r="K732" t="n">
-        <v>24.05063291139241</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="L732" t="n">
         <v>3211.1</v>
@@ -37763,7 +37785,7 @@
         <v>4268</v>
       </c>
       <c r="K733" t="n">
-        <v>35.13513513513514</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="L733" t="n">
         <v>3212</v>
@@ -37814,7 +37836,7 @@
         <v>4284</v>
       </c>
       <c r="K734" t="n">
-        <v>46.66666666666666</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L734" t="n">
         <v>3214.4</v>
@@ -37865,7 +37887,7 @@
         <v>4295</v>
       </c>
       <c r="K735" t="n">
-        <v>62.10526315789474</v>
+        <v>49.15254237288136</v>
       </c>
       <c r="L735" t="n">
         <v>3217.6</v>
@@ -37916,7 +37938,7 @@
         <v>4308</v>
       </c>
       <c r="K736" t="n">
-        <v>38.61386138613862</v>
+        <v>49.15254237288136</v>
       </c>
       <c r="L736" t="n">
         <v>3219.2</v>
@@ -37967,7 +37989,7 @@
         <v>4309</v>
       </c>
       <c r="K737" t="n">
-        <v>34.69387755102041</v>
+        <v>49.15254237288136</v>
       </c>
       <c r="L737" t="n">
         <v>3222</v>
@@ -38018,7 +38040,7 @@
         <v>4319</v>
       </c>
       <c r="K738" t="n">
-        <v>39.04761904761905</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="L738" t="n">
         <v>3225.9</v>
@@ -38069,7 +38091,7 @@
         <v>4329</v>
       </c>
       <c r="K739" t="n">
-        <v>26.95652173913043</v>
+        <v>32.3943661971831</v>
       </c>
       <c r="L739" t="n">
         <v>3228.9</v>
@@ -38120,7 +38142,7 @@
         <v>4332</v>
       </c>
       <c r="K740" t="n">
-        <v>22.22222222222222</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L740" t="n">
         <v>3231.5</v>
@@ -38171,7 +38193,7 @@
         <v>4364</v>
       </c>
       <c r="K741" t="n">
-        <v>43.06569343065693</v>
+        <v>50.51546391752577</v>
       </c>
       <c r="L741" t="n">
         <v>3236.9</v>
@@ -38222,7 +38244,7 @@
         <v>4364</v>
       </c>
       <c r="K742" t="n">
-        <v>42.64705882352941</v>
+        <v>50</v>
       </c>
       <c r="L742" t="n">
         <v>3241.8</v>
@@ -38273,7 +38295,7 @@
         <v>4371</v>
       </c>
       <c r="K743" t="n">
-        <v>45.07042253521127</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="L743" t="n">
         <v>3247.3</v>
@@ -38324,7 +38346,7 @@
         <v>4383</v>
       </c>
       <c r="K744" t="n">
-        <v>49.01960784313725</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L744" t="n">
         <v>3252.4</v>
@@ -38375,7 +38397,7 @@
         <v>4384</v>
       </c>
       <c r="K745" t="n">
-        <v>48.34437086092716</v>
+        <v>71.05263157894737</v>
       </c>
       <c r="L745" t="n">
         <v>3256.5</v>
@@ -38426,7 +38448,7 @@
         <v>4395</v>
       </c>
       <c r="K746" t="n">
-        <v>37.10691823899371</v>
+        <v>51.16279069767442</v>
       </c>
       <c r="L746" t="n">
         <v>3260.8</v>
@@ -38477,7 +38499,7 @@
         <v>4396</v>
       </c>
       <c r="K747" t="n">
-        <v>48.29931972789115</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L747" t="n">
         <v>3265.1</v>
@@ -38528,7 +38550,7 @@
         <v>4396</v>
       </c>
       <c r="K748" t="n">
-        <v>49.31506849315068</v>
+        <v>64.17910447761194</v>
       </c>
       <c r="L748" t="n">
         <v>3268.4</v>
@@ -38579,7 +38601,7 @@
         <v>4398</v>
       </c>
       <c r="K749" t="n">
-        <v>51.02040816326531</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L749" t="n">
         <v>3272.9</v>
@@ -38630,7 +38652,7 @@
         <v>4398</v>
       </c>
       <c r="K750" t="n">
-        <v>48.57142857142857</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L750" t="n">
         <v>3277.1</v>
@@ -38681,7 +38703,7 @@
         <v>4407</v>
       </c>
       <c r="K751" t="n">
-        <v>50.3448275862069</v>
+        <v>44.18604651162791</v>
       </c>
       <c r="L751" t="n">
         <v>3279</v>
@@ -38732,7 +38754,7 @@
         <v>4408</v>
       </c>
       <c r="K752" t="n">
-        <v>48.93617021276596</v>
+        <v>35.13513513513514</v>
       </c>
       <c r="L752" t="n">
         <v>3281</v>
@@ -38783,7 +38805,7 @@
         <v>4415</v>
       </c>
       <c r="K753" t="n">
-        <v>51.02040816326531</v>
+        <v>25</v>
       </c>
       <c r="L753" t="n">
         <v>3283</v>
@@ -38834,7 +38856,7 @@
         <v>4425</v>
       </c>
       <c r="K754" t="n">
-        <v>48.93617021276596</v>
+        <v>41.46341463414634</v>
       </c>
       <c r="L754" t="n">
         <v>3284.8</v>
@@ -38885,7 +38907,7 @@
         <v>4430</v>
       </c>
       <c r="K755" t="n">
-        <v>46.66666666666666</v>
+        <v>94.28571428571428</v>
       </c>
       <c r="L755" t="n">
         <v>3287</v>
@@ -38936,7 +38958,7 @@
         <v>4438</v>
       </c>
       <c r="K756" t="n">
-        <v>52.30769230769231</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="L756" t="n">
         <v>3289.5</v>
@@ -38987,7 +39009,7 @@
         <v>4440</v>
       </c>
       <c r="K757" t="n">
-        <v>51.14503816793893</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L757" t="n">
         <v>3291.9</v>
@@ -39038,7 +39060,7 @@
         <v>4442</v>
       </c>
       <c r="K758" t="n">
-        <v>44.71544715447154</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L758" t="n">
         <v>3294.1</v>
@@ -39089,7 +39111,7 @@
         <v>4445</v>
       </c>
       <c r="K759" t="n">
-        <v>58.62068965517241</v>
+        <v>48.93617021276596</v>
       </c>
       <c r="L759" t="n">
         <v>3296.4</v>
@@ -39140,7 +39162,7 @@
         <v>4456</v>
       </c>
       <c r="K760" t="n">
-        <v>61.29032258064516</v>
+        <v>51.02040816326531</v>
       </c>
       <c r="L760" t="n">
         <v>3299.8</v>
@@ -39191,7 +39213,7 @@
         <v>4456</v>
       </c>
       <c r="K761" t="n">
-        <v>47.82608695652174</v>
+        <v>50</v>
       </c>
       <c r="L761" t="n">
         <v>3302.3</v>
@@ -39242,7 +39264,7 @@
         <v>4466</v>
       </c>
       <c r="K762" t="n">
-        <v>33.33333333333333</v>
+        <v>13.72549019607843</v>
       </c>
       <c r="L762" t="n">
         <v>3303.7</v>
@@ -39293,7 +39315,7 @@
         <v>4476</v>
       </c>
       <c r="K763" t="n">
-        <v>16.19047619047619</v>
+        <v>-25.49019607843137</v>
       </c>
       <c r="L763" t="n">
         <v>3303.4</v>
@@ -39344,7 +39366,7 @@
         <v>4484</v>
       </c>
       <c r="K764" t="n">
-        <v>12.87128712871287</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L764" t="n">
         <v>3302.9</v>
@@ -39395,7 +39417,7 @@
         <v>4486</v>
       </c>
       <c r="K765" t="n">
-        <v>13.72549019607843</v>
+        <v>0</v>
       </c>
       <c r="L765" t="n">
         <v>3302.1</v>
@@ -39446,7 +39468,7 @@
         <v>4488</v>
       </c>
       <c r="K766" t="n">
-        <v>24.73118279569892</v>
+        <v>0</v>
       </c>
       <c r="L766" t="n">
         <v>3301.9</v>
@@ -39497,7 +39519,7 @@
         <v>4488</v>
       </c>
       <c r="K767" t="n">
-        <v>26.08695652173913</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L767" t="n">
         <v>3301.9</v>
@@ -39548,7 +39570,7 @@
         <v>4498</v>
       </c>
       <c r="K768" t="n">
-        <v>13.72549019607843</v>
+        <v>-20.75471698113208</v>
       </c>
       <c r="L768" t="n">
         <v>3301.1</v>
@@ -39599,7 +39621,7 @@
         <v>4516</v>
       </c>
       <c r="K769" t="n">
-        <v>-5.084745762711865</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L769" t="n">
         <v>3298.2</v>
@@ -39650,7 +39672,7 @@
         <v>4527</v>
       </c>
       <c r="K770" t="n">
-        <v>3.875968992248062</v>
+        <v>-40.84507042253522</v>
       </c>
       <c r="L770" t="n">
         <v>3295.3</v>
@@ -39701,7 +39723,7 @@
         <v>4534</v>
       </c>
       <c r="K771" t="n">
-        <v>2.362204724409449</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L771" t="n">
         <v>3293.1</v>
@@ -39752,7 +39774,7 @@
         <v>4544</v>
       </c>
       <c r="K772" t="n">
-        <v>-5.88235294117647</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L772" t="n">
         <v>3290.9</v>
@@ -39803,7 +39825,7 @@
         <v>4554</v>
       </c>
       <c r="K773" t="n">
-        <v>-17.98561151079137</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L773" t="n">
         <v>3288.7</v>
@@ -39854,7 +39876,7 @@
         <v>4566</v>
       </c>
       <c r="K774" t="n">
-        <v>-33.33333333333333</v>
+        <v>-55.00000000000001</v>
       </c>
       <c r="L774" t="n">
         <v>3284.5</v>
@@ -39905,7 +39927,7 @@
         <v>4569</v>
       </c>
       <c r="K775" t="n">
-        <v>-35.25179856115108</v>
+        <v>-48.14814814814815</v>
       </c>
       <c r="L775" t="n">
         <v>3280.4</v>
@@ -39956,7 +39978,7 @@
         <v>4583</v>
       </c>
       <c r="K776" t="n">
-        <v>-18.62068965517242</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L776" t="n">
         <v>3277.9</v>
@@ -40007,7 +40029,7 @@
         <v>4589</v>
       </c>
       <c r="K777" t="n">
-        <v>-20.80536912751678</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L777" t="n">
         <v>3274.8</v>
@@ -40058,7 +40080,7 @@
         <v>4593</v>
       </c>
       <c r="K778" t="n">
-        <v>-16.55629139072848</v>
+        <v>1.298701298701299</v>
       </c>
       <c r="L778" t="n">
         <v>3273.1</v>
@@ -40109,7 +40131,7 @@
         <v>4593</v>
       </c>
       <c r="K779" t="n">
-        <v>-18.91891891891892</v>
+        <v>-15.15151515151515</v>
       </c>
       <c r="L779" t="n">
         <v>3273.2</v>
@@ -40160,7 +40182,7 @@
         <v>4594</v>
       </c>
       <c r="K780" t="n">
-        <v>-27.53623188405797</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L780" t="n">
         <v>3272.3</v>
@@ -40211,7 +40233,7 @@
         <v>4610</v>
       </c>
       <c r="K781" t="n">
-        <v>-14.28571428571428</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L781" t="n">
         <v>3272.3</v>
@@ -40262,7 +40284,7 @@
         <v>4621</v>
       </c>
       <c r="K782" t="n">
-        <v>-0.6451612903225806</v>
+        <v>46.26865671641791</v>
       </c>
       <c r="L782" t="n">
         <v>3274.4</v>
@@ -40313,7 +40335,7 @@
         <v>4630</v>
       </c>
       <c r="K783" t="n">
-        <v>11.68831168831169</v>
+        <v>81.25</v>
       </c>
       <c r="L783" t="n">
         <v>3278.4</v>
@@ -40364,7 +40386,7 @@
         <v>4638</v>
       </c>
       <c r="K784" t="n">
-        <v>11.68831168831169</v>
+        <v>82.60869565217391</v>
       </c>
       <c r="L784" t="n">
         <v>3284.4</v>
@@ -40415,7 +40437,7 @@
         <v>4640</v>
       </c>
       <c r="K785" t="n">
-        <v>11.68831168831169</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="L785" t="n">
         <v>3290.3</v>
@@ -40466,7 +40488,7 @@
         <v>4647</v>
       </c>
       <c r="K786" t="n">
-        <v>8.176100628930817</v>
+        <v>75.86206896551724</v>
       </c>
       <c r="L786" t="n">
         <v>3294.1</v>
@@ -40517,7 +40539,7 @@
         <v>4650</v>
       </c>
       <c r="K787" t="n">
-        <v>9.876543209876543</v>
+        <v>75.43859649122807</v>
       </c>
       <c r="L787" t="n">
         <v>3298.8</v>
@@ -40568,7 +40590,7 @@
         <v>4652</v>
       </c>
       <c r="K788" t="n">
-        <v>18.18181818181818</v>
+        <v>76.27118644067797</v>
       </c>
       <c r="L788" t="n">
         <v>3303.3</v>
@@ -40619,7 +40641,7 @@
         <v>4654</v>
       </c>
       <c r="K789" t="n">
-        <v>34.78260869565217</v>
+        <v>76.66666666666667</v>
       </c>
       <c r="L789" t="n">
         <v>3308</v>
@@ -40670,7 +40692,7 @@
         <v>4654</v>
       </c>
       <c r="K790" t="n">
-        <v>29.13385826771653</v>
+        <v>68.18181818181817</v>
       </c>
       <c r="L790" t="n">
         <v>3312.6</v>
@@ -40721,7 +40743,7 @@
         <v>4655</v>
       </c>
       <c r="K791" t="n">
-        <v>23.96694214876033</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L791" t="n">
         <v>3315.5</v>
@@ -40772,7 +40794,7 @@
         <v>4666</v>
       </c>
       <c r="K792" t="n">
-        <v>40.98360655737705</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L792" t="n">
         <v>3318.4</v>
@@ -40823,7 +40845,7 @@
         <v>4672</v>
       </c>
       <c r="K793" t="n">
-        <v>55.93220338983051</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L793" t="n">
         <v>3321</v>
@@ -40874,7 +40896,7 @@
         <v>4683</v>
       </c>
       <c r="K794" t="n">
-        <v>76.06837606837607</v>
+        <v>62.7906976744186</v>
       </c>
       <c r="L794" t="n">
         <v>3323.9</v>
@@ -40925,7 +40947,7 @@
         <v>4685</v>
       </c>
       <c r="K795" t="n">
-        <v>75.86206896551724</v>
+        <v>94.73684210526315</v>
       </c>
       <c r="L795" t="n">
         <v>3326.8</v>
@@ -40976,7 +40998,7 @@
         <v>4695</v>
       </c>
       <c r="K796" t="n">
-        <v>57.14285714285714</v>
+        <v>51.11111111111111</v>
       </c>
       <c r="L796" t="n">
         <v>3329.4</v>
@@ -41027,7 +41049,7 @@
         <v>4706</v>
       </c>
       <c r="K797" t="n">
-        <v>69.23076923076923</v>
+        <v>59.25925925925925</v>
       </c>
       <c r="L797" t="n">
         <v>3332.8</v>
@@ -41078,7 +41100,7 @@
         <v>4714</v>
       </c>
       <c r="K798" t="n">
-        <v>57.02479338842975</v>
+        <v>36.66666666666666</v>
       </c>
       <c r="L798" t="n">
         <v>3335.2</v>
@@ -41129,7 +41151,7 @@
         <v>4715</v>
       </c>
       <c r="K799" t="n">
-        <v>55.73770491803278</v>
+        <v>34.42622950819672</v>
       </c>
       <c r="L799" t="n">
         <v>3337.3</v>
@@ -41180,7 +41202,7 @@
         <v>4721</v>
       </c>
       <c r="K800" t="n">
-        <v>57.48031496062992</v>
+        <v>42.42424242424242</v>
       </c>
       <c r="L800" t="n">
         <v>3340</v>
@@ -41231,7 +41253,7 @@
         <v>4722</v>
       </c>
       <c r="K801" t="n">
-        <v>51.78571428571429</v>
+        <v>32.14285714285715</v>
       </c>
       <c r="L801" t="n">
         <v>3342.9</v>
@@ -41282,7 +41304,7 @@
         <v>4740</v>
       </c>
       <c r="K802" t="n">
-        <v>24.36974789915966</v>
+        <v>-8.823529411764707</v>
       </c>
       <c r="L802" t="n">
         <v>3342.9</v>
@@ -41333,7 +41355,7 @@
         <v>4742</v>
       </c>
       <c r="K803" t="n">
-        <v>19.64285714285714</v>
+        <v>-25.42372881355932</v>
       </c>
       <c r="L803" t="n">
         <v>3342.5</v>
@@ -41384,7 +41406,7 @@
         <v>4748</v>
       </c>
       <c r="K804" t="n">
-        <v>7.272727272727272</v>
+        <v>-36.50793650793651</v>
       </c>
       <c r="L804" t="n">
         <v>3340.4</v>
@@ -41435,7 +41457,7 @@
         <v>4752</v>
       </c>
       <c r="K805" t="n">
-        <v>8.928571428571429</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L805" t="n">
         <v>3338.5</v>
@@ -41486,7 +41508,7 @@
         <v>4752</v>
       </c>
       <c r="K806" t="n">
-        <v>16.19047619047619</v>
+        <v>-43.47826086956522</v>
       </c>
       <c r="L806" t="n">
         <v>3337.6</v>
@@ -41537,7 +41559,7 @@
         <v>4773</v>
       </c>
       <c r="K807" t="n">
-        <v>28.45528455284553</v>
+        <v>15.25423728813559</v>
       </c>
       <c r="L807" t="n">
         <v>3337.7</v>
@@ -41588,7 +41610,7 @@
         <v>4779</v>
       </c>
       <c r="K808" t="n">
-        <v>30.70866141732284</v>
+        <v>25</v>
       </c>
       <c r="L808" t="n">
         <v>3339.2</v>
@@ -41639,7 +41661,7 @@
         <v>4792</v>
       </c>
       <c r="K809" t="n">
-        <v>36.23188405797102</v>
+        <v>32.3943661971831</v>
       </c>
       <c r="L809" t="n">
         <v>3342.1</v>
@@ -41690,7 +41712,7 @@
         <v>4805</v>
       </c>
       <c r="K810" t="n">
-        <v>41.72185430463576</v>
+        <v>42.16867469879519</v>
       </c>
       <c r="L810" t="n">
         <v>3345.7</v>
@@ -41741,7 +41763,7 @@
         <v>4810</v>
       </c>
       <c r="K811" t="n">
-        <v>44.51612903225806</v>
+        <v>82.85714285714286</v>
       </c>
       <c r="L811" t="n">
         <v>3349.7</v>
@@ -41792,7 +41814,7 @@
         <v>4825</v>
       </c>
       <c r="K812" t="n">
-        <v>45.91194968553459</v>
+        <v>85.54216867469879</v>
       </c>
       <c r="L812" t="n">
         <v>3357</v>
@@ -41843,7 +41865,7 @@
         <v>4832</v>
       </c>
       <c r="K813" t="n">
-        <v>46.25</v>
+        <v>100</v>
       </c>
       <c r="L813" t="n">
         <v>3364.8</v>
@@ -41894,7 +41916,7 @@
         <v>4835</v>
       </c>
       <c r="K814" t="n">
-        <v>39.47368421052632</v>
+        <v>92.77108433734939</v>
       </c>
       <c r="L814" t="n">
         <v>3372.9</v>
@@ -41945,7 +41967,7 @@
         <v>4851</v>
       </c>
       <c r="K815" t="n">
-        <v>25.30120481927711</v>
+        <v>61.61616161616161</v>
       </c>
       <c r="L815" t="n">
         <v>3379</v>
@@ -41996,7 +42018,7 @@
         <v>4860</v>
       </c>
       <c r="K816" t="n">
-        <v>36.96969696969697</v>
+        <v>56.32183908045977</v>
       </c>
       <c r="L816" t="n">
         <v>3386</v>
@@ -42047,7 +42069,7 @@
         <v>4868</v>
       </c>
       <c r="K817" t="n">
-        <v>35.80246913580247</v>
+        <v>57.30337078651685</v>
       </c>
       <c r="L817" t="n">
         <v>3391.7</v>
@@ -42098,7 +42120,7 @@
         <v>4896</v>
       </c>
       <c r="K818" t="n">
-        <v>51.64835164835166</v>
+        <v>63.46153846153846</v>
       </c>
       <c r="L818" t="n">
         <v>3399.6</v>
@@ -42149,7 +42171,7 @@
         <v>4910</v>
       </c>
       <c r="K819" t="n">
-        <v>55.8974358974359</v>
+        <v>63.8095238095238</v>
       </c>
       <c r="L819" t="n">
         <v>3407.6</v>
@@ -42200,7 +42222,7 @@
         <v>4959</v>
       </c>
       <c r="K820" t="n">
-        <v>63.86554621848739</v>
+        <v>74.49664429530202</v>
       </c>
       <c r="L820" t="n">
         <v>3419.2</v>
@@ -42251,7 +42273,7 @@
         <v>4985</v>
       </c>
       <c r="K821" t="n">
-        <v>47.52851711026616</v>
+        <v>43.75</v>
       </c>
       <c r="L821" t="n">
         <v>3427.7</v>
@@ -42302,7 +42324,7 @@
         <v>5002</v>
       </c>
       <c r="K822" t="n">
-        <v>61.06870229007634</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="L822" t="n">
         <v>3436.4</v>
@@ -42353,7 +42375,7 @@
         <v>5006</v>
       </c>
       <c r="K823" t="n">
-        <v>61.36363636363637</v>
+        <v>50.87719298245614</v>
       </c>
       <c r="L823" t="n">
         <v>3444.8</v>
@@ -42404,7 +42426,7 @@
         <v>5028</v>
       </c>
       <c r="K824" t="n">
-        <v>52.14285714285715</v>
+        <v>45.76271186440678</v>
       </c>
       <c r="L824" t="n">
         <v>3451.3</v>
@@ -42455,7 +42477,7 @@
         <v>5051</v>
       </c>
       <c r="K825" t="n">
-        <v>55.18394648829431</v>
+        <v>49.73821989528796</v>
       </c>
       <c r="L825" t="n">
         <v>3461.7</v>
@@ -42506,7 +42528,7 @@
         <v>5055</v>
       </c>
       <c r="K826" t="n">
-        <v>53.13531353135313</v>
+        <v>44.38502673796791</v>
       </c>
       <c r="L826" t="n">
         <v>3470.8</v>
@@ -42557,7 +42579,7 @@
         <v>5071</v>
       </c>
       <c r="K827" t="n">
-        <v>41.61073825503356</v>
+        <v>22.28571428571428</v>
       </c>
       <c r="L827" t="n">
         <v>3477.5</v>
@@ -42608,7 +42630,7 @@
         <v>5134</v>
       </c>
       <c r="K828" t="n">
-        <v>15.49295774647887</v>
+        <v>-16.96428571428572</v>
       </c>
       <c r="L828" t="n">
         <v>3475.1</v>
@@ -42659,7 +42681,7 @@
         <v>5154</v>
       </c>
       <c r="K829" t="n">
-        <v>6.077348066298343</v>
+        <v>-54.87179487179488</v>
       </c>
       <c r="L829" t="n">
         <v>3469.3</v>
@@ -42710,7 +42732,7 @@
         <v>5174</v>
       </c>
       <c r="K830" t="n">
-        <v>7.859078590785908</v>
+        <v>-32.27513227513227</v>
       </c>
       <c r="L830" t="n">
         <v>3460.6</v>
@@ -42761,7 +42783,7 @@
         <v>5179</v>
       </c>
       <c r="K831" t="n">
-        <v>7.859078590785908</v>
+        <v>-41.24293785310734</v>
       </c>
       <c r="L831" t="n">
         <v>3455</v>
@@ -42812,7 +42834,7 @@
         <v>5195</v>
       </c>
       <c r="K832" t="n">
-        <v>-0.5405405405405406</v>
+        <v>-49.2063492063492</v>
       </c>
       <c r="L832" t="n">
         <v>3446.1</v>
@@ -42863,7 +42885,7 @@
         <v>5206</v>
       </c>
       <c r="K833" t="n">
-        <v>0.53475935828877</v>
+        <v>-33.70786516853933</v>
       </c>
       <c r="L833" t="n">
         <v>3437.9</v>
@@ -42914,7 +42936,7 @@
         <v>5218</v>
       </c>
       <c r="K834" t="n">
-        <v>-1.827676240208877</v>
+        <v>-56.88622754491018</v>
       </c>
       <c r="L834" t="n">
         <v>3430.7</v>
@@ -42965,7 +42987,7 @@
         <v>5238</v>
       </c>
       <c r="K835" t="n">
-        <v>-2.842377260981912</v>
+        <v>-60.65573770491803</v>
       </c>
       <c r="L835" t="n">
         <v>3419.2</v>
@@ -43016,7 +43038,7 @@
         <v>5265</v>
       </c>
       <c r="K836" t="n">
-        <v>1.728395061728395</v>
+        <v>-35.05154639175257</v>
       </c>
       <c r="L836" t="n">
         <v>3410.8</v>
@@ -43067,7 +43089,7 @@
         <v>5286</v>
       </c>
       <c r="K837" t="n">
-        <v>-5.263157894736842</v>
+        <v>-17.10526315789474</v>
       </c>
       <c r="L837" t="n">
         <v>3401.9</v>
@@ -43118,7 +43140,7 @@
         <v>5291</v>
       </c>
       <c r="K838" t="n">
-        <v>-13.92405063291139</v>
+        <v>-8.02919708029197</v>
       </c>
       <c r="L838" t="n">
         <v>3398.8</v>
@@ -43169,7 +43191,7 @@
         <v>5302</v>
       </c>
       <c r="K839" t="n">
-        <v>-14.79591836734694</v>
+        <v>-15.625</v>
       </c>
       <c r="L839" t="n">
         <v>3398.8</v>
@@ -43220,7 +43242,7 @@
         <v>5305</v>
       </c>
       <c r="K840" t="n">
-        <v>-31.79190751445087</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L840" t="n">
         <v>3396.5</v>
@@ -43271,7 +43293,7 @@
         <v>5317</v>
       </c>
       <c r="K841" t="n">
-        <v>-28.91566265060241</v>
+        <v>-19.67213114754098</v>
       </c>
       <c r="L841" t="n">
         <v>3392.5</v>
@@ -43322,7 +43344,7 @@
         <v>5339</v>
       </c>
       <c r="K842" t="n">
-        <v>-27.00296735905044</v>
+        <v>-9.774436090225564</v>
       </c>
       <c r="L842" t="n">
         <v>3392.3</v>
@@ -43373,7 +43395,7 @@
         <v>5359</v>
       </c>
       <c r="K843" t="n">
-        <v>-32.57790368271954</v>
+        <v>-14.8936170212766</v>
       </c>
       <c r="L843" t="n">
         <v>3389</v>
@@ -43424,7 +43446,7 @@
         <v>5362</v>
       </c>
       <c r="K844" t="n">
-        <v>-28.74251497005988</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L844" t="n">
         <v>3386.6</v>
@@ -43475,7 +43497,7 @@
         <v>5385</v>
       </c>
       <c r="K845" t="n">
-        <v>-42.51497005988024</v>
+        <v>-45</v>
       </c>
       <c r="L845" t="n">
         <v>3383.9</v>
@@ -43526,7 +43548,7 @@
         <v>5398</v>
       </c>
       <c r="K846" t="n">
-        <v>-36.44314868804665</v>
+        <v>-17.85714285714286</v>
       </c>
       <c r="L846" t="n">
         <v>3379.8</v>
@@ -43577,7 +43599,7 @@
         <v>5407</v>
       </c>
       <c r="K847" t="n">
-        <v>-35.11904761904761</v>
+        <v>-20.68965517241379</v>
       </c>
       <c r="L847" t="n">
         <v>3376.9</v>
@@ -43628,7 +43650,7 @@
         <v>5423</v>
       </c>
       <c r="K848" t="n">
-        <v>-24.5674740484429</v>
+        <v>-42.14876033057851</v>
       </c>
       <c r="L848" t="n">
         <v>3372.9</v>
@@ -43679,7 +43701,7 @@
         <v>5424</v>
       </c>
       <c r="K849" t="n">
-        <v>-18.51851851851852</v>
+        <v>-39.49579831932773</v>
       </c>
       <c r="L849" t="n">
         <v>3367.9</v>
@@ -43730,7 +43752,7 @@
         <v>5425</v>
       </c>
       <c r="K850" t="n">
-        <v>-27.49003984063745</v>
+        <v>-31.48148148148148</v>
       </c>
       <c r="L850" t="n">
         <v>3363.3</v>
@@ -43781,7 +43803,7 @@
         <v>5433</v>
       </c>
       <c r="K851" t="n">
-        <v>-25.98425196850393</v>
+        <v>-51.06382978723404</v>
       </c>
       <c r="L851" t="n">
         <v>3360.7</v>
@@ -43832,7 +43854,7 @@
         <v>5481</v>
       </c>
       <c r="K852" t="n">
-        <v>-0.6993006993006993</v>
+        <v>16.39344262295082</v>
       </c>
       <c r="L852" t="n">
         <v>3360.7</v>
@@ -43883,7 +43905,7 @@
         <v>5492</v>
       </c>
       <c r="K853" t="n">
-        <v>-0.6993006993006993</v>
+        <v>26.15384615384616</v>
       </c>
       <c r="L853" t="n">
         <v>3363.8</v>
@@ -43934,7 +43956,7 @@
         <v>5532</v>
       </c>
       <c r="K854" t="n">
-        <v>15.92356687898089</v>
+        <v>65.98639455782312</v>
       </c>
       <c r="L854" t="n">
         <v>3371.2</v>
@@ -43985,7 +44007,7 @@
         <v>5549</v>
       </c>
       <c r="K855" t="n">
-        <v>17.04180064308682</v>
+        <v>44.37086092715231</v>
       </c>
       <c r="L855" t="n">
         <v>3379.2</v>
@@ -44036,7 +44058,7 @@
         <v>5551</v>
       </c>
       <c r="K856" t="n">
-        <v>8.391608391608392</v>
+        <v>51.38888888888889</v>
       </c>
       <c r="L856" t="n">
         <v>3385.7</v>
@@ -44087,7 +44109,7 @@
         <v>5560</v>
       </c>
       <c r="K857" t="n">
-        <v>13.13868613138686</v>
+        <v>59.12408759124088</v>
       </c>
       <c r="L857" t="n">
         <v>3392.2</v>
@@ -44138,7 +44160,7 @@
         <v>5573</v>
       </c>
       <c r="K858" t="n">
-        <v>19.14893617021277</v>
+        <v>62.41610738255034</v>
       </c>
       <c r="L858" t="n">
         <v>3401.6</v>
@@ -44189,7 +44211,7 @@
         <v>5582</v>
       </c>
       <c r="K859" t="n">
-        <v>18.57142857142857</v>
+        <v>64.3312101910828</v>
       </c>
       <c r="L859" t="n">
         <v>3411.8</v>
@@ -44240,7 +44262,7 @@
         <v>5606</v>
       </c>
       <c r="K860" t="n">
-        <v>10.29900332225914</v>
+        <v>39.88439306358381</v>
       </c>
       <c r="L860" t="n">
         <v>3419.5</v>
@@ -44291,7 +44313,7 @@
         <v>5625</v>
       </c>
       <c r="K861" t="n">
-        <v>7.792207792207792</v>
+        <v>1.388888888888889</v>
       </c>
       <c r="L861" t="n">
         <v>3424.5</v>
@@ -44342,7 +44364,7 @@
         <v>5630</v>
       </c>
       <c r="K862" t="n">
-        <v>2.405498281786942</v>
+        <v>-2.898550724637681</v>
       </c>
       <c r="L862" t="n">
         <v>3425.2</v>
@@ -44393,7 +44415,7 @@
         <v>5643</v>
       </c>
       <c r="K863" t="n">
-        <v>14.08450704225352</v>
+        <v>-27.92792792792793</v>
       </c>
       <c r="L863" t="n">
         <v>3426.1</v>
@@ -44444,7 +44466,7 @@
         <v>5652</v>
       </c>
       <c r="K864" t="n">
-        <v>17.93103448275862</v>
+        <v>-4.854368932038835</v>
       </c>
       <c r="L864" t="n">
         <v>3423.9</v>
@@ -44495,7 +44517,7 @@
         <v>5654</v>
       </c>
       <c r="K865" t="n">
-        <v>28.62453531598513</v>
+        <v>-0.9708737864077669</v>
       </c>
       <c r="L865" t="n">
         <v>3423.6</v>
@@ -44546,7 +44568,7 @@
         <v>5654</v>
       </c>
       <c r="K866" t="n">
-        <v>25</v>
+        <v>8.51063829787234</v>
       </c>
       <c r="L866" t="n">
         <v>3423.5</v>
@@ -44597,7 +44619,7 @@
         <v>5675</v>
       </c>
       <c r="K867" t="n">
-        <v>19.40298507462687</v>
+        <v>-25.49019607843137</v>
       </c>
       <c r="L867" t="n">
         <v>3422.2</v>
@@ -44648,7 +44670,7 @@
         <v>5691</v>
       </c>
       <c r="K868" t="n">
-        <v>19.40298507462687</v>
+        <v>-46.78899082568807</v>
       </c>
       <c r="L868" t="n">
         <v>3418</v>
@@ -44699,7 +44721,7 @@
         <v>5691</v>
       </c>
       <c r="K869" t="n">
-        <v>19.10112359550562</v>
+        <v>-31.76470588235294</v>
       </c>
       <c r="L869" t="n">
         <v>3412.9</v>
@@ -44750,7 +44772,7 @@
         <v>5691</v>
       </c>
       <c r="K870" t="n">
-        <v>18.79699248120301</v>
+        <v>-12.12121212121212</v>
       </c>
       <c r="L870" t="n">
         <v>3410.2</v>
@@ -44801,7 +44823,7 @@
         <v>5691</v>
       </c>
       <c r="K871" t="n">
-        <v>16.27906976744186</v>
+        <v>-21.31147540983606</v>
       </c>
       <c r="L871" t="n">
         <v>3409.4</v>
@@ -44852,7 +44874,7 @@
         <v>5691</v>
       </c>
       <c r="K872" t="n">
-        <v>-2.857142857142857</v>
+        <v>-54.16666666666666</v>
       </c>
       <c r="L872" t="n">
         <v>3408.1</v>
@@ -44903,7 +44925,7 @@
         <v>5694</v>
       </c>
       <c r="K873" t="n">
-        <v>-9.900990099009901</v>
+        <v>-90.47619047619048</v>
       </c>
       <c r="L873" t="n">
         <v>3405.2</v>
@@ -44954,7 +44976,7 @@
         <v>5694</v>
       </c>
       <c r="K874" t="n">
-        <v>-37.03703703703704</v>
+        <v>-100</v>
       </c>
       <c r="L874" t="n">
         <v>3401.4</v>
@@ -45005,7 +45027,7 @@
         <v>5699</v>
       </c>
       <c r="K875" t="n">
-        <v>-25.33333333333334</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L875" t="n">
         <v>3397.9</v>
@@ -45056,7 +45078,7 @@
         <v>5703</v>
       </c>
       <c r="K876" t="n">
-        <v>-21.05263157894737</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L876" t="n">
         <v>3394.8</v>
@@ -45107,7 +45129,7 @@
         <v>5714</v>
       </c>
       <c r="K877" t="n">
-        <v>-7.792207792207792</v>
+        <v>73.91304347826086</v>
       </c>
       <c r="L877" t="n">
         <v>3394.9</v>
@@ -45158,7 +45180,7 @@
         <v>5722</v>
       </c>
       <c r="K878" t="n">
-        <v>-11.40939597315436</v>
+        <v>80.64516129032258</v>
       </c>
       <c r="L878" t="n">
         <v>3397.4</v>
@@ -45209,7 +45231,7 @@
         <v>5729</v>
       </c>
       <c r="K879" t="n">
-        <v>-12.92517006802721</v>
+        <v>84.21052631578947</v>
       </c>
       <c r="L879" t="n">
         <v>3400.6</v>
@@ -45260,7 +45282,7 @@
         <v>5734</v>
       </c>
       <c r="K880" t="n">
-        <v>0</v>
+        <v>62.7906976744186</v>
       </c>
       <c r="L880" t="n">
         <v>3403.3</v>
@@ -45311,7 +45333,7 @@
         <v>5737</v>
       </c>
       <c r="K881" t="n">
-        <v>19.64285714285714</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="L881" t="n">
         <v>3406.3</v>
@@ -45362,7 +45384,7 @@
         <v>5746</v>
       </c>
       <c r="K882" t="n">
-        <v>6.896551724137931</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="L882" t="n">
         <v>3408.4</v>
@@ -45413,7 +45435,7 @@
         <v>5749</v>
       </c>
       <c r="K883" t="n">
-        <v>-7.547169811320755</v>
+        <v>38.18181818181819</v>
       </c>
       <c r="L883" t="n">
         <v>3410.5</v>
@@ -45464,7 +45486,7 @@
         <v>5749</v>
       </c>
       <c r="K884" t="n">
-        <v>-17.52577319587629</v>
+        <v>32</v>
       </c>
       <c r="L884" t="n">
         <v>3412.6</v>
@@ -45515,7 +45537,7 @@
         <v>5750</v>
       </c>
       <c r="K885" t="n">
-        <v>-20.83333333333334</v>
+        <v>23.40425531914894</v>
       </c>
       <c r="L885" t="n">
         <v>3414.1</v>
@@ -45566,7 +45588,7 @@
         <v>5750</v>
       </c>
       <c r="K886" t="n">
-        <v>-20.83333333333334</v>
+        <v>0</v>
       </c>
       <c r="L886" t="n">
         <v>3415.2</v>
@@ -45617,7 +45639,7 @@
         <v>5758</v>
       </c>
       <c r="K887" t="n">
-        <v>10.8433734939759</v>
+        <v>0</v>
       </c>
       <c r="L887" t="n">
         <v>3416</v>
@@ -45668,7 +45690,7 @@
         <v>5766</v>
       </c>
       <c r="K888" t="n">
-        <v>22.66666666666666</v>
+        <v>-40.54054054054054</v>
       </c>
       <c r="L888" t="n">
         <v>3415.2</v>
@@ -45719,7 +45741,7 @@
         <v>5768</v>
       </c>
       <c r="K889" t="n">
-        <v>24.67532467532467</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L889" t="n">
         <v>3413.9</v>
@@ -45770,7 +45792,7 @@
         <v>5769</v>
       </c>
       <c r="K890" t="n">
-        <v>23.07692307692308</v>
+        <v>-37.5</v>
       </c>
       <c r="L890" t="n">
         <v>3413</v>
@@ -45821,7 +45843,7 @@
         <v>5771</v>
       </c>
       <c r="K891" t="n">
-        <v>25</v>
+        <v>-4</v>
       </c>
       <c r="L891" t="n">
         <v>3412</v>
@@ -45872,7 +45894,7 @@
         <v>5771</v>
       </c>
       <c r="K892" t="n">
-        <v>25</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L892" t="n">
         <v>3411.9</v>
@@ -45923,7 +45945,7 @@
         <v>5774</v>
       </c>
       <c r="K893" t="n">
-        <v>25</v>
+        <v>-4</v>
       </c>
       <c r="L893" t="n">
         <v>3411.8</v>
@@ -45974,7 +45996,7 @@
         <v>5775</v>
       </c>
       <c r="K894" t="n">
-        <v>23.45679012345679</v>
+        <v>-4</v>
       </c>
       <c r="L894" t="n">
         <v>3411.6</v>
@@ -46025,7 +46047,7 @@
         <v>5775</v>
       </c>
       <c r="K895" t="n">
-        <v>18.42105263157895</v>
+        <v>-4</v>
       </c>
       <c r="L895" t="n">
         <v>3411.5</v>
@@ -46076,7 +46098,7 @@
         <v>5786</v>
       </c>
       <c r="K896" t="n">
-        <v>-1.204819277108434</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L896" t="n">
         <v>3410.3</v>
@@ -46127,7 +46149,7 @@
         <v>5788</v>
       </c>
       <c r="K897" t="n">
-        <v>-18.91891891891892</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L897" t="n">
         <v>3408.1</v>
@@ -46178,7 +46200,7 @@
         <v>5789</v>
       </c>
       <c r="K898" t="n">
-        <v>-34.32835820895522</v>
+        <v>-80.95238095238095</v>
       </c>
       <c r="L898" t="n">
         <v>3406.6</v>
@@ -46229,7 +46251,7 @@
         <v>5802</v>
       </c>
       <c r="K899" t="n">
-        <v>-58.9041095890411</v>
+        <v>-87.87878787878788</v>
       </c>
       <c r="L899" t="n">
         <v>3403.6</v>
@@ -46280,7 +46302,7 @@
         <v>5804</v>
       </c>
       <c r="K900" t="n">
-        <v>-57.14285714285714</v>
+        <v>-100</v>
       </c>
       <c r="L900" t="n">
         <v>3400.5</v>
@@ -46331,7 +46353,7 @@
         <v>5813</v>
       </c>
       <c r="K901" t="n">
-        <v>-44.73684210526316</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L901" t="n">
         <v>3398.1</v>
@@ -46382,7 +46404,7 @@
         <v>5824</v>
       </c>
       <c r="K902" t="n">
-        <v>-46.15384615384615</v>
+        <v>-64</v>
       </c>
       <c r="L902" t="n">
         <v>3394.6</v>
@@ -46433,7 +46455,7 @@
         <v>5844</v>
       </c>
       <c r="K903" t="n">
-        <v>-55.78947368421052</v>
+        <v>-73.91304347826086</v>
       </c>
       <c r="L903" t="n">
         <v>3389.4</v>
@@ -46484,7 +46506,7 @@
         <v>5845</v>
       </c>
       <c r="K904" t="n">
-        <v>-54.16666666666666</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L904" t="n">
         <v>3384.4</v>
@@ -46535,7 +46557,7 @@
         <v>5865</v>
       </c>
       <c r="K905" t="n">
-        <v>-26.95652173913043</v>
+        <v>-24.05063291139241</v>
       </c>
       <c r="L905" t="n">
         <v>3381.4</v>
@@ -46586,7 +46608,7 @@
         <v>5865</v>
       </c>
       <c r="K906" t="n">
-        <v>-26.95652173913043</v>
+        <v>-22.07792207792208</v>
       </c>
       <c r="L906" t="n">
         <v>3379.5</v>
@@ -46637,7 +46659,7 @@
         <v>5868</v>
       </c>
       <c r="K907" t="n">
-        <v>-32.72727272727273</v>
+        <v>-16.45569620253164</v>
       </c>
       <c r="L907" t="n">
         <v>3378.1</v>
@@ -46688,7 +46710,7 @@
         <v>5870</v>
       </c>
       <c r="K908" t="n">
-        <v>-28.84615384615384</v>
+        <v>-2.941176470588235</v>
       </c>
       <c r="L908" t="n">
         <v>3376.6</v>
@@ -46739,7 +46761,7 @@
         <v>5878</v>
       </c>
       <c r="K909" t="n">
-        <v>-36.36363636363637</v>
+        <v>-10.81081081081081</v>
       </c>
       <c r="L909" t="n">
         <v>3375.6</v>
@@ -46790,7 +46812,7 @@
         <v>5903</v>
       </c>
       <c r="K910" t="n">
-        <v>-10.44776119402985</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="L910" t="n">
         <v>3377.3</v>
@@ -46841,7 +46863,7 @@
         <v>5906</v>
       </c>
       <c r="K911" t="n">
-        <v>-14.07407407407407</v>
+        <v>19.51219512195122</v>
       </c>
       <c r="L911" t="n">
         <v>3377.8</v>
@@ -46892,7 +46914,7 @@
         <v>5934</v>
       </c>
       <c r="K912" t="n">
-        <v>-28.83435582822086</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="L912" t="n">
         <v>3376.6</v>
@@ -46943,7 +46965,7 @@
         <v>5953</v>
       </c>
       <c r="K913" t="n">
-        <v>-13.96648044692737</v>
+        <v>24.07407407407407</v>
       </c>
       <c r="L913" t="n">
         <v>3379.3</v>
@@ -46994,7 +47016,7 @@
         <v>5958</v>
       </c>
       <c r="K914" t="n">
-        <v>-10.38251366120219</v>
+        <v>11.82795698924731</v>
       </c>
       <c r="L914" t="n">
         <v>3382.4</v>
@@ -47045,7 +47067,7 @@
         <v>5958</v>
       </c>
       <c r="K915" t="n">
-        <v>-10.38251366120219</v>
+        <v>11.82795698924731</v>
       </c>
       <c r="L915" t="n">
         <v>3383.5</v>
@@ -47096,7 +47118,7 @@
         <v>5959</v>
       </c>
       <c r="K916" t="n">
-        <v>-4.046242774566474</v>
+        <v>9.890109890109891</v>
       </c>
       <c r="L916" t="n">
         <v>3384.7</v>
@@ -47147,7 +47169,7 @@
         <v>5959</v>
       </c>
       <c r="K917" t="n">
-        <v>-2.923976608187134</v>
+        <v>12.35955056179775</v>
       </c>
       <c r="L917" t="n">
         <v>3385.6</v>
@@ -47198,7 +47220,7 @@
         <v>5959</v>
       </c>
       <c r="K918" t="n">
-        <v>-2.352941176470588</v>
+        <v>23.45679012345679</v>
       </c>
       <c r="L918" t="n">
         <v>3386.7</v>
@@ -47249,7 +47271,7 @@
         <v>5962</v>
       </c>
       <c r="K919" t="n">
-        <v>7.5</v>
+        <v>-5.084745762711865</v>
       </c>
       <c r="L919" t="n">
         <v>3388.9</v>
@@ -47300,7 +47322,7 @@
         <v>5965</v>
       </c>
       <c r="K920" t="n">
-        <v>10.55900621118012</v>
+        <v>5.084745762711865</v>
       </c>
       <c r="L920" t="n">
         <v>3388.9</v>
@@ -47351,7 +47373,7 @@
         <v>5968</v>
       </c>
       <c r="K921" t="n">
-        <v>3.225806451612903</v>
+        <v>82.35294117647058</v>
       </c>
       <c r="L921" t="n">
         <v>3388.9</v>
@@ -47402,7 +47424,7 @@
         <v>5971</v>
       </c>
       <c r="K922" t="n">
-        <v>8.843537414965986</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L922" t="n">
         <v>3391.4</v>
@@ -47453,7 +47475,7 @@
         <v>5976</v>
       </c>
       <c r="K923" t="n">
-        <v>28.78787878787879</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L923" t="n">
         <v>3392.5</v>
@@ -47504,7 +47526,7 @@
         <v>6000</v>
       </c>
       <c r="K924" t="n">
-        <v>39.35483870967742</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L924" t="n">
         <v>3395.5</v>
@@ -47555,7 +47577,7 @@
         <v>6015</v>
       </c>
       <c r="K925" t="n">
-        <v>37.33333333333334</v>
+        <v>78.57142857142857</v>
       </c>
       <c r="L925" t="n">
         <v>3400</v>
@@ -47606,7 +47628,7 @@
         <v>6016</v>
       </c>
       <c r="K926" t="n">
-        <v>36.42384105960264</v>
+        <v>75.43859649122807</v>
       </c>
       <c r="L926" t="n">
         <v>3404.3</v>
@@ -47657,7 +47679,7 @@
         <v>6018</v>
       </c>
       <c r="K927" t="n">
-        <v>33.33333333333333</v>
+        <v>69.49152542372882</v>
       </c>
       <c r="L927" t="n">
         <v>3408.4</v>
@@ -47708,7 +47730,7 @@
         <v>6030</v>
       </c>
       <c r="K928" t="n">
-        <v>25</v>
+        <v>38.23529411764706</v>
       </c>
       <c r="L928" t="n">
         <v>3411.3</v>
@@ -47759,7 +47781,7 @@
         <v>6030</v>
       </c>
       <c r="K929" t="n">
-        <v>31.57894736842105</v>
+        <v>35.38461538461539</v>
       </c>
       <c r="L929" t="n">
         <v>3413.9</v>
@@ -47810,7 +47832,7 @@
         <v>6036</v>
       </c>
       <c r="K930" t="n">
-        <v>12.78195488721804</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L930" t="n">
         <v>3415.6</v>
@@ -47861,7 +47883,7 @@
         <v>6038</v>
       </c>
       <c r="K931" t="n">
-        <v>13.63636363636363</v>
+        <v>31.34328358208955</v>
       </c>
       <c r="L931" t="n">
         <v>3417.4</v>
@@ -47912,7 +47934,7 @@
         <v>6038</v>
       </c>
       <c r="K932" t="n">
-        <v>44.23076923076923</v>
+        <v>25.80645161290322</v>
       </c>
       <c r="L932" t="n">
         <v>3419.5</v>
@@ -47963,7 +47985,7 @@
         <v>6038</v>
       </c>
       <c r="K933" t="n">
-        <v>31.76470588235294</v>
+        <v>-21.05263157894737</v>
       </c>
       <c r="L933" t="n">
         <v>3421.1</v>
@@ -48014,7 +48036,7 @@
         <v>6041</v>
       </c>
       <c r="K934" t="n">
-        <v>30.12048192771084</v>
+        <v>-76.92307692307693</v>
       </c>
       <c r="L934" t="n">
         <v>3420.6</v>
@@ -48065,7 +48087,7 @@
         <v>6046</v>
       </c>
       <c r="K935" t="n">
-        <v>34.09090909090909</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L935" t="n">
         <v>3419.1</v>
@@ -48116,7 +48138,7 @@
         <v>6049</v>
       </c>
       <c r="K936" t="n">
-        <v>28.88888888888889</v>
+        <v>-48.38709677419355</v>
       </c>
       <c r="L936" t="n">
         <v>3417.4</v>
@@ -48167,7 +48189,7 @@
         <v>6053</v>
       </c>
       <c r="K937" t="n">
-        <v>23.40425531914894</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L937" t="n">
         <v>3415.5</v>
@@ -48218,7 +48240,7 @@
         <v>6060</v>
       </c>
       <c r="K938" t="n">
-        <v>28.71287128712871</v>
+        <v>0</v>
       </c>
       <c r="L938" t="n">
         <v>3415.5</v>
@@ -48269,7 +48291,7 @@
         <v>6080</v>
       </c>
       <c r="K939" t="n">
-        <v>38.98305084745763</v>
+        <v>59.09090909090909</v>
       </c>
       <c r="L939" t="n">
         <v>3417.5</v>
@@ -48320,7 +48342,7 @@
         <v>6081</v>
       </c>
       <c r="K940" t="n">
-        <v>36.20689655172414</v>
+        <v>62.7906976744186</v>
       </c>
       <c r="L940" t="n">
         <v>3420</v>
@@ -48371,7 +48393,7 @@
         <v>6089</v>
       </c>
       <c r="K941" t="n">
-        <v>43.80165289256198</v>
+        <v>68.62745098039215</v>
       </c>
       <c r="L941" t="n">
         <v>3423.5</v>
@@ -48422,7 +48444,7 @@
         <v>6099</v>
       </c>
       <c r="K942" t="n">
-        <v>51.5625</v>
+        <v>73.77049180327869</v>
       </c>
       <c r="L942" t="n">
         <v>3428</v>
@@ -48473,7 +48495,7 @@
         <v>6105</v>
       </c>
       <c r="K943" t="n">
-        <v>42.63565891472868</v>
+        <v>56.25</v>
       </c>
       <c r="L943" t="n">
         <v>3431.9</v>
@@ -48524,7 +48546,7 @@
         <v>6120</v>
       </c>
       <c r="K944" t="n">
-        <v>13.33333333333333</v>
+        <v>21.62162162162162</v>
       </c>
       <c r="L944" t="n">
         <v>3434</v>
@@ -48575,7 +48597,7 @@
         <v>6135</v>
       </c>
       <c r="K945" t="n">
-        <v>13.33333333333333</v>
+        <v>39.53488372093023</v>
       </c>
       <c r="L945" t="n">
         <v>3437.1</v>
@@ -48626,7 +48648,7 @@
         <v>6139</v>
       </c>
       <c r="K946" t="n">
-        <v>10.56910569105691</v>
+        <v>39.53488372093023</v>
       </c>
       <c r="L946" t="n">
         <v>3440.1</v>
@@ -48677,7 +48699,7 @@
         <v>6144</v>
       </c>
       <c r="K947" t="n">
-        <v>15.87301587301587</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="L947" t="n">
         <v>3444</v>
@@ -48728,7 +48750,7 @@
         <v>6161</v>
       </c>
       <c r="K948" t="n">
-        <v>37.40458015267176</v>
+        <v>35.80246913580247</v>
       </c>
       <c r="L948" t="n">
         <v>3448.9</v>
@@ -48779,7 +48801,7 @@
         <v>6177</v>
       </c>
       <c r="K949" t="n">
-        <v>22.44897959183674</v>
+        <v>14.58333333333333</v>
       </c>
       <c r="L949" t="n">
         <v>3450.2</v>
@@ -48830,7 +48852,7 @@
         <v>6199</v>
       </c>
       <c r="K950" t="n">
-        <v>10.42944785276074</v>
+        <v>-14.54545454545454</v>
       </c>
       <c r="L950" t="n">
         <v>3449.4</v>
@@ -48881,7 +48903,7 @@
         <v>6217</v>
       </c>
       <c r="K951" t="n">
-        <v>0.5586592178770949</v>
+        <v>-37.28813559322034</v>
       </c>
       <c r="L951" t="n">
         <v>3446</v>
@@ -48932,7 +48954,7 @@
         <v>6222</v>
       </c>
       <c r="K952" t="n">
-        <v>3.260869565217391</v>
+        <v>-28.2051282051282</v>
       </c>
       <c r="L952" t="n">
         <v>3442.1</v>
@@ -48983,7 +49005,7 @@
         <v>6223</v>
       </c>
       <c r="K953" t="n">
-        <v>3.783783783783784</v>
+        <v>-16.50485436893204</v>
       </c>
       <c r="L953" t="n">
         <v>3438.9</v>
@@ -49034,7 +49056,7 @@
         <v>6234</v>
       </c>
       <c r="K954" t="n">
-        <v>7.772020725388601</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L954" t="n">
         <v>3438.3</v>
@@ -49085,7 +49107,7 @@
         <v>6252</v>
       </c>
       <c r="K955" t="n">
-        <v>-3.883495145631068</v>
+        <v>-30.97345132743363</v>
       </c>
       <c r="L955" t="n">
         <v>3434.4</v>
@@ -49136,7 +49158,7 @@
         <v>6254</v>
       </c>
       <c r="K956" t="n">
-        <v>-1.463414634146342</v>
+        <v>-34.54545454545455</v>
       </c>
       <c r="L956" t="n">
         <v>3431.1</v>
@@ -49187,7 +49209,7 @@
         <v>6257</v>
       </c>
       <c r="K957" t="n">
-        <v>-0.9803921568627451</v>
+        <v>-60.41666666666666</v>
       </c>
       <c r="L957" t="n">
         <v>3427</v>
@@ -49238,7 +49260,7 @@
         <v>6264</v>
       </c>
       <c r="K958" t="n">
-        <v>-0.9803921568627451</v>
+        <v>-40.22988505747126</v>
       </c>
       <c r="L958" t="n">
         <v>3421.9</v>
@@ -49289,7 +49311,7 @@
         <v>6271</v>
       </c>
       <c r="K959" t="n">
-        <v>-15.18324607329843</v>
+        <v>-27.77777777777778</v>
       </c>
       <c r="L959" t="n">
         <v>3417.7</v>
@@ -49340,7 +49362,7 @@
         <v>6272</v>
       </c>
       <c r="K960" t="n">
-        <v>-14.13612565445026</v>
+        <v>-1.818181818181818</v>
       </c>
       <c r="L960" t="n">
         <v>3415.8</v>
@@ -49391,7 +49413,7 @@
         <v>6278</v>
       </c>
       <c r="K961" t="n">
-        <v>-15.34391534391534</v>
+        <v>0</v>
       </c>
       <c r="L961" t="n">
         <v>3416.3</v>
@@ -49442,7 +49464,7 @@
         <v>6282</v>
       </c>
       <c r="K962" t="n">
-        <v>-19.12568306010929</v>
+        <v>5.084745762711865</v>
       </c>
       <c r="L962" t="n">
         <v>3416.7</v>
@@ -49493,7 +49515,7 @@
         <v>6282</v>
       </c>
       <c r="K963" t="n">
-        <v>-16.38418079096045</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L963" t="n">
         <v>3417</v>
@@ -49544,7 +49566,7 @@
         <v>6287</v>
       </c>
       <c r="K964" t="n">
-        <v>-11.37724550898204</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L964" t="n">
         <v>3415.7</v>
@@ -49595,7 +49617,7 @@
         <v>6300</v>
       </c>
       <c r="K965" t="n">
-        <v>-28.48484848484848</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L965" t="n">
         <v>3414.9</v>
@@ -49646,7 +49668,7 @@
         <v>6314</v>
       </c>
       <c r="K966" t="n">
-        <v>-32.57142857142858</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L966" t="n">
         <v>3412.5</v>
@@ -49697,7 +49719,7 @@
         <v>6314</v>
       </c>
       <c r="K967" t="n">
-        <v>-36.47058823529412</v>
+        <v>-56.00000000000001</v>
       </c>
       <c r="L967" t="n">
         <v>3410.4</v>
@@ -49748,7 +49770,7 @@
         <v>6323</v>
       </c>
       <c r="K968" t="n">
-        <v>-43.20987654320987</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L968" t="n">
         <v>3408.5</v>
@@ -49799,7 +49821,7 @@
         <v>6323</v>
       </c>
       <c r="K969" t="n">
-        <v>-36.98630136986301</v>
+        <v>-25.49019607843137</v>
       </c>
       <c r="L969" t="n">
         <v>3407.3</v>
@@ -49850,7 +49872,7 @@
         <v>6334</v>
       </c>
       <c r="K970" t="n">
-        <v>-31.85185185185185</v>
+        <v>-53.57142857142857</v>
       </c>
       <c r="L970" t="n">
         <v>3404.9</v>
@@ -49901,7 +49923,7 @@
         <v>6348</v>
       </c>
       <c r="K971" t="n">
-        <v>-8.396946564885496</v>
+        <v>-30.3030303030303</v>
       </c>
       <c r="L971" t="n">
         <v>3403.3</v>
@@ -49952,7 +49974,7 @@
         <v>6348</v>
       </c>
       <c r="K972" t="n">
-        <v>-12.6984126984127</v>
+        <v>-30.3030303030303</v>
       </c>
       <c r="L972" t="n">
         <v>3401.3</v>
@@ -50003,7 +50025,7 @@
         <v>6350</v>
       </c>
       <c r="K973" t="n">
-        <v>-14.96062992125984</v>
+        <v>-26.98412698412698</v>
       </c>
       <c r="L973" t="n">
         <v>3399.1</v>
@@ -50054,7 +50076,7 @@
         <v>6350</v>
       </c>
       <c r="K974" t="n">
-        <v>-25.86206896551724</v>
+        <v>-8</v>
       </c>
       <c r="L974" t="n">
         <v>3397.4</v>
@@ -50105,7 +50127,7 @@
         <v>6360</v>
       </c>
       <c r="K975" t="n">
-        <v>-20.37037037037037</v>
+        <v>0</v>
       </c>
       <c r="L975" t="n">
         <v>3396</v>
@@ -50156,7 +50178,7 @@
         <v>6366</v>
       </c>
       <c r="K976" t="n">
-        <v>-16.07142857142857</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="L976" t="n">
         <v>3396.6</v>
@@ -50207,7 +50229,7 @@
         <v>6372</v>
       </c>
       <c r="K977" t="n">
-        <v>-7.82608695652174</v>
+        <v>6.122448979591836</v>
       </c>
       <c r="L977" t="n">
         <v>3397.8</v>
@@ -50258,7 +50280,7 @@
         <v>6376</v>
       </c>
       <c r="K978" t="n">
-        <v>-10.71428571428571</v>
+        <v>13.20754716981132</v>
       </c>
       <c r="L978" t="n">
         <v>3398.5</v>
@@ -50309,7 +50331,7 @@
         <v>6376</v>
       </c>
       <c r="K979" t="n">
-        <v>-4.761904761904762</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L979" t="n">
         <v>3399.2</v>
@@ -50360,7 +50382,7 @@
         <v>6385</v>
       </c>
       <c r="K980" t="n">
-        <v>-13.27433628318584</v>
+        <v>-13.51351351351351</v>
       </c>
       <c r="L980" t="n">
         <v>3400.1</v>
@@ -50411,7 +50433,7 @@
         <v>6402</v>
       </c>
       <c r="K981" t="n">
-        <v>-30.64516129032258</v>
+        <v>-40.74074074074074</v>
       </c>
       <c r="L981" t="n">
         <v>3397.9</v>
@@ -50462,7 +50484,7 @@
         <v>6402</v>
       </c>
       <c r="K982" t="n">
-        <v>-35</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L982" t="n">
         <v>3395.7</v>
@@ -50513,7 +50535,7 @@
         <v>6402</v>
       </c>
       <c r="K983" t="n">
-        <v>-35</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L983" t="n">
         <v>3393.7</v>
@@ -50564,7 +50586,7 @@
         <v>6406</v>
       </c>
       <c r="K984" t="n">
-        <v>-27.73109243697479</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L984" t="n">
         <v>3392.1</v>
@@ -50615,7 +50637,7 @@
         <v>6407</v>
       </c>
       <c r="K985" t="n">
-        <v>-19.62616822429906</v>
+        <v>-31.70731707317073</v>
       </c>
       <c r="L985" t="n">
         <v>3391.4</v>
@@ -50666,7 +50688,7 @@
         <v>6425</v>
       </c>
       <c r="K986" t="n">
-        <v>-22.52252252252252</v>
+        <v>-69.81132075471697</v>
       </c>
       <c r="L986" t="n">
         <v>3388.3</v>
@@ -50717,7 +50739,7 @@
         <v>6431</v>
       </c>
       <c r="K987" t="n">
-        <v>-16.23931623931624</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L987" t="n">
         <v>3385.2</v>
@@ -50768,7 +50790,7 @@
         <v>6439</v>
       </c>
       <c r="K988" t="n">
-        <v>-17.24137931034483</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L988" t="n">
         <v>3382.5</v>
@@ -50819,7 +50841,7 @@
         <v>6451</v>
       </c>
       <c r="K989" t="n">
-        <v>-6.25</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L989" t="n">
         <v>3381</v>
@@ -50870,7 +50892,7 @@
         <v>6454</v>
       </c>
       <c r="K990" t="n">
-        <v>5</v>
+        <v>26.92307692307692</v>
       </c>
       <c r="L990" t="n">
         <v>3380.7</v>
@@ -50921,7 +50943,7 @@
         <v>6466</v>
       </c>
       <c r="K991" t="n">
-        <v>-16.94915254237288</v>
+        <v>3.125</v>
       </c>
       <c r="L991" t="n">
         <v>3380.9</v>
@@ -50972,7 +50994,7 @@
         <v>6474</v>
       </c>
       <c r="K992" t="n">
-        <v>-9.523809523809524</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="L992" t="n">
         <v>3381.9</v>
@@ -51023,7 +51045,7 @@
         <v>6480</v>
       </c>
       <c r="K993" t="n">
-        <v>-3.076923076923077</v>
+        <v>16.21621621621622</v>
       </c>
       <c r="L993" t="n">
         <v>3383.5</v>
@@ -51074,7 +51096,7 @@
         <v>6480</v>
       </c>
       <c r="K994" t="n">
-        <v>-3.076923076923077</v>
+        <v>17.80821917808219</v>
       </c>
       <c r="L994" t="n">
         <v>3384.7</v>
@@ -51125,7 +51147,7 @@
         <v>6486</v>
       </c>
       <c r="K995" t="n">
-        <v>9.523809523809524</v>
+        <v>60.65573770491803</v>
       </c>
       <c r="L995" t="n">
         <v>3386.6</v>
@@ -51176,7 +51198,7 @@
         <v>6486</v>
       </c>
       <c r="K996" t="n">
-        <v>5</v>
+        <v>56.36363636363636</v>
       </c>
       <c r="L996" t="n">
         <v>3390.3</v>
@@ -51227,7 +51249,7 @@
         <v>6491</v>
       </c>
       <c r="K997" t="n">
-        <v>4.201680672268908</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L997" t="n">
         <v>3393.9</v>
@@ -51278,7 +51300,7 @@
         <v>6492</v>
       </c>
       <c r="K998" t="n">
-        <v>0</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="L998" t="n">
         <v>3396.6</v>
@@ -51329,7 +51351,7 @@
         <v>6501</v>
       </c>
       <c r="K999" t="n">
-        <v>7.199999999999999</v>
+        <v>44.68085106382978</v>
       </c>
       <c r="L999" t="n">
         <v>3399</v>
@@ -51380,7 +51402,7 @@
         <v>6509</v>
       </c>
       <c r="K1000" t="n">
-        <v>8.064516129032258</v>
+        <v>58.13953488372093</v>
       </c>
       <c r="L1000" t="n">
         <v>3400.3</v>
@@ -51431,7 +51453,7 @@
         <v>6509</v>
       </c>
       <c r="K1001" t="n">
-        <v>25.23364485981308</v>
+        <v>48.57142857142857</v>
       </c>
       <c r="L1001" t="n">
         <v>3402.8</v>
@@ -51482,7 +51504,7 @@
         <v>6515</v>
       </c>
       <c r="K1002" t="n">
-        <v>29.20353982300885</v>
+        <v>48.57142857142857</v>
       </c>
       <c r="L1002" t="n">
         <v>3405.1</v>
@@ -51533,7 +51555,7 @@
         <v>6520</v>
       </c>
       <c r="K1003" t="n">
-        <v>32.20338983050847</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="L1003" t="n">
         <v>3407.3</v>
@@ -51584,7 +51606,7 @@
         <v>6522</v>
       </c>
       <c r="K1004" t="n">
-        <v>31.03448275862069</v>
+        <v>50</v>
       </c>
       <c r="L1004" t="n">
         <v>3409.7</v>
@@ -51635,7 +51657,7 @@
         <v>6526</v>
       </c>
       <c r="K1005" t="n">
-        <v>34.45378151260504</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="L1005" t="n">
         <v>3411.9</v>
@@ -51686,7 +51708,7 @@
         <v>6533</v>
       </c>
       <c r="K1006" t="n">
-        <v>48.14814814814815</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L1006" t="n">
         <v>3413.4</v>
@@ -51737,7 +51759,7 @@
         <v>6537</v>
       </c>
       <c r="K1007" t="n">
-        <v>39.62264150943396</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="L1007" t="n">
         <v>3414</v>
@@ -51788,7 +51810,7 @@
         <v>6551</v>
       </c>
       <c r="K1008" t="n">
-        <v>17.85714285714286</v>
+        <v>-32</v>
       </c>
       <c r="L1008" t="n">
         <v>3413.3</v>
@@ -51839,7 +51861,7 @@
         <v>6557</v>
       </c>
       <c r="K1009" t="n">
-        <v>1.886792452830189</v>
+        <v>-29.16666666666667</v>
       </c>
       <c r="L1009" t="n">
         <v>3411.1</v>
@@ -51890,7 +51912,7 @@
         <v>6558</v>
       </c>
       <c r="K1010" t="n">
-        <v>0</v>
+        <v>-26.53061224489796</v>
       </c>
       <c r="L1010" t="n">
         <v>3409.8</v>
@@ -51941,7 +51963,7 @@
         <v>6574</v>
       </c>
       <c r="K1011" t="n">
-        <v>-3.703703703703703</v>
+        <v>-59.32203389830508</v>
       </c>
       <c r="L1011" t="n">
         <v>3406.9</v>
@@ -51992,7 +52014,7 @@
         <v>6619</v>
       </c>
       <c r="K1012" t="n">
-        <v>-39.31034482758621</v>
+        <v>-85.85858585858585</v>
       </c>
       <c r="L1012" t="n">
         <v>3398.9</v>
@@ -52043,7 +52065,7 @@
         <v>6625</v>
       </c>
       <c r="K1013" t="n">
-        <v>-39.31034482758621</v>
+        <v>-78.64077669902912</v>
       </c>
       <c r="L1013" t="n">
         <v>3391</v>
@@ -52094,7 +52116,7 @@
         <v>6652</v>
       </c>
       <c r="K1014" t="n">
-        <v>-17.44186046511628</v>
+        <v>-46.03174603174603</v>
       </c>
       <c r="L1014" t="n">
         <v>3385.6</v>

--- a/BackTest/2019-10-09 BackTest LINK.xlsx
+++ b/BackTest/2019-10-09 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3454,11 +3454,17 @@
         <v>-14003.4076495753</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2998</v>
+      </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3493,17 @@
         <v>-11016.4076495753</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2992</v>
+      </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3532,17 @@
         <v>-11016.4076495753</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2997</v>
+      </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3571,17 @@
         <v>-11654.9303495753</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2997</v>
+      </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3610,17 @@
         <v>-11654.9303495753</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2989</v>
+      </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3649,17 @@
         <v>-10130.4562495753</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2989</v>
+      </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3688,17 @@
         <v>-5528.067449575296</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2993</v>
+      </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3727,17 @@
         <v>-4832.000849575296</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2998</v>
+      </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3766,17 @@
         <v>-1593.700618406465</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>2999</v>
+      </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3805,17 @@
         <v>-2113.700618406465</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3006</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +3844,17 @@
         <v>-2114.700618406465</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>3000</v>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +3887,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +3924,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +3961,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +3998,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4035,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4072,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4109,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4146,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4183,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4216,17 @@
         <v>715.5173815935349</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>3012</v>
+      </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4259,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4296,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4333,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4370,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4407,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4444,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4481,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4518,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4555,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4592,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4629,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +4666,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +4703,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +4740,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +4777,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +4814,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +4851,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +4888,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +4925,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +4962,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +4999,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +5036,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +5073,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5110,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5147,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5184,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5221,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5258,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5295,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5332,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5369,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5406,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5443,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5240,7 +5480,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5517,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5306,7 +5554,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5339,7 +5591,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5372,7 +5628,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5405,7 +5665,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5438,7 +5702,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5471,7 +5739,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5504,7 +5776,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5537,7 +5813,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5570,7 +5850,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +5887,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5636,7 +5924,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5669,7 +5961,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5702,7 +5998,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5735,7 +6035,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5768,7 +6072,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5801,7 +6109,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5834,7 +6146,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5867,7 +6183,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5900,7 +6220,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5933,7 +6257,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5966,7 +6294,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5999,7 +6331,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6032,7 +6368,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6065,7 +6405,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6098,7 +6442,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6131,7 +6479,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6164,7 +6516,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6197,7 +6553,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6230,7 +6590,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6263,7 +6627,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6296,7 +6664,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6329,7 +6701,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6362,7 +6738,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6395,7 +6775,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6428,7 +6812,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6461,7 +6849,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6494,7 +6886,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6527,7 +6923,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6560,7 +6960,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6593,7 +6997,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6626,7 +7034,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6655,11 +7067,17 @@
         <v>-228.6161927866298</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>3003</v>
+      </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6688,11 +7106,17 @@
         <v>-228.6161927866298</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>3004</v>
+      </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6721,11 +7145,17 @@
         <v>-479.5736927866299</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>3004</v>
+      </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6754,11 +7184,17 @@
         <v>-499.2236927866298</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>2989</v>
+      </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6787,11 +7223,17 @@
         <v>-515.3950927866298</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>2984</v>
+      </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6820,11 +7262,17 @@
         <v>-575.9950927866298</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>2983</v>
+      </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6853,11 +7301,17 @@
         <v>-6295.99509278663</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>2981</v>
+      </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6886,11 +7340,17 @@
         <v>-6315.99509278663</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>2964</v>
+      </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6919,11 +7379,17 @@
         <v>-7504.892292786631</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>2962</v>
+      </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6952,11 +7418,17 @@
         <v>-13608.68709278663</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>2950</v>
+      </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +7457,17 @@
         <v>-12047.43729278663</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>2945</v>
+      </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +7496,17 @@
         <v>-9587.39589278663</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>2964</v>
+      </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +7535,17 @@
         <v>-9434.86239278663</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>2966</v>
+      </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7084,11 +7574,17 @@
         <v>-9067.087392786631</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>2967</v>
+      </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7117,11 +7613,17 @@
         <v>-8987.18729278663</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>2970</v>
+      </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7150,7 +7652,7 @@
         <v>-5075.14359278663</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>2974</v>
@@ -7158,7 +7660,7 @@
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L205" t="n">
@@ -7189,7 +7691,7 @@
         <v>-4964.60729278663</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>2979</v>
@@ -7228,7 +7730,7 @@
         <v>-4975.69639278663</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>2980</v>
@@ -7267,9 +7769,11 @@
         <v>-5022.25369278663</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>2969</v>
+      </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
@@ -7304,7 +7808,7 @@
         <v>-5586.81119278663</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>2968</v>
@@ -7343,7 +7847,7 @@
         <v>-5130.748892786631</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>2961</v>
@@ -7382,7 +7886,7 @@
         <v>-4337.996692786631</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>2962</v>
@@ -7421,7 +7925,7 @@
         <v>-4337.996692786631</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>2978</v>
@@ -7460,7 +7964,7 @@
         <v>-4337.996692786631</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>2978</v>
@@ -7499,7 +8003,7 @@
         <v>-4295.86479278663</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>2978</v>
@@ -7538,7 +8042,7 @@
         <v>-4290.86479278663</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>2979</v>
@@ -7577,7 +8081,7 @@
         <v>-4485.53819278663</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>2989</v>
@@ -7616,7 +8120,7 @@
         <v>-4529.17499278663</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>2985</v>
@@ -7655,7 +8159,7 @@
         <v>-4546.89199278663</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>2978</v>
@@ -7694,7 +8198,7 @@
         <v>-4639.52209278663</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>2967</v>
@@ -7733,7 +8237,7 @@
         <v>-6432.11029278663</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>2963</v>
@@ -7772,7 +8276,7 @@
         <v>-6432.11029278663</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>2958</v>
@@ -7811,7 +8315,7 @@
         <v>-7132.175592786631</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>2958</v>
@@ -7850,7 +8354,7 @@
         <v>-3770.867892786631</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>2957</v>
@@ -7889,7 +8393,7 @@
         <v>-3737.513892786631</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>2973</v>
@@ -7928,7 +8432,7 @@
         <v>-3811.681492786631</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>2977</v>
@@ -7967,7 +8471,7 @@
         <v>-4320.41829278663</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>2970</v>
@@ -8006,7 +8510,7 @@
         <v>-4280.63439278663</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>2949</v>
@@ -8045,7 +8549,7 @@
         <v>-2631.79189278663</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>2963</v>
@@ -8084,7 +8588,7 @@
         <v>-2908.67769278663</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>2989</v>
@@ -8123,7 +8627,7 @@
         <v>-2908.67769278663</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>2980</v>
@@ -8162,7 +8666,7 @@
         <v>-2908.67769278663</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>2980</v>
@@ -8201,7 +8705,7 @@
         <v>-2967.37769278663</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>2980</v>
@@ -8240,7 +8744,7 @@
         <v>-2962.37769278663</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>2978</v>
@@ -8279,7 +8783,7 @@
         <v>-3468.85809278663</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>2984</v>
@@ -8318,7 +8822,7 @@
         <v>-3459.65049278663</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>2961</v>
@@ -8357,7 +8861,7 @@
         <v>-3538.42649278663</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>2971</v>
@@ -8396,7 +8900,7 @@
         <v>-3538.42649278663</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>2962</v>
@@ -8435,7 +8939,7 @@
         <v>-6791.203292786629</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>2962</v>
@@ -8474,7 +8978,7 @@
         <v>-6665.42009278663</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>2950</v>
@@ -8513,7 +9017,7 @@
         <v>-6665.42009278663</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>2953</v>
@@ -8552,7 +9056,7 @@
         <v>-12530.05549278663</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>2953</v>
@@ -8591,7 +9095,7 @@
         <v>-10703.23559278663</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>2952</v>
@@ -8630,7 +9134,7 @@
         <v>-12269.52129278663</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>2971</v>
@@ -8669,7 +9173,7 @@
         <v>-12082.64629278663</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>2957</v>
@@ -8708,7 +9212,7 @@
         <v>-12091.85389278663</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>2978</v>
@@ -8747,7 +9251,7 @@
         <v>-11973.78289278663</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>2974</v>
@@ -8786,7 +9290,7 @@
         <v>-12039.88289278663</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>2980</v>
@@ -8825,7 +9329,7 @@
         <v>-12022.06919278663</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>2971</v>
@@ -8864,7 +9368,7 @@
         <v>-11922.97859278663</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>2976</v>
@@ -8903,7 +9407,7 @@
         <v>-12005.57859278663</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>2977</v>
@@ -8942,7 +9446,7 @@
         <v>-12817.39839278663</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>2973</v>
@@ -8981,7 +9485,7 @@
         <v>-12317.39839278663</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>2968</v>
@@ -9020,7 +9524,7 @@
         <v>-12929.69999278663</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>2986</v>
@@ -9059,7 +9563,7 @@
         <v>-11192.44559278663</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>2985</v>
@@ -9098,7 +9602,7 @@
         <v>-11192.44559278663</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>2992</v>
@@ -9137,7 +9641,7 @@
         <v>-11392.29639278663</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>2992</v>
@@ -9176,7 +9680,7 @@
         <v>-11473.37769278663</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>2984</v>
@@ -9215,7 +9719,7 @@
         <v>-15271.30259278663</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>2977</v>
@@ -9254,7 +9758,7 @@
         <v>-14310.52379278663</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>2962</v>
@@ -9293,7 +9797,7 @@
         <v>-14410.52379278663</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>2992</v>
@@ -9332,7 +9836,7 @@
         <v>-13795.52379278663</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>2986</v>
@@ -9371,7 +9875,7 @@
         <v>-11188.52379278663</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>2992</v>
@@ -9410,7 +9914,7 @@
         <v>-11177.74389278663</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>2993</v>
@@ -9449,7 +9953,7 @@
         <v>-11177.74389278663</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>3000</v>
@@ -9488,7 +9992,7 @@
         <v>-11177.74389278663</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>3000</v>
@@ -9527,9 +10031,11 @@
         <v>-11177.74389278663</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>3000</v>
+      </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -9564,9 +10070,11 @@
         <v>-11306.14659278663</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>3000</v>
+      </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -9601,9 +10109,11 @@
         <v>-11124.46059278663</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>2994</v>
+      </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -9638,7 +10148,7 @@
         <v>-11591.72459278663</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>3001</v>
@@ -9677,7 +10187,7 @@
         <v>-11335.59449278663</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>2995</v>
@@ -9716,7 +10226,7 @@
         <v>-10757.89449278663</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>3005</v>
@@ -9755,7 +10265,7 @@
         <v>-10255.89449278663</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>3012</v>
@@ -9794,7 +10304,7 @@
         <v>-9806.112292786629</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>3013</v>
@@ -9870,9 +10380,11 @@
         <v>-9933.219972362927</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>3014</v>
+      </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
@@ -10166,9 +10678,11 @@
         <v>-8514.057324018557</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>3019</v>
+      </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
@@ -10240,9 +10754,11 @@
         <v>-5715.443824018557</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>3020</v>
+      </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
@@ -10314,9 +10830,11 @@
         <v>-6804.031324018557</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>3021</v>
+      </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
@@ -10610,9 +11128,11 @@
         <v>-9755.166672362928</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>3005</v>
+      </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
@@ -10647,9 +11167,11 @@
         <v>-9739.366672362929</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>3005</v>
+      </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
@@ -10684,9 +11206,11 @@
         <v>-9659.438872362929</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>3020</v>
+      </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -10832,9 +11356,11 @@
         <v>-10093.24667236293</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>3013</v>
+      </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -10869,9 +11395,11 @@
         <v>-11346.14317236293</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>3013</v>
+      </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
@@ -10906,9 +11434,11 @@
         <v>-11290.03057236293</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>3010</v>
+      </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
@@ -10943,9 +11473,11 @@
         <v>-11198.51647236293</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>3020</v>
+      </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
@@ -10980,9 +11512,11 @@
         <v>-15348.74557236293</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>3023</v>
+      </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
@@ -16123,9 +16657,11 @@
         <v>-34448.78816982539</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>3003</v>
+      </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
@@ -16197,9 +16733,11 @@
         <v>-39519.85446982539</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>3003</v>
+      </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
@@ -16345,9 +16883,11 @@
         <v>-39545.03216982539</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>2980</v>
+      </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
@@ -16382,9 +16922,11 @@
         <v>-39545.03216982539</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>2988</v>
+      </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
@@ -16419,9 +16961,11 @@
         <v>-39665.03216982539</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>2988</v>
+      </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
@@ -16456,9 +17000,11 @@
         <v>-39330.36016982539</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>2984</v>
+      </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
@@ -16493,9 +17039,11 @@
         <v>-39106.11856982539</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>2990</v>
+      </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
@@ -16530,9 +17078,11 @@
         <v>-39106.86676982539</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>3007</v>
+      </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
@@ -16567,9 +17117,11 @@
         <v>-38886.50266982539</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>3004</v>
+      </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
@@ -16604,9 +17156,11 @@
         <v>-38700.44046982539</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>3005</v>
+      </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
@@ -16641,9 +17195,11 @@
         <v>-38306.32016982539</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>3010</v>
+      </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
@@ -16678,9 +17234,11 @@
         <v>-39121.82526982539</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>3040</v>
+      </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
@@ -16715,9 +17273,11 @@
         <v>-39268.1252698254</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>3039</v>
+      </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
@@ -25780,16 +26340,18 @@
         <v>25151.29964584464</v>
       </c>
       <c r="H705" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L705" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L705" t="n">
+        <v>1</v>
+      </c>
       <c r="M705" t="inlineStr"/>
     </row>
     <row r="706">
@@ -25815,11 +26377,15 @@
         <v>28854.10734584464</v>
       </c>
       <c r="H706" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -25848,11 +26414,15 @@
         <v>28854.10734584464</v>
       </c>
       <c r="H707" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -25881,11 +26451,15 @@
         <v>30296.78914584464</v>
       </c>
       <c r="H708" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -25914,11 +26488,15 @@
         <v>31313.97344584464</v>
       </c>
       <c r="H709" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -25947,11 +26525,15 @@
         <v>28818.04023166113</v>
       </c>
       <c r="H710" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -25980,11 +26562,15 @@
         <v>28818.04023166113</v>
       </c>
       <c r="H711" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -26013,11 +26599,15 @@
         <v>29215.96813166112</v>
       </c>
       <c r="H712" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -26046,11 +26636,15 @@
         <v>29097.04103166112</v>
       </c>
       <c r="H713" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -26079,11 +26673,15 @@
         <v>25874.90483166112</v>
       </c>
       <c r="H714" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -26112,11 +26710,15 @@
         <v>32318.36453166112</v>
       </c>
       <c r="H715" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -26149,7 +26751,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -26178,11 +26784,15 @@
         <v>31673.98503166113</v>
       </c>
       <c r="H717" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -26211,11 +26821,15 @@
         <v>30308.62991453064</v>
       </c>
       <c r="H718" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -26244,11 +26858,15 @@
         <v>27871.61131453064</v>
       </c>
       <c r="H719" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -26277,11 +26895,15 @@
         <v>28267.76851453064</v>
       </c>
       <c r="H720" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -26310,11 +26932,15 @@
         <v>24766.76911453064</v>
       </c>
       <c r="H721" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -26343,11 +26969,15 @@
         <v>24766.76911453064</v>
       </c>
       <c r="H722" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -26380,7 +27010,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -26413,7 +27047,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -26446,7 +27084,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -26479,7 +27121,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -26512,7 +27158,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -26545,7 +27195,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -26578,7 +27232,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -26611,7 +27269,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -26644,7 +27306,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -26677,7 +27343,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -26710,7 +27380,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -26743,7 +27417,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -26776,7 +27454,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -26809,7 +27491,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -26842,7 +27528,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -26875,7 +27565,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -26908,7 +27602,11 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -26941,7 +27639,11 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -26974,7 +27676,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -27007,7 +27713,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -27040,7 +27750,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -27069,11 +27783,15 @@
         <v>25603.09441441796</v>
       </c>
       <c r="H744" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -27106,7 +27824,11 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -27139,7 +27861,11 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -27172,7 +27898,11 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -27205,7 +27935,11 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -27238,7 +27972,11 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -27271,7 +28009,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -27304,7 +28046,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -27337,7 +28083,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -27370,7 +28120,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -27403,7 +28157,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -27436,7 +28194,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -27469,7 +28231,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -27502,7 +28268,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -27535,7 +28305,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -27568,7 +28342,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -27601,7 +28379,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -27634,7 +28416,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -27667,7 +28453,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -27700,7 +28490,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -27733,7 +28527,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -27766,7 +28564,11 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -27799,7 +28601,11 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -27832,7 +28638,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -27865,7 +28675,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -27898,7 +28712,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -27931,7 +28749,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -27964,7 +28786,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -27997,7 +28823,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -28030,7 +28860,11 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -28063,7 +28897,11 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -28096,7 +28934,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -28129,7 +28971,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -28162,7 +29008,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -28195,7 +29045,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -28228,7 +29082,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -28261,7 +29119,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -28294,7 +29156,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -28327,7 +29193,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -28360,7 +29230,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -28393,7 +29267,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -28426,7 +29304,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -28459,7 +29341,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -28488,11 +29374,15 @@
         <v>32210.52417537153</v>
       </c>
       <c r="H787" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -28525,7 +29415,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -28558,7 +29452,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -28591,7 +29489,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -28624,7 +29526,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -28657,7 +29563,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -28690,7 +29600,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -28723,7 +29637,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -28756,7 +29674,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -28789,7 +29711,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -28818,11 +29744,15 @@
         <v>39343.63792089047</v>
       </c>
       <c r="H797" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -28851,11 +29781,15 @@
         <v>34823.3586201191</v>
       </c>
       <c r="H798" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -28884,11 +29818,15 @@
         <v>35061.9310201191</v>
       </c>
       <c r="H799" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -28917,11 +29855,15 @@
         <v>47636.2976355461</v>
       </c>
       <c r="H800" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -28950,11 +29892,15 @@
         <v>47636.2976355461</v>
       </c>
       <c r="H801" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -28983,11 +29929,15 @@
         <v>53505.3553355461</v>
       </c>
       <c r="H802" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -29016,11 +29966,15 @@
         <v>55228.3067355461</v>
       </c>
       <c r="H803" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -29049,11 +30003,15 @@
         <v>56109.0200355461</v>
       </c>
       <c r="H804" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -29082,11 +30040,15 @@
         <v>53361.9364355461</v>
       </c>
       <c r="H805" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -29115,11 +30077,15 @@
         <v>52305.70611332387</v>
       </c>
       <c r="H806" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -29148,11 +30114,15 @@
         <v>52305.70611332387</v>
       </c>
       <c r="H807" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -29181,11 +30151,15 @@
         <v>52324.00611332388</v>
       </c>
       <c r="H808" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -29214,11 +30188,15 @@
         <v>52324.00611332388</v>
       </c>
       <c r="H809" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -29247,11 +30225,15 @@
         <v>54487.62051332388</v>
       </c>
       <c r="H810" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -29280,11 +30262,15 @@
         <v>59271.74501332387</v>
       </c>
       <c r="H811" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -29313,11 +30299,15 @@
         <v>64565.26941332388</v>
       </c>
       <c r="H812" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -29350,7 +30340,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -29379,11 +30373,15 @@
         <v>72930.83640571748</v>
       </c>
       <c r="H814" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -29412,11 +30410,15 @@
         <v>69069.65444836764</v>
       </c>
       <c r="H815" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -29445,11 +30447,15 @@
         <v>62321.83364836764</v>
       </c>
       <c r="H816" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -29478,11 +30484,15 @@
         <v>61473.88304836764</v>
       </c>
       <c r="H817" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -29511,11 +30521,15 @@
         <v>67206.41876351916</v>
       </c>
       <c r="H818" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -29544,11 +30558,15 @@
         <v>70313.7943935463</v>
       </c>
       <c r="H819" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -29577,11 +30595,15 @@
         <v>70313.7943935463</v>
       </c>
       <c r="H820" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -29610,11 +30632,15 @@
         <v>67745.61689354629</v>
       </c>
       <c r="H821" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -29647,7 +30673,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -29680,7 +30710,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -29713,7 +30747,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -29746,7 +30784,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -29779,7 +30821,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -29812,7 +30858,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -29845,7 +30895,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -29878,7 +30932,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -29911,7 +30969,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -29944,7 +31006,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -29977,7 +31043,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -30010,7 +31080,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -30043,7 +31117,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -30076,7 +31154,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -30109,7 +31191,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -30142,7 +31228,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -30175,7 +31265,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -30208,7 +31302,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -30241,7 +31339,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -30274,7 +31376,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -30307,7 +31413,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -30340,7 +31450,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -30373,7 +31487,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -30406,7 +31524,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -30439,7 +31561,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -30468,11 +31594,15 @@
         <v>61167.94366812989</v>
       </c>
       <c r="H847" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -30501,11 +31631,15 @@
         <v>61289.10026812989</v>
       </c>
       <c r="H848" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -30534,11 +31668,15 @@
         <v>61289.10026812989</v>
       </c>
       <c r="H849" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -30571,7 +31709,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -30604,7 +31746,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -30637,7 +31783,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -30670,7 +31820,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -30703,7 +31857,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -30736,7 +31894,11 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -30769,7 +31931,11 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -30802,7 +31968,11 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -30831,11 +32001,15 @@
         <v>74882.16687774185</v>
       </c>
       <c r="H858" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -30864,11 +32038,15 @@
         <v>83341.08357774185</v>
       </c>
       <c r="H859" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -30897,11 +32075,15 @@
         <v>101693.0869777419</v>
       </c>
       <c r="H860" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -30930,11 +32112,15 @@
         <v>99873.90487774185</v>
       </c>
       <c r="H861" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -30963,11 +32149,15 @@
         <v>99961.20487774185</v>
       </c>
       <c r="H862" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -30996,11 +32186,15 @@
         <v>88764.06048826818</v>
       </c>
       <c r="H863" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -31029,11 +32223,15 @@
         <v>90943.25078826818</v>
       </c>
       <c r="H864" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -31062,11 +32260,15 @@
         <v>90943.25078826818</v>
       </c>
       <c r="H865" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -31095,11 +32297,15 @@
         <v>92202.16038826818</v>
       </c>
       <c r="H866" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -31128,11 +32334,15 @@
         <v>96891.41573394169</v>
       </c>
       <c r="H867" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -31165,7 +32375,11 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -31194,11 +32408,15 @@
         <v>107533.6888882682</v>
       </c>
       <c r="H869" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -31231,7 +32449,11 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -31260,11 +32482,15 @@
         <v>117476.9950882682</v>
       </c>
       <c r="H871" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -31297,7 +32523,11 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -31326,11 +32556,15 @@
         <v>103874.6276013915</v>
       </c>
       <c r="H873" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -31359,11 +32593,15 @@
         <v>92762.45430139155</v>
       </c>
       <c r="H874" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -31392,11 +32630,15 @@
         <v>95428.11860139156</v>
       </c>
       <c r="H875" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -31425,11 +32667,15 @@
         <v>101286.9521013916</v>
       </c>
       <c r="H876" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -31458,11 +32704,15 @@
         <v>104029.3057013916</v>
       </c>
       <c r="H877" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -31491,11 +32741,15 @@
         <v>107983.1017013916</v>
       </c>
       <c r="H878" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -31524,11 +32778,15 @@
         <v>134947.8438013915</v>
       </c>
       <c r="H879" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -31557,11 +32815,15 @@
         <v>123203.8256952399</v>
       </c>
       <c r="H880" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -31590,11 +32852,15 @@
         <v>124476.7899952399</v>
       </c>
       <c r="H881" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -31627,7 +32893,11 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -31656,11 +32926,15 @@
         <v>121482.1139373108</v>
       </c>
       <c r="H883" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -31693,7 +32967,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -31722,14 +33000,16 @@
         <v>126309.155652236</v>
       </c>
       <c r="H885" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
-      <c r="L885" t="n">
-        <v>1</v>
-      </c>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L885" t="inlineStr"/>
       <c r="M885" t="inlineStr"/>
     </row>
     <row r="886">
@@ -31755,7 +33035,7 @@
         <v>119902.943752236</v>
       </c>
       <c r="H886" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -31788,7 +33068,7 @@
         <v>109487.461252236</v>
       </c>
       <c r="H887" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -31821,7 +33101,7 @@
         <v>100101.943452236</v>
       </c>
       <c r="H888" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -31854,7 +33134,7 @@
         <v>117381.167552236</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -31887,7 +33167,7 @@
         <v>123075.4526540786</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -31920,7 +33200,7 @@
         <v>120857.0858615413</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -31953,7 +33233,7 @@
         <v>122318.9852615413</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -31986,7 +33266,7 @@
         <v>116363.6497615413</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -32019,7 +33299,7 @@
         <v>106033.4490615413</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -32052,7 +33332,7 @@
         <v>110700.1034615413</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -32085,7 +33365,7 @@
         <v>108413.2497615413</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -32118,7 +33398,7 @@
         <v>105270.4761760417</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -32151,7 +33431,7 @@
         <v>105275.4761760417</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -32184,7 +33464,7 @@
         <v>102162.469905844</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -32217,7 +33497,7 @@
         <v>98476.33970584403</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -32250,7 +33530,7 @@
         <v>100112.399505844</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -32283,7 +33563,7 @@
         <v>98586.30148584994</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -32316,7 +33596,7 @@
         <v>97765.56248584994</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -32349,7 +33629,7 @@
         <v>93088.45468584994</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -32382,7 +33662,7 @@
         <v>104849.6789858499</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -32415,7 +33695,7 @@
         <v>103174.1833858499</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -32448,7 +33728,7 @@
         <v>98838.02618584994</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -32481,7 +33761,7 @@
         <v>100068.7509858499</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -32514,7 +33794,7 @@
         <v>101462.4006858499</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -32547,7 +33827,7 @@
         <v>102023.7114858499</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -32877,7 +34157,7 @@
         <v>109931.0828632702</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -32943,7 +34223,7 @@
         <v>111953.8811632702</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -32976,7 +34256,7 @@
         <v>112002.3840632702</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -33009,7 +34289,7 @@
         <v>112815.1973632702</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -33042,7 +34322,7 @@
         <v>112815.1973632702</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -33075,7 +34355,7 @@
         <v>110319.7658632702</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -33108,7 +34388,7 @@
         <v>107298.7964632702</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -33141,7 +34421,7 @@
         <v>107298.7964632702</v>
       </c>
       <c r="H928" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -33174,7 +34454,7 @@
         <v>107298.7964632702</v>
       </c>
       <c r="H929" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -33207,7 +34487,7 @@
         <v>107298.7964632702</v>
       </c>
       <c r="H930" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -33240,7 +34520,7 @@
         <v>107298.7964632702</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -33273,7 +34553,7 @@
         <v>103655.7515632702</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -33306,7 +34586,7 @@
         <v>103655.7515632702</v>
       </c>
       <c r="H933" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -33339,7 +34619,7 @@
         <v>104709.9639632702</v>
       </c>
       <c r="H934" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -33372,7 +34652,7 @@
         <v>105451.9986632702</v>
       </c>
       <c r="H935" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -33405,7 +34685,7 @@
         <v>107122.6580632703</v>
       </c>
       <c r="H936" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -33438,7 +34718,7 @@
         <v>108498.8398632703</v>
       </c>
       <c r="H937" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -33471,7 +34751,7 @@
         <v>110979.5875632703</v>
       </c>
       <c r="H938" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -33504,7 +34784,7 @@
         <v>108657.4862632703</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -33537,7 +34817,7 @@
         <v>110199.0392632703</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -33570,7 +34850,7 @@
         <v>107290.4993490929</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -33603,7 +34883,7 @@
         <v>106929.3141490929</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -33636,7 +34916,7 @@
         <v>106929.3141490929</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -33669,7 +34949,7 @@
         <v>106728.6317490929</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -33702,7 +34982,7 @@
         <v>106728.6317490929</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -33735,7 +35015,7 @@
         <v>107421.3291490929</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -33801,7 +35081,7 @@
         <v>106251.9448490929</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -33933,7 +35213,7 @@
         <v>104553.6961490929</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -33966,7 +35246,7 @@
         <v>104207.9432490929</v>
       </c>
       <c r="H953" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -33999,7 +35279,7 @@
         <v>104207.9432490929</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -34032,7 +35312,7 @@
         <v>103056.6190490929</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -34065,7 +35345,7 @@
         <v>100643.6087490929</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -34098,7 +35378,7 @@
         <v>100434.6358490929</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -34131,7 +35411,7 @@
         <v>91891.29624909291</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -34164,7 +35444,7 @@
         <v>89503.4318490929</v>
       </c>
       <c r="H959" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -34197,7 +35477,7 @@
         <v>89726.0599490929</v>
       </c>
       <c r="H960" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -34230,7 +35510,7 @@
         <v>89585.0866490929</v>
       </c>
       <c r="H961" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -34263,7 +35543,7 @@
         <v>80258.7278490929</v>
       </c>
       <c r="H962" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -34296,7 +35576,7 @@
         <v>80269.2534490929</v>
       </c>
       <c r="H963" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -34329,7 +35609,7 @@
         <v>81635.73524909289</v>
       </c>
       <c r="H964" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -34362,7 +35642,7 @@
         <v>81635.73524909289</v>
       </c>
       <c r="H965" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -34395,7 +35675,7 @@
         <v>81994.35811185415</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -34428,7 +35708,7 @@
         <v>81158.96761185415</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -34461,7 +35741,7 @@
         <v>79437.85571185415</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -34494,7 +35774,7 @@
         <v>79886.76711185415</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -34527,7 +35807,7 @@
         <v>78867.21760398106</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -34560,7 +35840,7 @@
         <v>77036.14650398106</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -34593,7 +35873,7 @@
         <v>77689.66700398106</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -34626,7 +35906,7 @@
         <v>79283.23150398105</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -34659,7 +35939,7 @@
         <v>79283.23150398105</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -34692,7 +35972,7 @@
         <v>79782.58970398105</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -34725,7 +36005,7 @@
         <v>79782.58970398105</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -34758,7 +36038,7 @@
         <v>79782.58970398105</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -34791,7 +36071,7 @@
         <v>80286.32920398105</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -34824,7 +36104,7 @@
         <v>81890.04340398105</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -34857,7 +36137,7 @@
         <v>81876.85690398105</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -34890,7 +36170,7 @@
         <v>81734.46080398106</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -34923,7 +36203,7 @@
         <v>81825.24080398105</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -34956,7 +36236,7 @@
         <v>90537.86280398106</v>
       </c>
       <c r="H983" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -34989,7 +36269,7 @@
         <v>96763.08030398106</v>
       </c>
       <c r="H984" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -35022,7 +36302,7 @@
         <v>95301.00710398106</v>
       </c>
       <c r="H985" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -35055,7 +36335,7 @@
         <v>93396.35640398106</v>
       </c>
       <c r="H986" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -35088,7 +36368,7 @@
         <v>93361.35640398106</v>
       </c>
       <c r="H987" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -35121,7 +36401,7 @@
         <v>93361.35640398106</v>
       </c>
       <c r="H988" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -35154,7 +36434,7 @@
         <v>93226.15540398106</v>
       </c>
       <c r="H989" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -35187,7 +36467,7 @@
         <v>93219.66060398106</v>
       </c>
       <c r="H990" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -35220,7 +36500,7 @@
         <v>93219.66060398106</v>
       </c>
       <c r="H991" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -35253,7 +36533,7 @@
         <v>93219.66060398106</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -35286,7 +36566,7 @@
         <v>93234.58050398105</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -35319,7 +36599,7 @@
         <v>94584.78930398104</v>
       </c>
       <c r="H994" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -35352,7 +36632,7 @@
         <v>93776.81990398104</v>
       </c>
       <c r="H995" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -35385,7 +36665,7 @@
         <v>93414.85080398104</v>
       </c>
       <c r="H996" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -35418,7 +36698,7 @@
         <v>93966.50110398103</v>
       </c>
       <c r="H997" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -35451,7 +36731,7 @@
         <v>104754.190003981</v>
       </c>
       <c r="H998" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -35484,7 +36764,7 @@
         <v>104029.914903981</v>
       </c>
       <c r="H999" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -35517,7 +36797,7 @@
         <v>107120.625703981</v>
       </c>
       <c r="H1000" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -35550,7 +36830,7 @@
         <v>107686.206503981</v>
       </c>
       <c r="H1001" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -35583,7 +36863,7 @@
         <v>107519.433703981</v>
       </c>
       <c r="H1002" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -35616,7 +36896,7 @@
         <v>104911.445903981</v>
       </c>
       <c r="H1003" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -35649,7 +36929,7 @@
         <v>105346.391303981</v>
       </c>
       <c r="H1004" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -35682,7 +36962,7 @@
         <v>104478.8740305839</v>
       </c>
       <c r="H1005" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -35715,7 +36995,7 @@
         <v>107815.1229571867</v>
       </c>
       <c r="H1006" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -35748,7 +37028,7 @@
         <v>109325.0830325323</v>
       </c>
       <c r="H1007" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -35781,7 +37061,7 @@
         <v>108149.2011325323</v>
       </c>
       <c r="H1008" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -35814,7 +37094,7 @@
         <v>94461.26783253232</v>
       </c>
       <c r="H1009" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -35847,7 +37127,7 @@
         <v>88812.53623253232</v>
       </c>
       <c r="H1010" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -35880,7 +37160,7 @@
         <v>93325.68843253232</v>
       </c>
       <c r="H1011" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -35913,7 +37193,7 @@
         <v>94825.68843253232</v>
       </c>
       <c r="H1012" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -35946,7 +37226,7 @@
         <v>95471.49253253231</v>
       </c>
       <c r="H1013" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -35979,7 +37259,7 @@
         <v>80759.65003253231</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -36012,7 +37292,7 @@
         <v>83349.62733253231</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -36045,7 +37325,7 @@
         <v>83094.66133253231</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -36078,7 +37358,7 @@
         <v>85590.91403253231</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -36111,7 +37391,7 @@
         <v>84439.31673253232</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -36144,7 +37424,7 @@
         <v>84603.54123253231</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -36177,7 +37457,7 @@
         <v>84631.70393253231</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -36210,7 +37490,7 @@
         <v>85618.12853960421</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -36243,7 +37523,7 @@
         <v>85618.12853960421</v>
       </c>
       <c r="H1022" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -36276,7 +37556,7 @@
         <v>85611.67353960421</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -36309,7 +37589,7 @@
         <v>83286.71593960421</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -36342,7 +37622,7 @@
         <v>74557.93973960422</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -36375,7 +37655,7 @@
         <v>74557.93973960422</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -36408,7 +37688,7 @@
         <v>74742.06953960421</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -36441,7 +37721,7 @@
         <v>74742.06953960421</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -36474,7 +37754,7 @@
         <v>70135.88373960421</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -36507,7 +37787,7 @@
         <v>70501.7372396042</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -36540,7 +37820,7 @@
         <v>70501.7372396042</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -36573,7 +37853,7 @@
         <v>70414.5229396042</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -36606,7 +37886,7 @@
         <v>70414.5229396042</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -36639,7 +37919,7 @@
         <v>68796.7607396042</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -36672,7 +37952,7 @@
         <v>69115.80803960421</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -36705,7 +37985,7 @@
         <v>70251.26361199161</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -36738,7 +38018,7 @@
         <v>70252.15761199161</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -36771,7 +38051,7 @@
         <v>70252.15761199161</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -36804,7 +38084,7 @@
         <v>70188.08181199161</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -36837,7 +38117,7 @@
         <v>69214.89261199161</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -36870,7 +38150,7 @@
         <v>69214.89261199161</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -36903,7 +38183,7 @@
         <v>69214.89261199161</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -36936,7 +38216,7 @@
         <v>69224.60331199161</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -36969,7 +38249,7 @@
         <v>67139.46141199161</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -37002,7 +38282,7 @@
         <v>63540.66701199161</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -37035,7 +38315,7 @@
         <v>65224.53801199161</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -37068,7 +38348,7 @@
         <v>65243.44501199161</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -37101,7 +38381,7 @@
         <v>67048.20171199161</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -37134,7 +38414,7 @@
         <v>67270.60171199161</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -37167,7 +38447,7 @@
         <v>66614.01131199161</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -37200,7 +38480,7 @@
         <v>67111.90541199161</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -37233,7 +38513,7 @@
         <v>67469.13971199161</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -37266,7 +38546,7 @@
         <v>67469.13971199161</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -37299,7 +38579,7 @@
         <v>68163.88401199161</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -37332,7 +38612,7 @@
         <v>68163.88401199161</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -37365,7 +38645,7 @@
         <v>70312.13211199161</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -37398,7 +38678,7 @@
         <v>69468.64581199161</v>
       </c>
       <c r="H1057" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -37431,7 +38711,7 @@
         <v>71897.85765869732</v>
       </c>
       <c r="H1058" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -37464,7 +38744,7 @@
         <v>71397.85765869732</v>
       </c>
       <c r="H1059" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -37497,7 +38777,7 @@
         <v>71397.85765869732</v>
       </c>
       <c r="H1060" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -37530,7 +38810,7 @@
         <v>71525.95765869733</v>
       </c>
       <c r="H1061" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -37563,7 +38843,7 @@
         <v>73997.56725869732</v>
       </c>
       <c r="H1062" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -37574,6 +38854,6 @@
       <c r="M1062" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-09 BackTest LINK.xlsx
+++ b/BackTest/2019-10-09 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3454,17 +3454,11 @@
         <v>-14003.4076495753</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>2998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3493,17 +3487,11 @@
         <v>-11016.4076495753</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3532,17 +3520,11 @@
         <v>-11016.4076495753</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>2997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3571,17 +3553,11 @@
         <v>-11654.9303495753</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>2997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3610,17 +3586,11 @@
         <v>-11654.9303495753</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>2989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3649,17 +3619,11 @@
         <v>-10130.4562495753</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>2989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3688,17 +3652,11 @@
         <v>-5528.067449575296</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>2993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3727,17 +3685,11 @@
         <v>-4832.000849575296</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>2998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3766,17 +3718,11 @@
         <v>-1593.700618406465</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>2999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3805,17 +3751,11 @@
         <v>-2113.700618406465</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>3006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3844,17 +3784,11 @@
         <v>-2114.700618406465</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>3000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3887,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3924,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3961,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3998,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4035,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4072,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4109,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4146,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4183,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4216,17 +4114,11 @@
         <v>715.5173815935349</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>3012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4259,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4296,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4333,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4370,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4407,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4481,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4518,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4555,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4592,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4629,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4666,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4703,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4740,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4777,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4814,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4851,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4888,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4925,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4962,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4999,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5036,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5073,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5110,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5147,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5184,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5221,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5258,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5295,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5332,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5369,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5406,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5443,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5480,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5517,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5554,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5591,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5628,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5702,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5739,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5776,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5813,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5850,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5887,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5924,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5961,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5998,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6035,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6072,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6109,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6146,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6183,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6220,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6257,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6294,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6331,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6368,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6405,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6442,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6479,11 +6131,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6516,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6553,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6590,11 +6230,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6627,11 +6263,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6664,11 +6296,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6701,11 +6329,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6738,11 +6362,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6775,11 +6395,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6812,11 +6428,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6849,11 +6461,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6886,11 +6494,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6923,11 +6527,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6960,11 +6560,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6997,11 +6593,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7034,11 +6626,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7067,17 +6655,11 @@
         <v>-228.6161927866298</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>3003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7106,17 +6688,11 @@
         <v>-228.6161927866298</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>3004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7145,17 +6721,11 @@
         <v>-479.5736927866299</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>3004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7184,17 +6754,11 @@
         <v>-499.2236927866298</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>2989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7223,17 +6787,11 @@
         <v>-515.3950927866298</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>2984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7262,17 +6820,11 @@
         <v>-575.9950927866298</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>2983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7301,17 +6853,11 @@
         <v>-6295.99509278663</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>2981</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7340,17 +6886,11 @@
         <v>-6315.99509278663</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>2964</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7379,17 +6919,11 @@
         <v>-7504.892292786631</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>2962</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7418,17 +6952,11 @@
         <v>-13608.68709278663</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>2950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7457,17 +6985,11 @@
         <v>-12047.43729278663</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>2945</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7496,17 +7018,11 @@
         <v>-9587.39589278663</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>2964</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7535,17 +7051,11 @@
         <v>-9434.86239278663</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>2966</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7574,17 +7084,11 @@
         <v>-9067.087392786631</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>2967</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7613,17 +7117,11 @@
         <v>-8987.18729278663</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>2970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7652,17 +7150,11 @@
         <v>-5075.14359278663</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>2974</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7691,17 +7183,11 @@
         <v>-4964.60729278663</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>2979</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7730,17 +7216,11 @@
         <v>-4975.69639278663</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>2980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7769,17 +7249,11 @@
         <v>-5022.25369278663</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>2969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7808,17 +7282,11 @@
         <v>-5586.81119278663</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>2968</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7847,17 +7315,11 @@
         <v>-5130.748892786631</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>2961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7886,17 +7348,11 @@
         <v>-4337.996692786631</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>2962</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7925,17 +7381,11 @@
         <v>-4337.996692786631</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>2978</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7964,17 +7414,11 @@
         <v>-4337.996692786631</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>2978</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8003,17 +7447,11 @@
         <v>-4295.86479278663</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>2978</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8042,17 +7480,11 @@
         <v>-4290.86479278663</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>2979</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8081,17 +7513,11 @@
         <v>-4485.53819278663</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>2989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8120,17 +7546,11 @@
         <v>-4529.17499278663</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>2985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8159,17 +7579,11 @@
         <v>-4546.89199278663</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>2978</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8198,17 +7612,11 @@
         <v>-4639.52209278663</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>2967</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8237,17 +7645,11 @@
         <v>-6432.11029278663</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>2963</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8276,17 +7678,11 @@
         <v>-6432.11029278663</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>2958</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8315,17 +7711,11 @@
         <v>-7132.175592786631</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>2958</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8354,17 +7744,11 @@
         <v>-3770.867892786631</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>2957</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8393,17 +7777,11 @@
         <v>-3737.513892786631</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>2973</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8432,17 +7810,11 @@
         <v>-3811.681492786631</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>2977</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8471,17 +7843,11 @@
         <v>-4320.41829278663</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>2970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8510,17 +7876,11 @@
         <v>-4280.63439278663</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>2949</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8549,17 +7909,11 @@
         <v>-2631.79189278663</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>2963</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8588,17 +7942,11 @@
         <v>-2908.67769278663</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>2989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8627,17 +7975,11 @@
         <v>-2908.67769278663</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>2980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8666,17 +8008,11 @@
         <v>-2908.67769278663</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>2980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8705,17 +8041,11 @@
         <v>-2967.37769278663</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>2980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8744,17 +8074,11 @@
         <v>-2962.37769278663</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>2978</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8783,17 +8107,11 @@
         <v>-3468.85809278663</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>2984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8822,17 +8140,11 @@
         <v>-3459.65049278663</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>2961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8861,17 +8173,11 @@
         <v>-3538.42649278663</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>2971</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8900,17 +8206,11 @@
         <v>-3538.42649278663</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>2962</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8939,17 +8239,11 @@
         <v>-6791.203292786629</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>2962</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8978,17 +8272,11 @@
         <v>-6665.42009278663</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>2950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9017,17 +8305,11 @@
         <v>-6665.42009278663</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>2953</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9064,7 +8346,7 @@
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L241" t="n">
@@ -9095,11 +8377,9 @@
         <v>-10703.23559278663</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>2952</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
@@ -9134,11 +8414,9 @@
         <v>-12269.52129278663</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>2971</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -9173,11 +8451,9 @@
         <v>-12082.64629278663</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>2957</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -9212,11 +8488,9 @@
         <v>-12091.85389278663</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>2978</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -9251,11 +8525,9 @@
         <v>-11973.78289278663</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>2974</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -9290,11 +8562,9 @@
         <v>-12039.88289278663</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>2980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
@@ -9329,11 +8599,9 @@
         <v>-12022.06919278663</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>2971</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
@@ -9368,11 +8636,9 @@
         <v>-11922.97859278663</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>2976</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
@@ -9407,11 +8673,9 @@
         <v>-12005.57859278663</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>2977</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
@@ -9446,11 +8710,9 @@
         <v>-12817.39839278663</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>2973</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
@@ -9485,11 +8747,9 @@
         <v>-12317.39839278663</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>2968</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -9524,11 +8784,9 @@
         <v>-12929.69999278663</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>2986</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -9563,11 +8821,9 @@
         <v>-11192.44559278663</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>2985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
@@ -9602,11 +8858,9 @@
         <v>-11192.44559278663</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>2992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -9641,11 +8895,9 @@
         <v>-11392.29639278663</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>2992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
@@ -9680,11 +8932,9 @@
         <v>-11473.37769278663</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>2984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
@@ -9719,11 +8969,9 @@
         <v>-15271.30259278663</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>2977</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
@@ -9758,11 +9006,9 @@
         <v>-14310.52379278663</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>2962</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
@@ -9797,11 +9043,9 @@
         <v>-14410.52379278663</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>2992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
@@ -9836,11 +9080,9 @@
         <v>-13795.52379278663</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>2986</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
@@ -9875,11 +9117,9 @@
         <v>-11188.52379278663</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>2992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
@@ -9914,11 +9154,9 @@
         <v>-11177.74389278663</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>2993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
@@ -9953,11 +9191,9 @@
         <v>-11177.74389278663</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>3000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
@@ -9992,11 +9228,9 @@
         <v>-11177.74389278663</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>3000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
@@ -10031,11 +9265,9 @@
         <v>-11177.74389278663</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>3000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -10070,11 +9302,9 @@
         <v>-11306.14659278663</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>3000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -10109,11 +9339,9 @@
         <v>-11124.46059278663</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>2994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -10148,11 +9376,9 @@
         <v>-11591.72459278663</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>3001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
@@ -10187,11 +9413,9 @@
         <v>-11335.59449278663</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>2995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
@@ -10226,11 +9450,9 @@
         <v>-10757.89449278663</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>3005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
@@ -10265,11 +9487,9 @@
         <v>-10255.89449278663</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>3012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
@@ -10304,11 +9524,9 @@
         <v>-9806.112292786629</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>3013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
@@ -10380,11 +9598,9 @@
         <v>-9933.219972362927</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>3014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
@@ -10678,11 +9894,9 @@
         <v>-8514.057324018557</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>3019</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
@@ -10754,11 +9968,9 @@
         <v>-5715.443824018557</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>3020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
@@ -10830,11 +10042,9 @@
         <v>-6804.031324018557</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>3021</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
@@ -11128,11 +10338,9 @@
         <v>-9755.166672362928</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>3005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
@@ -11167,11 +10375,9 @@
         <v>-9739.366672362929</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>3005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
@@ -11206,11 +10412,9 @@
         <v>-9659.438872362929</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>3020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -11356,11 +10560,9 @@
         <v>-10093.24667236293</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>3013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -11395,11 +10597,9 @@
         <v>-11346.14317236293</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>3013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
@@ -11434,11 +10634,9 @@
         <v>-11290.03057236293</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>3010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
@@ -11473,11 +10671,9 @@
         <v>-11198.51647236293</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>3020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
@@ -11512,11 +10708,9 @@
         <v>-15348.74557236293</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>3023</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
@@ -16657,11 +15851,9 @@
         <v>-34448.78816982539</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
-      </c>
-      <c r="I444" t="n">
-        <v>3003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
@@ -16733,11 +15925,9 @@
         <v>-39519.85446982539</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>3003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
@@ -16883,11 +16073,9 @@
         <v>-39545.03216982539</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
-        <v>2980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
@@ -16922,11 +16110,9 @@
         <v>-39545.03216982539</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
-      </c>
-      <c r="I451" t="n">
-        <v>2988</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
@@ -16961,11 +16147,9 @@
         <v>-39665.03216982539</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
-      </c>
-      <c r="I452" t="n">
-        <v>2988</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
@@ -17039,11 +16223,9 @@
         <v>-39106.11856982539</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>2990</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
@@ -17078,11 +16260,9 @@
         <v>-39106.86676982539</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
-        <v>3007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
@@ -17117,11 +16297,9 @@
         <v>-38886.50266982539</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
-        <v>3004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
@@ -17156,11 +16334,9 @@
         <v>-38700.44046982539</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>3005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
@@ -17195,11 +16371,9 @@
         <v>-38306.32016982539</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>3010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
@@ -17234,11 +16408,9 @@
         <v>-39121.82526982539</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>3040</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
@@ -17273,11 +16445,9 @@
         <v>-39268.1252698254</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
-      </c>
-      <c r="I460" t="n">
-        <v>3039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
@@ -18644,9 +17814,11 @@
         <v>-39496.34290092337</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>3041</v>
+      </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
@@ -18681,9 +17853,11 @@
         <v>-39350.04290092336</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>3050</v>
+      </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
@@ -18718,9 +17892,11 @@
         <v>-34494.84290092337</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>3051</v>
+      </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
@@ -21123,9 +20299,11 @@
         <v>-35448.76111408564</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>3076</v>
+      </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
@@ -21160,9 +20338,11 @@
         <v>-35205.38107874193</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>3078</v>
+      </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
@@ -21197,9 +20377,11 @@
         <v>-35431.34837874192</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>3084</v>
+      </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
@@ -21234,9 +20416,11 @@
         <v>-35431.34837874192</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>3078</v>
+      </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
@@ -21271,9 +20455,11 @@
         <v>-37431.34837874192</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>3078</v>
+      </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
@@ -21308,9 +20494,11 @@
         <v>-37431.34837874192</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>3070</v>
+      </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
@@ -21345,9 +20533,11 @@
         <v>-37933.53477874192</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>3070</v>
+      </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
@@ -21382,9 +20572,11 @@
         <v>-38080.54267874192</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>3063</v>
+      </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
@@ -21419,9 +20611,11 @@
         <v>-36099.90147874192</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>3062</v>
+      </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
@@ -21456,9 +20650,11 @@
         <v>-36157.40157874192</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>3067</v>
+      </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
@@ -21493,9 +20689,11 @@
         <v>-38865.83747874192</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>3063</v>
+      </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
@@ -21530,9 +20728,11 @@
         <v>-38865.83747874192</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>3058</v>
+      </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
@@ -21567,9 +20767,11 @@
         <v>-38905.52957874192</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>3058</v>
+      </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
@@ -21604,9 +20806,11 @@
         <v>-38117.81527874192</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>3051</v>
+      </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
@@ -21641,9 +20845,11 @@
         <v>-37990.41527874192</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>3060</v>
+      </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
@@ -21678,9 +20884,11 @@
         <v>-38039.01527874191</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>3066</v>
+      </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
@@ -21715,9 +20923,11 @@
         <v>-37391.88017874191</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>3062</v>
+      </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
@@ -21752,9 +20962,11 @@
         <v>-37347.17717874191</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>3069</v>
+      </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
@@ -21789,9 +21001,11 @@
         <v>-39021.58177874191</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>3073</v>
+      </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
@@ -21826,9 +21040,11 @@
         <v>-39021.91037874192</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>3069</v>
+      </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
@@ -21863,9 +21079,11 @@
         <v>-38905.79037874191</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>3062</v>
+      </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
@@ -21900,9 +21118,11 @@
         <v>-38850.12807874191</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>3073</v>
+      </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
@@ -21937,9 +21157,11 @@
         <v>-36782.33737874191</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>3083</v>
+      </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
@@ -21974,9 +21196,11 @@
         <v>-36766.78047874191</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>3084</v>
+      </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
@@ -22011,9 +21235,11 @@
         <v>-35220.32837874191</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>3088</v>
+      </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
@@ -22048,9 +21274,11 @@
         <v>-32279.56497874191</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>3090</v>
+      </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
@@ -22751,18 +21979,16 @@
         <v>47773.67798128644</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L608" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L608" t="inlineStr"/>
       <c r="M608" t="inlineStr"/>
     </row>
     <row r="609">
@@ -22788,15 +22014,11 @@
         <v>46148.391885233</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -22825,15 +22047,11 @@
         <v>41147.32078523299</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -22862,15 +22080,11 @@
         <v>45022.61131651039</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -22899,15 +22113,11 @@
         <v>46909.4683676617</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -22936,15 +22146,11 @@
         <v>45855.9610676617</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -22973,15 +22179,11 @@
         <v>44129.8753676617</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -23010,15 +22212,11 @@
         <v>41909.35409127585</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -23051,11 +22249,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -23088,11 +22282,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -23125,11 +22315,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -23162,11 +22348,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -23195,15 +22377,11 @@
         <v>54531.41558387782</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -23232,15 +22410,11 @@
         <v>60444.68961214812</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -23269,15 +22443,11 @@
         <v>48886.6025541314</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -23306,15 +22476,11 @@
         <v>49219.1633541314</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -23343,15 +22509,11 @@
         <v>43951.9262541314</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -23380,15 +22542,11 @@
         <v>43951.9262541314</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -23417,15 +22575,11 @@
         <v>42096.30641188273</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -23454,15 +22608,11 @@
         <v>41436.35941188273</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -23491,15 +22641,11 @@
         <v>40948.27071188273</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -23528,15 +22674,11 @@
         <v>42422.79961188273</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -23565,15 +22707,11 @@
         <v>42687.34191188273</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -23602,15 +22740,11 @@
         <v>42191.88431188273</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -23639,15 +22773,11 @@
         <v>42191.88431188273</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -23676,15 +22806,11 @@
         <v>37084.45081188273</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -23713,15 +22839,11 @@
         <v>35422.77281188273</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -23750,15 +22872,11 @@
         <v>35011.43141188273</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -23787,15 +22905,11 @@
         <v>39634.53421188273</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -23824,15 +22938,11 @@
         <v>39785.32191188273</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -23861,15 +22971,11 @@
         <v>39817.74241188273</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -23902,11 +23008,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -23935,15 +23037,11 @@
         <v>37192.72052980253</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -23976,11 +23074,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -24013,11 +23107,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -24050,11 +23140,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -24087,11 +23173,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -24124,11 +23206,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -24161,11 +23239,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -24198,11 +23272,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -24231,15 +23301,11 @@
         <v>40382.67757118532</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -24272,11 +23338,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -24309,11 +23371,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -24346,11 +23404,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -24383,11 +23437,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -24420,11 +23470,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -24457,11 +23503,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -24494,11 +23536,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -24531,11 +23569,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -24568,11 +23602,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -24605,11 +23635,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -24642,11 +23668,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -24679,11 +23701,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -24716,11 +23734,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -24753,11 +23767,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -24790,11 +23800,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -24827,11 +23833,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -24864,11 +23866,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -24901,11 +23899,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -24938,11 +23932,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -24975,11 +23965,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -25012,11 +23998,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -25049,11 +24031,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -25086,11 +24064,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -25123,11 +24097,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -25160,11 +24130,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -25197,11 +24163,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -25234,11 +24196,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -25271,11 +24229,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -25308,11 +24262,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -25345,11 +24295,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -25382,11 +24328,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -25419,11 +24361,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -25456,11 +24394,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -25493,11 +24427,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -25530,11 +24460,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -25567,11 +24493,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -25604,11 +24526,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -25641,11 +24559,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -25678,11 +24592,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -25715,11 +24625,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -25752,11 +24658,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -25789,11 +24691,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -25826,11 +24724,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -25863,11 +24757,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -25900,11 +24790,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -25937,11 +24823,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -25974,11 +24856,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -26011,11 +24889,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -26048,11 +24922,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -26085,11 +24955,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -26122,11 +24988,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -26159,11 +25021,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -26196,11 +25054,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -26233,11 +25087,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -26270,11 +25120,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -26307,11 +25153,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -26344,11 +25186,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -26381,11 +25219,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -26418,11 +25252,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -26455,11 +25285,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -26492,11 +25318,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -26529,11 +25351,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -26566,11 +25384,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -26603,11 +25417,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -26640,11 +25450,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -26677,11 +25483,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -26714,11 +25516,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -26751,11 +25549,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -26788,11 +25582,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -26825,11 +25615,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -26862,11 +25648,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -26899,11 +25681,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -26936,11 +25714,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -26973,11 +25747,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -27010,11 +25780,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -27047,11 +25813,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -27084,11 +25846,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -27121,11 +25879,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -27158,11 +25912,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -27195,11 +25945,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -27232,11 +25978,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -27269,11 +26011,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -27306,11 +26044,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -27343,11 +26077,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -27380,11 +26110,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -27417,11 +26143,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -27454,11 +26176,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -27491,11 +26209,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -27528,11 +26242,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -27565,11 +26275,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -27602,11 +26308,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -27639,11 +26341,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -27676,11 +26374,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -27713,11 +26407,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -27750,11 +26440,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -27787,11 +26473,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -27824,11 +26506,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -27861,11 +26539,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -27898,11 +26572,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -27935,11 +26605,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -27972,11 +26638,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -28009,11 +26671,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -28046,11 +26704,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -28083,11 +26737,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -28120,11 +26770,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -28157,11 +26803,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -28194,11 +26836,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -28231,11 +26869,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -28268,11 +26902,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -28305,11 +26935,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -28342,11 +26968,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -28379,11 +27001,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -28416,11 +27034,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -28453,11 +27067,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -28490,11 +27100,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -28527,11 +27133,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -28564,11 +27166,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -28601,11 +27199,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -28638,11 +27232,7 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -28675,11 +27265,7 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -28712,11 +27298,7 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -28749,11 +27331,7 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -28786,11 +27364,7 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -28823,11 +27397,7 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -28860,11 +27430,7 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -28897,11 +27463,7 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -28934,11 +27496,7 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -28971,11 +27529,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -29008,11 +27562,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -29045,11 +27595,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -29082,11 +27628,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -29119,11 +27661,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -29156,11 +27694,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -29193,11 +27727,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -29230,11 +27760,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -29267,11 +27793,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -29304,11 +27826,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -29341,11 +27859,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -29378,11 +27892,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -29415,11 +27925,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -29452,11 +27958,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -29489,11 +27991,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -29526,11 +28024,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -29563,11 +28057,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -29600,11 +28090,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -29637,11 +28123,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -29674,11 +28156,7 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -29711,11 +28189,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -29748,11 +28222,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -29785,11 +28255,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -29822,11 +28288,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -29859,11 +28321,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -29892,15 +28350,11 @@
         <v>47636.2976355461</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -29929,15 +28383,11 @@
         <v>53505.3553355461</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -29966,15 +28416,11 @@
         <v>55228.3067355461</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -30003,15 +28449,11 @@
         <v>56109.0200355461</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -30040,15 +28482,11 @@
         <v>53361.9364355461</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -30077,15 +28515,11 @@
         <v>52305.70611332387</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -30114,15 +28548,11 @@
         <v>52305.70611332387</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K807" t="inlineStr"/>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -30151,15 +28581,11 @@
         <v>52324.00611332388</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K808" t="inlineStr"/>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -30188,15 +28614,11 @@
         <v>52324.00611332388</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K809" t="inlineStr"/>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -30225,15 +28647,11 @@
         <v>54487.62051332388</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -30262,15 +28680,11 @@
         <v>59271.74501332387</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K811" t="inlineStr"/>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -30299,15 +28713,11 @@
         <v>64565.26941332388</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -30336,15 +28746,11 @@
         <v>71424.01851332387</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K813" t="inlineStr"/>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -30373,15 +28779,11 @@
         <v>72930.83640571748</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K814" t="inlineStr"/>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -30410,15 +28812,11 @@
         <v>69069.65444836764</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -30447,15 +28845,11 @@
         <v>62321.83364836764</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -30484,15 +28878,11 @@
         <v>61473.88304836764</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -30521,15 +28911,11 @@
         <v>67206.41876351916</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -30558,15 +28944,11 @@
         <v>70313.7943935463</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -30595,15 +28977,11 @@
         <v>70313.7943935463</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -30632,15 +29010,11 @@
         <v>67745.61689354629</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -30669,15 +29043,11 @@
         <v>65272.50479354629</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -30710,11 +29080,7 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -30743,15 +29109,11 @@
         <v>67095.48477672839</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -30780,15 +29142,11 @@
         <v>66391.15227672839</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -30817,15 +29175,11 @@
         <v>66391.15227672839</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -30854,15 +29208,11 @@
         <v>54222.30927672839</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -30891,15 +29241,11 @@
         <v>53245.93067672839</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -30928,15 +29274,11 @@
         <v>53542.20957672838</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -30965,15 +29307,11 @@
         <v>56978.29497672839</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -31002,15 +29340,11 @@
         <v>56704.64617672838</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -31043,11 +29377,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -31080,11 +29410,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -31117,11 +29443,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -31154,11 +29476,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -31191,11 +29509,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -31228,11 +29542,7 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -31265,11 +29575,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -31302,11 +29608,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -31339,11 +29641,7 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -31376,11 +29674,7 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -31413,11 +29707,7 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -31450,11 +29740,7 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -31487,11 +29773,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -31524,11 +29806,7 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -31561,11 +29839,7 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -31598,11 +29872,7 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -31635,11 +29905,7 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -31672,11 +29938,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -31709,11 +29971,7 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -31746,11 +30004,7 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -31783,11 +30037,7 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -31820,11 +30070,7 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -31857,11 +30103,7 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -31894,11 +30136,7 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -31931,11 +30169,7 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -31968,11 +30202,7 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -32005,11 +30235,7 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -32042,11 +30268,7 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -32079,11 +30301,7 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -32116,11 +30334,7 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -32153,11 +30367,7 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -32190,11 +30400,7 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -32227,11 +30433,7 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -32264,11 +30466,7 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -32301,11 +30499,7 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K866" t="inlineStr"/>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -32338,11 +30532,7 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -32375,11 +30565,7 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -32412,11 +30598,7 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -32449,11 +30631,7 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -32486,11 +30664,7 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K871" t="inlineStr"/>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -32523,11 +30697,7 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K872" t="inlineStr"/>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -32560,11 +30730,7 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -32597,11 +30763,7 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -32634,11 +30796,7 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -32671,11 +30829,7 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -32708,11 +30862,7 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K877" t="inlineStr"/>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -32745,11 +30895,7 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -32782,11 +30928,7 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K879" t="inlineStr"/>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -32819,11 +30961,7 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K880" t="inlineStr"/>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -32856,11 +30994,7 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K881" t="inlineStr"/>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -32893,11 +31027,7 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K882" t="inlineStr"/>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -32930,11 +31060,7 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K883" t="inlineStr"/>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -32967,11 +31093,7 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K884" t="inlineStr"/>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -33000,16 +31122,14 @@
         <v>126309.155652236</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L885" t="inlineStr"/>
+      <c r="K885" t="inlineStr"/>
+      <c r="L885" t="n">
+        <v>1</v>
+      </c>
       <c r="M885" t="inlineStr"/>
     </row>
     <row r="886">
@@ -33035,7 +31155,7 @@
         <v>119902.943752236</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -33101,7 +31221,7 @@
         <v>100101.943452236</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -33134,7 +31254,7 @@
         <v>117381.167552236</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -33167,7 +31287,7 @@
         <v>123075.4526540786</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -33200,7 +31320,7 @@
         <v>120857.0858615413</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -33233,7 +31353,7 @@
         <v>122318.9852615413</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -33266,7 +31386,7 @@
         <v>116363.6497615413</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -33299,7 +31419,7 @@
         <v>106033.4490615413</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -33332,7 +31452,7 @@
         <v>110700.1034615413</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -33365,7 +31485,7 @@
         <v>108413.2497615413</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -33398,7 +31518,7 @@
         <v>105270.4761760417</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -33431,7 +31551,7 @@
         <v>105275.4761760417</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -33464,7 +31584,7 @@
         <v>102162.469905844</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -33497,7 +31617,7 @@
         <v>98476.33970584403</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -33530,7 +31650,7 @@
         <v>100112.399505844</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -33563,7 +31683,7 @@
         <v>98586.30148584994</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -33596,7 +31716,7 @@
         <v>97765.56248584994</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -33629,7 +31749,7 @@
         <v>93088.45468584994</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -33662,7 +31782,7 @@
         <v>104849.6789858499</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -33695,7 +31815,7 @@
         <v>103174.1833858499</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -33728,7 +31848,7 @@
         <v>98838.02618584994</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -33761,7 +31881,7 @@
         <v>100068.7509858499</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -33794,7 +31914,7 @@
         <v>101462.4006858499</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -33827,7 +31947,7 @@
         <v>102023.7114858499</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -34157,7 +32277,7 @@
         <v>109931.0828632702</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -34223,7 +32343,7 @@
         <v>111953.8811632702</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -34256,7 +32376,7 @@
         <v>112002.3840632702</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -34289,7 +32409,7 @@
         <v>112815.1973632702</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -34322,7 +32442,7 @@
         <v>112815.1973632702</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -34355,7 +32475,7 @@
         <v>110319.7658632702</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -34388,7 +32508,7 @@
         <v>107298.7964632702</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -34421,7 +32541,7 @@
         <v>107298.7964632702</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -34454,7 +32574,7 @@
         <v>107298.7964632702</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -34487,7 +32607,7 @@
         <v>107298.7964632702</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -34520,7 +32640,7 @@
         <v>107298.7964632702</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -34553,7 +32673,7 @@
         <v>103655.7515632702</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -34586,7 +32706,7 @@
         <v>103655.7515632702</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -34619,7 +32739,7 @@
         <v>104709.9639632702</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -34652,7 +32772,7 @@
         <v>105451.9986632702</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -34685,7 +32805,7 @@
         <v>107122.6580632703</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -34718,7 +32838,7 @@
         <v>108498.8398632703</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -34751,7 +32871,7 @@
         <v>110979.5875632703</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -34784,7 +32904,7 @@
         <v>108657.4862632703</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -34817,7 +32937,7 @@
         <v>110199.0392632703</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -34850,7 +32970,7 @@
         <v>107290.4993490929</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -34883,7 +33003,7 @@
         <v>106929.3141490929</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -34916,7 +33036,7 @@
         <v>106929.3141490929</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -34949,7 +33069,7 @@
         <v>106728.6317490929</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -34982,7 +33102,7 @@
         <v>106728.6317490929</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -35015,7 +33135,7 @@
         <v>107421.3291490929</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -35081,7 +33201,7 @@
         <v>106251.9448490929</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -35213,7 +33333,7 @@
         <v>104553.6961490929</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -35246,7 +33366,7 @@
         <v>104207.9432490929</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -35279,7 +33399,7 @@
         <v>104207.9432490929</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -35312,7 +33432,7 @@
         <v>103056.6190490929</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -35345,7 +33465,7 @@
         <v>100643.6087490929</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -35378,7 +33498,7 @@
         <v>100434.6358490929</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -35411,7 +33531,7 @@
         <v>91891.29624909291</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -35444,7 +33564,7 @@
         <v>89503.4318490929</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -35477,7 +33597,7 @@
         <v>89726.0599490929</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -35510,7 +33630,7 @@
         <v>89585.0866490929</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -35543,7 +33663,7 @@
         <v>80258.7278490929</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -35576,7 +33696,7 @@
         <v>80269.2534490929</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -35609,7 +33729,7 @@
         <v>81635.73524909289</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -35642,7 +33762,7 @@
         <v>81635.73524909289</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -35675,7 +33795,7 @@
         <v>81994.35811185415</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -35708,7 +33828,7 @@
         <v>81158.96761185415</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -35741,7 +33861,7 @@
         <v>79437.85571185415</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -35774,7 +33894,7 @@
         <v>79886.76711185415</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -35807,7 +33927,7 @@
         <v>78867.21760398106</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -35840,7 +33960,7 @@
         <v>77036.14650398106</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -35873,7 +33993,7 @@
         <v>77689.66700398106</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -35906,7 +34026,7 @@
         <v>79283.23150398105</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -35939,7 +34059,7 @@
         <v>79283.23150398105</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -35972,7 +34092,7 @@
         <v>79782.58970398105</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -36005,7 +34125,7 @@
         <v>79782.58970398105</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -36038,7 +34158,7 @@
         <v>79782.58970398105</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -36071,7 +34191,7 @@
         <v>80286.32920398105</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -36104,7 +34224,7 @@
         <v>81890.04340398105</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -36137,7 +34257,7 @@
         <v>81876.85690398105</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -36170,7 +34290,7 @@
         <v>81734.46080398106</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -36203,7 +34323,7 @@
         <v>81825.24080398105</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -36236,7 +34356,7 @@
         <v>90537.86280398106</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -36269,7 +34389,7 @@
         <v>96763.08030398106</v>
       </c>
       <c r="H984" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -36302,7 +34422,7 @@
         <v>95301.00710398106</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -36335,7 +34455,7 @@
         <v>93396.35640398106</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -36368,7 +34488,7 @@
         <v>93361.35640398106</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -36401,7 +34521,7 @@
         <v>93361.35640398106</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -36434,7 +34554,7 @@
         <v>93226.15540398106</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -36467,7 +34587,7 @@
         <v>93219.66060398106</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -36500,7 +34620,7 @@
         <v>93219.66060398106</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -36533,7 +34653,7 @@
         <v>93219.66060398106</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -36566,7 +34686,7 @@
         <v>93234.58050398105</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -36599,7 +34719,7 @@
         <v>94584.78930398104</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -36632,7 +34752,7 @@
         <v>93776.81990398104</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -36665,7 +34785,7 @@
         <v>93414.85080398104</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -36698,7 +34818,7 @@
         <v>93966.50110398103</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -36731,7 +34851,7 @@
         <v>104754.190003981</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -36764,7 +34884,7 @@
         <v>104029.914903981</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -36797,7 +34917,7 @@
         <v>107120.625703981</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -36830,7 +34950,7 @@
         <v>107686.206503981</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -36863,7 +34983,7 @@
         <v>107519.433703981</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -36896,7 +35016,7 @@
         <v>104911.445903981</v>
       </c>
       <c r="H1003" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -36929,7 +35049,7 @@
         <v>105346.391303981</v>
       </c>
       <c r="H1004" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -36962,7 +35082,7 @@
         <v>104478.8740305839</v>
       </c>
       <c r="H1005" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -36995,7 +35115,7 @@
         <v>107815.1229571867</v>
       </c>
       <c r="H1006" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -37028,7 +35148,7 @@
         <v>109325.0830325323</v>
       </c>
       <c r="H1007" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -37061,7 +35181,7 @@
         <v>108149.2011325323</v>
       </c>
       <c r="H1008" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -37094,7 +35214,7 @@
         <v>94461.26783253232</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -37127,7 +35247,7 @@
         <v>88812.53623253232</v>
       </c>
       <c r="H1010" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -37160,7 +35280,7 @@
         <v>93325.68843253232</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -37193,7 +35313,7 @@
         <v>94825.68843253232</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -37226,7 +35346,7 @@
         <v>95471.49253253231</v>
       </c>
       <c r="H1013" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -37259,7 +35379,7 @@
         <v>80759.65003253231</v>
       </c>
       <c r="H1014" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -37292,7 +35412,7 @@
         <v>83349.62733253231</v>
       </c>
       <c r="H1015" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -37325,7 +35445,7 @@
         <v>83094.66133253231</v>
       </c>
       <c r="H1016" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -37358,7 +35478,7 @@
         <v>85590.91403253231</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -37391,7 +35511,7 @@
         <v>84439.31673253232</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -37424,7 +35544,7 @@
         <v>84603.54123253231</v>
       </c>
       <c r="H1019" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -37457,7 +35577,7 @@
         <v>84631.70393253231</v>
       </c>
       <c r="H1020" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -37490,7 +35610,7 @@
         <v>85618.12853960421</v>
       </c>
       <c r="H1021" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -37523,7 +35643,7 @@
         <v>85618.12853960421</v>
       </c>
       <c r="H1022" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -37556,7 +35676,7 @@
         <v>85611.67353960421</v>
       </c>
       <c r="H1023" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -37589,7 +35709,7 @@
         <v>83286.71593960421</v>
       </c>
       <c r="H1024" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -37622,7 +35742,7 @@
         <v>74557.93973960422</v>
       </c>
       <c r="H1025" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -37655,7 +35775,7 @@
         <v>74557.93973960422</v>
       </c>
       <c r="H1026" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -37688,7 +35808,7 @@
         <v>74742.06953960421</v>
       </c>
       <c r="H1027" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -37721,7 +35841,7 @@
         <v>74742.06953960421</v>
       </c>
       <c r="H1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -37754,7 +35874,7 @@
         <v>70135.88373960421</v>
       </c>
       <c r="H1029" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -37787,7 +35907,7 @@
         <v>70501.7372396042</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -37820,7 +35940,7 @@
         <v>70501.7372396042</v>
       </c>
       <c r="H1031" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -37853,7 +35973,7 @@
         <v>70414.5229396042</v>
       </c>
       <c r="H1032" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -37886,7 +36006,7 @@
         <v>70414.5229396042</v>
       </c>
       <c r="H1033" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -37919,7 +36039,7 @@
         <v>68796.7607396042</v>
       </c>
       <c r="H1034" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -37952,7 +36072,7 @@
         <v>69115.80803960421</v>
       </c>
       <c r="H1035" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -37985,7 +36105,7 @@
         <v>70251.26361199161</v>
       </c>
       <c r="H1036" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -38018,7 +36138,7 @@
         <v>70252.15761199161</v>
       </c>
       <c r="H1037" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -38051,7 +36171,7 @@
         <v>70252.15761199161</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -38084,7 +36204,7 @@
         <v>70188.08181199161</v>
       </c>
       <c r="H1039" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -38117,7 +36237,7 @@
         <v>69214.89261199161</v>
       </c>
       <c r="H1040" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -38150,7 +36270,7 @@
         <v>69214.89261199161</v>
       </c>
       <c r="H1041" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -38183,7 +36303,7 @@
         <v>69214.89261199161</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -38216,7 +36336,7 @@
         <v>69224.60331199161</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -38249,7 +36369,7 @@
         <v>67139.46141199161</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -38282,7 +36402,7 @@
         <v>63540.66701199161</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -38315,7 +36435,7 @@
         <v>65224.53801199161</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -38348,7 +36468,7 @@
         <v>65243.44501199161</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -38381,7 +36501,7 @@
         <v>67048.20171199161</v>
       </c>
       <c r="H1048" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -38414,7 +36534,7 @@
         <v>67270.60171199161</v>
       </c>
       <c r="H1049" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -38447,7 +36567,7 @@
         <v>66614.01131199161</v>
       </c>
       <c r="H1050" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -38480,7 +36600,7 @@
         <v>67111.90541199161</v>
       </c>
       <c r="H1051" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -38513,7 +36633,7 @@
         <v>67469.13971199161</v>
       </c>
       <c r="H1052" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -38546,7 +36666,7 @@
         <v>67469.13971199161</v>
       </c>
       <c r="H1053" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -38579,7 +36699,7 @@
         <v>68163.88401199161</v>
       </c>
       <c r="H1054" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -38612,7 +36732,7 @@
         <v>68163.88401199161</v>
       </c>
       <c r="H1055" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -38645,7 +36765,7 @@
         <v>70312.13211199161</v>
       </c>
       <c r="H1056" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -38678,7 +36798,7 @@
         <v>69468.64581199161</v>
       </c>
       <c r="H1057" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -38711,7 +36831,7 @@
         <v>71897.85765869732</v>
       </c>
       <c r="H1058" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -38744,7 +36864,7 @@
         <v>71397.85765869732</v>
       </c>
       <c r="H1059" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -38777,7 +36897,7 @@
         <v>71397.85765869732</v>
       </c>
       <c r="H1060" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -38810,7 +36930,7 @@
         <v>71525.95765869733</v>
       </c>
       <c r="H1061" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -38843,7 +36963,7 @@
         <v>73997.56725869732</v>
       </c>
       <c r="H1062" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -38854,6 +36974,6 @@
       <c r="M1062" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>